--- a/app/config/tables/MADTRIAL_FU_PHONE/Forms/MADTRIAL_FU_PHONE/MADTRIAL_FU_PHONE.xlsx
+++ b/app/config/tables/MADTRIAL_FU_PHONE/Forms/MADTRIAL_FU_PHONE/MADTRIAL_FU_PHONE.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBEECD2-6849-4886-A2BE-8AA61FFE062A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
     <sheet name="prompt_types" sheetId="6" r:id="rId5"/>
     <sheet name="model" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>setting_name</t>
   </si>
@@ -157,12 +156,30 @@
   </si>
   <si>
     <t>end screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>DATSEGUI</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Data da ligação</t>
+  </si>
+  <si>
+    <t>Integre</t>
+  </si>
+  <si>
+    <t>TELENUM1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-406]General"/>
   </numFmts>
@@ -277,10 +294,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -557,7 +574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -565,16 +582,16 @@
       <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -594,7 +611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -602,7 +619,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -610,7 +627,7 @@
         <v>270519</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -618,7 +635,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -632,7 +649,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -643,7 +660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -654,7 +671,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
@@ -669,28 +686,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.81640625" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.5703125" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.54296875" customWidth="1"/>
+    <col min="8" max="8" width="35.453125" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
@@ -719,35 +736,64 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E12" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G16" s="14"/>
     </row>
-    <row r="46" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H49" s="4"/>
     </row>
   </sheetData>
@@ -757,7 +803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -765,15 +811,15 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -787,383 +833,383 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D20" s="2"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="4"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="4"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="4"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="4"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
       <c r="D52" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B54" s="10"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B55" s="10"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B56" s="10"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B57" s="10"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B58" s="10"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B59" s="10"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B60" s="10"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B61" s="10"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B62" s="10"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B63" s="10"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B64" s="10"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="10"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="10"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="10"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="10"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="10"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="10"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="10"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="10"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="10"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="10"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="10"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="10"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="10"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="10"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="10"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="10"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B81" s="10"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B82" s="10"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B83" s="10"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B84" s="10"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C92" s="10"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B111" s="10"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B112" s="10"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="10"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B114" s="10"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B115" s="10"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B116" s="10"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B117" s="10"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B119" s="10"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B120" s="10"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B121" s="10"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B122" s="10"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B123" s="10"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B124" s="10"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B125" s="10"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B126" s="10"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B127" s="10"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B128" s="10"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B129" s="10"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B130" s="10"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B131" s="10"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B132" s="10"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B133" s="10"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B134" s="10"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B135" s="10"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B136" s="10"/>
     </row>
   </sheetData>
@@ -1174,7 +1220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1182,13 +1228,13 @@
       <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>32</v>
       </c>
@@ -1203,7 +1249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1211,15 +1257,15 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>26</v>
       </c>
@@ -1233,7 +1279,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1254,7 +1300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1262,14 +1308,14 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -1280,210 +1326,210 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" s="12"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="12"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B49" s="8"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B50" s="9"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B51" s="9"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B52" s="9"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B56" s="9"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B57" s="9"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B58" s="9"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B59" s="9"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B60" s="9"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B61" s="9"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B62" s="9"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B63" s="9"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B64" s="9"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="9"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="9"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="9"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="9"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="9"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="9"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="9"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="9"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="9"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="9"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="9"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="9"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="9"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="9"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="9"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="9"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="9"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="9"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="9"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="9"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="9"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="9"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" s="9"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="9"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89" s="9"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="9"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" s="9"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" s="9"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="9"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" s="9"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" s="9"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B96" s="9"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B97" s="9"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B98" s="9"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B99" s="9"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B100" s="9"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B101" s="9"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B102" s="9"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B103" s="9"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B104" s="9"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B105" s="9"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B106" s="9"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B107" s="9"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B108" s="9"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B109" s="9"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B110" s="9"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B111" s="9"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B112" s="9"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="9"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B114" s="9"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B115" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:G92">
+  <sortState ref="F2:G92">
     <sortCondition ref="G2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/config/tables/MADTRIAL_FU_PHONE/Forms/MADTRIAL_FU_PHONE/MADTRIAL_FU_PHONE.xlsx
+++ b/app/config/tables/MADTRIAL_FU_PHONE/Forms/MADTRIAL_FU_PHONE/MADTRIAL_FU_PHONE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="143">
   <si>
     <t>setting_name</t>
   </si>
@@ -164,16 +164,301 @@
     <t>DATSEGUI</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Data da ligação</t>
   </si>
   <si>
-    <t>Integre</t>
-  </si>
-  <si>
     <t>TELENUM1</t>
+  </si>
+  <si>
+    <t>Assistente</t>
+  </si>
+  <si>
+    <t>ASSISTENTE</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Numero de telemovel</t>
+  </si>
+  <si>
+    <t>select_one</t>
+  </si>
+  <si>
+    <t>cham</t>
+  </si>
+  <si>
+    <t>CHAMADA1</t>
+  </si>
+  <si>
+    <t>1 a Chamada</t>
+  </si>
+  <si>
+    <t>Seguimento realizado</t>
+  </si>
+  <si>
+    <t>Sem rede</t>
+  </si>
+  <si>
+    <t>não atende o telemovel</t>
+  </si>
+  <si>
+    <t>Numero Incorreto</t>
+  </si>
+  <si>
+    <t>Se voce não conseguir obter informação na primeira chamada, tente cada numero trez vezes</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>TELENUM2</t>
+  </si>
+  <si>
+    <t>CHAMADA2</t>
+  </si>
+  <si>
+    <t>2 a Chamada</t>
+  </si>
+  <si>
+    <t>TELENUM3</t>
+  </si>
+  <si>
+    <t>3 a Chamada</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>INFORMADOR</t>
+  </si>
+  <si>
+    <t>Informador</t>
+  </si>
+  <si>
+    <t>Mae</t>
+  </si>
+  <si>
+    <t>Outro</t>
+  </si>
+  <si>
+    <t>Outro zelador</t>
+  </si>
+  <si>
+    <t>Ninguem para fornecer informaçeos</t>
+  </si>
+  <si>
+    <t>sim/não</t>
+  </si>
+  <si>
+    <t>VITALCRI</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>não</t>
+  </si>
+  <si>
+    <t>sim/não/nãosabe</t>
+  </si>
+  <si>
+    <t>não sabe</t>
+  </si>
+  <si>
+    <t>DOD</t>
+  </si>
+  <si>
+    <t>Data do felecimento</t>
+  </si>
+  <si>
+    <t>VACHIS</t>
+  </si>
+  <si>
+    <t>A criança recebeu outras vacinas desde que foi vacinada no Simão Mendes?</t>
+  </si>
+  <si>
+    <t>select_multiple</t>
+  </si>
+  <si>
+    <t>vac</t>
+  </si>
+  <si>
+    <t>VACTIPO</t>
+  </si>
+  <si>
+    <t>Qual vacinas?</t>
+  </si>
+  <si>
+    <t>BCG</t>
+  </si>
+  <si>
+    <t>VPO</t>
+  </si>
+  <si>
+    <t>Penta</t>
+  </si>
+  <si>
+    <t>PCV</t>
+  </si>
+  <si>
+    <t>Rota</t>
+  </si>
+  <si>
+    <t>Sarampo</t>
+  </si>
+  <si>
+    <t>Febre Amarelo</t>
+  </si>
+  <si>
+    <t>VACOUTRO</t>
+  </si>
+  <si>
+    <t>Outro Vacina</t>
+  </si>
+  <si>
+    <t>HOSPI</t>
+  </si>
+  <si>
+    <t>A criança foi internada no hospital desde que foi vacinada contra sarampo em Simão Mendes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adate </t>
+  </si>
+  <si>
+    <t>HOSPDATA1</t>
+  </si>
+  <si>
+    <t>Data do Primeiro Internamento</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>end if</t>
+  </si>
+  <si>
+    <t>data('HOSPI')=="1"</t>
+  </si>
+  <si>
+    <t>HOSPCODE1</t>
+  </si>
+  <si>
+    <t>Local do primeiro Internamento</t>
+  </si>
+  <si>
+    <t>HOSPCAUSA1</t>
+  </si>
+  <si>
+    <t>Causa do primeiro Internamento</t>
+  </si>
+  <si>
+    <t>HOSPDIAS1</t>
+  </si>
+  <si>
+    <t>Duração do primeiro Internamento  em dias</t>
+  </si>
+  <si>
+    <t>HOSPI2</t>
+  </si>
+  <si>
+    <t>A criança foi enternada no hospital mais de um vez?</t>
+  </si>
+  <si>
+    <t>HOSPDATA2</t>
+  </si>
+  <si>
+    <t>Local do segundo Internamento</t>
+  </si>
+  <si>
+    <t>HOSPCAUSA2</t>
+  </si>
+  <si>
+    <t>Data do segundo Internamento</t>
+  </si>
+  <si>
+    <t>HOSPDIA2</t>
+  </si>
+  <si>
+    <t>Duração do segundo Internamento</t>
+  </si>
+  <si>
+    <t>HOSPALTA2</t>
+  </si>
+  <si>
+    <t>A criança esta ainda Internada</t>
+  </si>
+  <si>
+    <t>HOSPCODE2</t>
+  </si>
+  <si>
+    <t>Causa de segundo Internamento</t>
+  </si>
+  <si>
+    <t>HOSPALTA</t>
+  </si>
+  <si>
+    <t>A criança esta ainda internada</t>
+  </si>
+  <si>
+    <t>data('HOSPI2')=="1"</t>
+  </si>
+  <si>
+    <t>HOSPI3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if </t>
+  </si>
+  <si>
+    <t>data('HOSPI3')=="1"</t>
+  </si>
+  <si>
+    <t>HOSPDATA3</t>
+  </si>
+  <si>
+    <t>Data do terceiro Internamento</t>
+  </si>
+  <si>
+    <t>Local do terceiro Internamento</t>
+  </si>
+  <si>
+    <t>Causa do terceiro Internamento</t>
+  </si>
+  <si>
+    <t>Duraçao do terceiro Internamento em dias</t>
+  </si>
+  <si>
+    <t>HOSPCODE3</t>
+  </si>
+  <si>
+    <t>HOSPCAUSA3</t>
+  </si>
+  <si>
+    <t>HOSPDIAS3</t>
+  </si>
+  <si>
+    <t>HOSPALTA3</t>
+  </si>
+  <si>
+    <t>a criança esta ainda Internada</t>
+  </si>
+  <si>
+    <t>PODEAUT</t>
+  </si>
+  <si>
+    <t>Podemos visita-lo para fazer mais perguntas sobre a morte de seu filho</t>
+  </si>
+  <si>
+    <t>A criança ainda esta viva?</t>
+  </si>
+  <si>
+    <t>A criança foi Internada no hospital mais de duas vezes?</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>data('VITALCRI')=="2"</t>
   </si>
 </sst>
 </file>
@@ -687,11 +972,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -743,13 +1028,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -764,37 +1049,627 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
       </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E12" s="4"/>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>141</v>
+      </c>
+      <c r="H15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
       <c r="G16" s="14"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D42" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" t="s">
+        <v>93</v>
+      </c>
+      <c r="H42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D45" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" t="s">
+        <v>76</v>
+      </c>
+      <c r="F45" t="s">
+        <v>95</v>
+      </c>
+      <c r="H45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H49" s="4"/>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D49" t="s">
+        <v>97</v>
+      </c>
+      <c r="F49" t="s">
+        <v>98</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" t="s">
+        <v>103</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D51" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" t="s">
+        <v>105</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" t="s">
+        <v>107</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D53" t="s">
+        <v>48</v>
+      </c>
+      <c r="F53" t="s">
+        <v>121</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>41</v>
+      </c>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D56" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" t="s">
+        <v>109</v>
+      </c>
+      <c r="H56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D60" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" t="s">
+        <v>111</v>
+      </c>
+      <c r="H60" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D61" t="s">
+        <v>48</v>
+      </c>
+      <c r="F61" t="s">
+        <v>113</v>
+      </c>
+      <c r="H61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D62" t="s">
+        <v>48</v>
+      </c>
+      <c r="F62" t="s">
+        <v>119</v>
+      </c>
+      <c r="H62" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D63" t="s">
+        <v>59</v>
+      </c>
+      <c r="F63" t="s">
+        <v>115</v>
+      </c>
+      <c r="H63" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D64" t="s">
+        <v>48</v>
+      </c>
+      <c r="F64" t="s">
+        <v>117</v>
+      </c>
+      <c r="H64" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D67" t="s">
+        <v>50</v>
+      </c>
+      <c r="E67" t="s">
+        <v>76</v>
+      </c>
+      <c r="F67" t="s">
+        <v>124</v>
+      </c>
+      <c r="H67" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D71" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71" t="s">
+        <v>127</v>
+      </c>
+      <c r="H71" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D72" t="s">
+        <v>48</v>
+      </c>
+      <c r="F72" t="s">
+        <v>132</v>
+      </c>
+      <c r="H72" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D73" t="s">
+        <v>48</v>
+      </c>
+      <c r="F73" t="s">
+        <v>133</v>
+      </c>
+      <c r="H73" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D74" t="s">
+        <v>59</v>
+      </c>
+      <c r="F74" t="s">
+        <v>134</v>
+      </c>
+      <c r="H74" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D75" t="s">
+        <v>48</v>
+      </c>
+      <c r="F75" t="s">
+        <v>135</v>
+      </c>
+      <c r="H75" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B76" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B79" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D81" t="s">
+        <v>50</v>
+      </c>
+      <c r="E81" t="s">
+        <v>72</v>
+      </c>
+      <c r="F81" t="s">
+        <v>137</v>
+      </c>
+      <c r="H81" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B82" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -808,7 +1683,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D20"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -833,64 +1708,261 @@
         <v>14</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="2"/>
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D4" s="2"/>
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D5" s="2"/>
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D6" s="2"/>
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D7" s="2"/>
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D11" s="2"/>
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D12" s="2"/>
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D13" s="2"/>
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D14" s="2"/>
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D15" s="2"/>
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D20" s="2"/>
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="str">
+        <f>"6"</f>
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="str">
+        <f>"7"</f>
+        <v>7</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="str">
+        <f>"8"</f>
+        <v>8</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>

--- a/app/config/tables/MADTRIAL_FU_PHONE/Forms/MADTRIAL_FU_PHONE/MADTRIAL_FU_PHONE.xlsx
+++ b/app/config/tables/MADTRIAL_FU_PHONE/Forms/MADTRIAL_FU_PHONE/MADTRIAL_FU_PHONE.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7996B3AA-9FF9-4096-A57E-9FAD9BF6D455}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
     <sheet name="prompt_types" sheetId="6" r:id="rId5"/>
     <sheet name="model" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="143">
   <si>
     <t>setting_name</t>
   </si>
@@ -149,9 +150,6 @@
     <t>MADtrial Follow-up Phone</t>
   </si>
   <si>
-    <t>MADtrail Follow-up Telefone</t>
-  </si>
-  <si>
     <t>begin screen</t>
   </si>
   <si>
@@ -317,9 +315,6 @@
     <t>Outro Vacina</t>
   </si>
   <si>
-    <t>HOSPI</t>
-  </si>
-  <si>
     <t>A criança foi internada no hospital desde que foi vacinada contra sarampo em Simão Mendes?</t>
   </si>
   <si>
@@ -338,9 +333,6 @@
     <t>end if</t>
   </si>
   <si>
-    <t>data('HOSPI')=="1"</t>
-  </si>
-  <si>
     <t>HOSPCODE1</t>
   </si>
   <si>
@@ -377,9 +369,6 @@
     <t>Data do segundo Internamento</t>
   </si>
   <si>
-    <t>HOSPDIA2</t>
-  </si>
-  <si>
     <t>Duração do segundo Internamento</t>
   </si>
   <si>
@@ -395,9 +384,6 @@
     <t>Causa de segundo Internamento</t>
   </si>
   <si>
-    <t>HOSPALTA</t>
-  </si>
-  <si>
     <t>A criança esta ainda internada</t>
   </si>
   <si>
@@ -459,12 +445,27 @@
   </si>
   <si>
     <t>data('VITALCRI')=="2"</t>
+  </si>
+  <si>
+    <t>HOSPI1</t>
+  </si>
+  <si>
+    <t>data('HOSPI1')=="1"</t>
+  </si>
+  <si>
+    <t>HOSPALTA1</t>
+  </si>
+  <si>
+    <t>HOSPDIAS2</t>
+  </si>
+  <si>
+    <t>MADtrail Follow-up Telemovel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-406]General"/>
   </numFmts>
@@ -579,10 +580,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Excel Built-in Normal" xfId="2"/>
+    <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -859,24 +860,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -896,7 +897,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -904,7 +905,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -912,7 +913,7 @@
         <v>270519</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -920,7 +921,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -931,10 +932,10 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -945,7 +946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -956,7 +957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
@@ -971,28 +972,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.81640625" customWidth="1"/>
-    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.54296875" customWidth="1"/>
-    <col min="8" max="8" width="35.453125" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.5703125" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
@@ -1021,654 +1022,603 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>30</v>
       </c>
       <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
         <v>48</v>
       </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
         <v>47</v>
       </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
+      <c r="F32" t="s">
+        <v>92</v>
+      </c>
+      <c r="H32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
+      <c r="E35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" t="s">
+        <v>138</v>
+      </c>
+      <c r="H35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D15" t="s">
-        <v>141</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" t="s">
+        <v>96</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" t="s">
+        <v>100</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" t="s">
+        <v>102</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" t="s">
-        <v>63</v>
-      </c>
-      <c r="H24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D30" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" t="s">
-        <v>73</v>
-      </c>
-      <c r="H30" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D32" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" t="s">
-        <v>78</v>
-      </c>
-      <c r="H32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F36" t="s">
-        <v>80</v>
-      </c>
-      <c r="H36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D39" t="s">
-        <v>82</v>
-      </c>
-      <c r="E39" t="s">
-        <v>83</v>
-      </c>
-      <c r="F39" t="s">
-        <v>84</v>
-      </c>
-      <c r="H39" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D42" t="s">
-        <v>48</v>
-      </c>
       <c r="F42" t="s">
-        <v>93</v>
-      </c>
-      <c r="H42" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" t="s">
+        <v>140</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D45" t="s">
-        <v>50</v>
-      </c>
-      <c r="E45" t="s">
-        <v>76</v>
-      </c>
-      <c r="F45" t="s">
-        <v>95</v>
-      </c>
-      <c r="H45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B46" t="s">
-        <v>41</v>
-      </c>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" t="s">
+        <v>106</v>
+      </c>
+      <c r="H46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>100</v>
-      </c>
-      <c r="C47" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>40</v>
-      </c>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D49" t="s">
-        <v>97</v>
-      </c>
-      <c r="F49" t="s">
         <v>98</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C48" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F50" t="s">
-        <v>103</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+      <c r="H50" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+      <c r="H51" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F52" t="s">
-        <v>107</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+      <c r="H52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F53" t="s">
-        <v>121</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B54" t="s">
-        <v>41</v>
-      </c>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+      <c r="H53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54" t="s">
+        <v>113</v>
+      </c>
+      <c r="H54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D56" t="s">
-        <v>50</v>
-      </c>
-      <c r="E56" t="s">
-        <v>76</v>
-      </c>
-      <c r="F56" t="s">
-        <v>109</v>
-      </c>
-      <c r="H56" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B57" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" t="s">
+        <v>75</v>
+      </c>
+      <c r="F57" t="s">
+        <v>119</v>
+      </c>
+      <c r="H57" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>100</v>
-      </c>
-      <c r="C58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" t="s">
+        <v>122</v>
+      </c>
+      <c r="H61" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B59" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D60" t="s">
-        <v>30</v>
-      </c>
-      <c r="F60" t="s">
-        <v>111</v>
-      </c>
-      <c r="H60" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D61" t="s">
-        <v>48</v>
-      </c>
-      <c r="F61" t="s">
-        <v>113</v>
-      </c>
-      <c r="H61" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F62" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="H62" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F63" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="H63" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F64" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="H64" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B65" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>47</v>
+      </c>
+      <c r="F65" t="s">
+        <v>130</v>
+      </c>
+      <c r="H65" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D67" t="s">
-        <v>50</v>
-      </c>
-      <c r="E67" t="s">
-        <v>76</v>
-      </c>
-      <c r="F67" t="s">
-        <v>124</v>
-      </c>
-      <c r="H67" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>125</v>
-      </c>
-      <c r="C69" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>49</v>
+      </c>
+      <c r="E71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F71" t="s">
+        <v>132</v>
+      </c>
+      <c r="H71" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D71" t="s">
-        <v>30</v>
-      </c>
-      <c r="F71" t="s">
-        <v>127</v>
-      </c>
-      <c r="H71" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D72" t="s">
-        <v>48</v>
-      </c>
-      <c r="F72" t="s">
-        <v>132</v>
-      </c>
-      <c r="H72" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D73" t="s">
-        <v>48</v>
-      </c>
-      <c r="F73" t="s">
-        <v>133</v>
-      </c>
-      <c r="H73" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D74" t="s">
-        <v>59</v>
-      </c>
-      <c r="F74" t="s">
-        <v>134</v>
-      </c>
-      <c r="H74" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D75" t="s">
-        <v>48</v>
-      </c>
-      <c r="F75" t="s">
-        <v>135</v>
-      </c>
-      <c r="H75" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B76" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B77" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B78" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B79" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B80" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D81" t="s">
-        <v>50</v>
-      </c>
-      <c r="E81" t="s">
-        <v>72</v>
-      </c>
-      <c r="F81" t="s">
-        <v>137</v>
-      </c>
-      <c r="H81" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B82" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1678,7 +1628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1686,15 +1636,15 @@
       <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1708,21 +1658,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>"2"</f>
@@ -1730,60 +1680,60 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" t="str">
         <f>"3"</f>
@@ -1791,12 +1741,12 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" t="str">
         <f>"4"</f>
@@ -1804,12 +1754,12 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" t="str">
         <f>"1"</f>
@@ -1817,471 +1767,471 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>76</v>
       </c>
       <c r="B12" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="D52" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" s="10"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B55" s="10"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" s="10"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57" s="10"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B58" s="10"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B59" s="10"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B60" s="10"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" s="10"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B62" s="10"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B63" s="10"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B64" s="10"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="10"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="10"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="10"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="10"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="10"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="10"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="10"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="10"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="10"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="10"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="10"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="10"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="10"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="10"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="10"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="10"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="10"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="10"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="10"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="10"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C92" s="10"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="10"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="10"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="10"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="10"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="10"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="10"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="10"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="10"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" s="10"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="10"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="10"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="10"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" s="10"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" s="10"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="10"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" s="10"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" s="10"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" s="10"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" s="10"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" s="10"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" s="10"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" s="10"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" s="10"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" s="10"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" s="10"/>
     </row>
   </sheetData>
@@ -2292,7 +2242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2300,13 +2250,13 @@
       <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>32</v>
       </c>
@@ -2321,7 +2271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2329,15 +2279,15 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>26</v>
       </c>
@@ -2351,7 +2301,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -2372,7 +2322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2380,14 +2330,14 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -2398,210 +2348,210 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" s="9"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" s="9"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" s="9"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" s="9"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" s="9"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" s="9"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" s="9"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" s="9"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" s="9"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B62" s="9"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" s="9"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" s="9"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="9"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="9"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="9"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="9"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="9"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="9"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="9"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="9"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="9"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="9"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="9"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="9"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="9"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="9"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="9"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="9"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="9"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="9"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="9"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="9"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="9"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="9"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="9"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="9"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="9"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="9"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="9"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="9"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="9"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="9"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="9"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="9"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="9"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="9"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="9"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="9"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="9"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="9"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="9"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="9"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="9"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="9"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="9"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="9"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" s="9"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="9"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="9"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" s="9"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="9"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="9"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="F2:G92">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:G92">
     <sortCondition ref="G2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/config/tables/MADTRIAL_FU_PHONE/Forms/MADTRIAL_FU_PHONE/MADTRIAL_FU_PHONE.xlsx
+++ b/app/config/tables/MADTRIAL_FU_PHONE/Forms/MADTRIAL_FU_PHONE/MADTRIAL_FU_PHONE.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7996B3AA-9FF9-4096-A57E-9FAD9BF6D455}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96F47BD-3B64-4E85-8855-ADED814B7DA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
     <sheet name="survey" sheetId="2" r:id="rId2"/>
-    <sheet name="choices" sheetId="3" r:id="rId3"/>
-    <sheet name="calculates" sheetId="7" r:id="rId4"/>
-    <sheet name="prompt_types" sheetId="6" r:id="rId5"/>
-    <sheet name="model" sheetId="4" r:id="rId6"/>
+    <sheet name="queries" sheetId="8" r:id="rId3"/>
+    <sheet name="choices" sheetId="3" r:id="rId4"/>
+    <sheet name="calculates" sheetId="7" r:id="rId5"/>
+    <sheet name="prompt_types" sheetId="6" r:id="rId6"/>
+    <sheet name="model" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="303">
   <si>
     <t>setting_name</t>
   </si>
@@ -189,9 +190,6 @@
     <t>CHAMADA1</t>
   </si>
   <si>
-    <t>1 a Chamada</t>
-  </si>
-  <si>
     <t>Seguimento realizado</t>
   </si>
   <si>
@@ -204,9 +202,6 @@
     <t>Numero Incorreto</t>
   </si>
   <si>
-    <t>Se voce não conseguir obter informação na primeira chamada, tente cada numero trez vezes</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
@@ -216,33 +211,18 @@
     <t>CHAMADA2</t>
   </si>
   <si>
-    <t>2 a Chamada</t>
-  </si>
-  <si>
     <t>TELENUM3</t>
   </si>
   <si>
-    <t>3 a Chamada</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>INFORMADOR</t>
   </si>
   <si>
     <t>Informador</t>
   </si>
   <si>
-    <t>Mae</t>
-  </si>
-  <si>
     <t>Outro</t>
   </si>
   <si>
-    <t>Outro zelador</t>
-  </si>
-  <si>
     <t>Ninguem para fornecer informaçeos</t>
   </si>
   <si>
@@ -252,24 +232,12 @@
     <t>VITALCRI</t>
   </si>
   <si>
-    <t>sim</t>
-  </si>
-  <si>
-    <t>não</t>
-  </si>
-  <si>
     <t>sim/não/nãosabe</t>
   </si>
   <si>
-    <t>não sabe</t>
-  </si>
-  <si>
     <t>DOD</t>
   </si>
   <si>
-    <t>Data do felecimento</t>
-  </si>
-  <si>
     <t>VACHIS</t>
   </si>
   <si>
@@ -306,9 +274,6 @@
     <t>Sarampo</t>
   </si>
   <si>
-    <t>Febre Amarelo</t>
-  </si>
-  <si>
     <t>VACOUTRO</t>
   </si>
   <si>
@@ -324,9 +289,6 @@
     <t>HOSPDATA1</t>
   </si>
   <si>
-    <t>Data do Primeiro Internamento</t>
-  </si>
-  <si>
     <t>if</t>
   </si>
   <si>
@@ -342,15 +304,9 @@
     <t>HOSPCAUSA1</t>
   </si>
   <si>
-    <t>Causa do primeiro Internamento</t>
-  </si>
-  <si>
     <t>HOSPDIAS1</t>
   </si>
   <si>
-    <t>Duração do primeiro Internamento  em dias</t>
-  </si>
-  <si>
     <t>HOSPI2</t>
   </si>
   <si>
@@ -360,60 +316,30 @@
     <t>HOSPDATA2</t>
   </si>
   <si>
-    <t>Local do segundo Internamento</t>
-  </si>
-  <si>
     <t>HOSPCAUSA2</t>
   </si>
   <si>
-    <t>Data do segundo Internamento</t>
-  </si>
-  <si>
-    <t>Duração do segundo Internamento</t>
-  </si>
-  <si>
     <t>HOSPALTA2</t>
   </si>
   <si>
-    <t>A criança esta ainda Internada</t>
-  </si>
-  <si>
     <t>HOSPCODE2</t>
   </si>
   <si>
-    <t>Causa de segundo Internamento</t>
-  </si>
-  <si>
     <t>A criança esta ainda internada</t>
   </si>
   <si>
-    <t>data('HOSPI2')=="1"</t>
-  </si>
-  <si>
     <t>HOSPI3</t>
   </si>
   <si>
     <t xml:space="preserve">if </t>
   </si>
   <si>
-    <t>data('HOSPI3')=="1"</t>
-  </si>
-  <si>
     <t>HOSPDATA3</t>
   </si>
   <si>
-    <t>Data do terceiro Internamento</t>
-  </si>
-  <si>
     <t>Local do terceiro Internamento</t>
   </si>
   <si>
-    <t>Causa do terceiro Internamento</t>
-  </si>
-  <si>
-    <t>Duraçao do terceiro Internamento em dias</t>
-  </si>
-  <si>
     <t>HOSPCODE3</t>
   </si>
   <si>
@@ -426,9 +352,6 @@
     <t>HOSPALTA3</t>
   </si>
   <si>
-    <t>a criança esta ainda Internada</t>
-  </si>
-  <si>
     <t>PODEAUT</t>
   </si>
   <si>
@@ -447,19 +370,588 @@
     <t>data('VITALCRI')=="2"</t>
   </si>
   <si>
-    <t>HOSPI1</t>
-  </si>
-  <si>
-    <t>data('HOSPI1')=="1"</t>
-  </si>
-  <si>
     <t>HOSPALTA1</t>
   </si>
   <si>
     <t>HOSPDIAS2</t>
   </si>
   <si>
-    <t>MADtrail Follow-up Telemovel</t>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>adate.today()</t>
+  </si>
+  <si>
+    <t>select_one_with_other</t>
+  </si>
+  <si>
+    <t>ass</t>
+  </si>
+  <si>
+    <t>CHAMADA3</t>
+  </si>
+  <si>
+    <t>data('CHAMADA1') != '1'</t>
+  </si>
+  <si>
+    <t>data('CHAMADA2') != '1'</t>
+  </si>
+  <si>
+    <t>data('CHAMADA1') == '1' || data('CHAMADA2') == '1' || data('CHAMADA3') == '1'</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>Mãe</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Pai</t>
+  </si>
+  <si>
+    <t>Other caretaker</t>
+  </si>
+  <si>
+    <t>Tutor</t>
+  </si>
+  <si>
+    <t>No one to provide information</t>
+  </si>
+  <si>
+    <t>dodns</t>
+  </si>
+  <si>
+    <t>ns</t>
+  </si>
+  <si>
+    <t>Don't know</t>
+  </si>
+  <si>
+    <t>Não Sabe</t>
+  </si>
+  <si>
+    <t>"D:NS,M:NS,Y:NS"</t>
+  </si>
+  <si>
+    <t>Idade - ano(s)</t>
+  </si>
+  <si>
+    <t>Age - month(s)</t>
+  </si>
+  <si>
+    <t>Idade - mes(es)</t>
+  </si>
+  <si>
+    <t>data('dodns') != null</t>
+  </si>
+  <si>
+    <t>DODANO</t>
+  </si>
+  <si>
+    <t>DODMES</t>
+  </si>
+  <si>
+    <t>data('DOD')=="D:NS,M:NS,Y:NS"</t>
+  </si>
+  <si>
+    <t>data('VACHIS') == '1'</t>
+  </si>
+  <si>
+    <t>data('HOSPI')=="1"</t>
+  </si>
+  <si>
+    <t>HOSPI</t>
+  </si>
+  <si>
+    <t>HOSPIVEZ</t>
+  </si>
+  <si>
+    <t>Quantos vezes?</t>
+  </si>
+  <si>
+    <t>vezes</t>
+  </si>
+  <si>
+    <t>More than 3 times</t>
+  </si>
+  <si>
+    <t>data('HOSPIVEZ') &gt; 0</t>
+  </si>
+  <si>
+    <t>hospalta</t>
+  </si>
+  <si>
+    <t>The child still admitted</t>
+  </si>
+  <si>
+    <t>data('HOSPIVEZ') == '33'</t>
+  </si>
+  <si>
+    <t>data('HOSPIVEZ') == '33' &amp;&amp; data('HOSPI2')=="1"</t>
+  </si>
+  <si>
+    <t>data('HOSPI3')=="1" || data('HOSPIVEZ') == '3' || data('HOSPIVEZ') == '77'</t>
+  </si>
+  <si>
+    <t>data('HOSPI2')=="1" || data('HOSPIVEZ') == '3' || data('HOSPIVEZ') == '2' || data('HOSPIVEZ') == '77'</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Não sabe</t>
+  </si>
+  <si>
+    <t>data('PODEAUT') == '1'</t>
+  </si>
+  <si>
+    <t>select_one_dropdown</t>
+  </si>
+  <si>
+    <t>reg</t>
+  </si>
+  <si>
+    <t>REG</t>
+  </si>
+  <si>
+    <t>Região</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>TABNOME</t>
+  </si>
+  <si>
+    <t>Tabanca</t>
+  </si>
+  <si>
+    <t>MORNOME</t>
+  </si>
+  <si>
+    <t>Measles</t>
+  </si>
+  <si>
+    <t>Amarelo</t>
+  </si>
+  <si>
+    <t>Yellow fever</t>
+  </si>
+  <si>
+    <t>Febre amarelo</t>
+  </si>
+  <si>
+    <t>Ou</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Date of call</t>
+  </si>
+  <si>
+    <t>Assistant</t>
+  </si>
+  <si>
+    <t>Is the child still alive?</t>
+  </si>
+  <si>
+    <t>Has the child received other vaccines since being vaccinated at Simão Mendes?</t>
+  </si>
+  <si>
+    <t>What vaccines?</t>
+  </si>
+  <si>
+    <t>Other Vaccine</t>
+  </si>
+  <si>
+    <t>Has the child been admitted to hospital since being vaccinated against measles in Simão Mendes?</t>
+  </si>
+  <si>
+    <t>How many times?</t>
+  </si>
+  <si>
+    <t>Cause of first admission</t>
+  </si>
+  <si>
+    <t>Length of first internment in days</t>
+  </si>
+  <si>
+    <t>Has the child been hospitalized more than once?</t>
+  </si>
+  <si>
+    <t>Has the child been admitted to hospital more than twice?</t>
+  </si>
+  <si>
+    <t>We can visit you to ask more questions about your child's death.</t>
+  </si>
+  <si>
+    <t>Phone number</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>display.constraint_message.text.english</t>
+  </si>
+  <si>
+    <t>display.constraint_message.text</t>
+  </si>
+  <si>
+    <t>display.hint.text.english</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
+  </si>
+  <si>
+    <t>If you cannot get information on the first call, call each number three times</t>
+  </si>
+  <si>
+    <t>Se voce não conseguir obter informação na primeira chamada, liga cada numero trez vezes</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>now()</t>
+  </si>
+  <si>
+    <t>Informant</t>
+  </si>
+  <si>
+    <t>Data do falecimento</t>
+  </si>
+  <si>
+    <t>Date of death</t>
+  </si>
+  <si>
+    <t>Age year(s)</t>
+  </si>
+  <si>
+    <t>Data do primeiro internamento</t>
+  </si>
+  <si>
+    <t>Date of first admission</t>
+  </si>
+  <si>
+    <t>Location of first admission</t>
+  </si>
+  <si>
+    <t>reg_csv</t>
+  </si>
+  <si>
+    <t>hc_csv</t>
+  </si>
+  <si>
+    <t>Health center / hospital: &lt;b&gt;{{data.HOSPCODE1}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Centro de saúde / hospital: &lt;b&gt;{{data.HOSPCODE1}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>reghosp1</t>
+  </si>
+  <si>
+    <t>Region: &lt;b&gt;{{data.reghosp1}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Região: &lt;b&gt;{{data.reghosp1}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>hospcode1ns</t>
+  </si>
+  <si>
+    <t>data('hospcode1ns') != null</t>
+  </si>
+  <si>
+    <t>data('hospcode1ns')</t>
+  </si>
+  <si>
+    <t>choice_filter</t>
+  </si>
+  <si>
+    <t>choice_item.reg === data('reghosp1')</t>
+  </si>
+  <si>
+    <t>dontknowhosp</t>
+  </si>
+  <si>
+    <t>Other place</t>
+  </si>
+  <si>
+    <t>Outro lugar</t>
+  </si>
+  <si>
+    <t>query_name</t>
+  </si>
+  <si>
+    <t>query_type</t>
+  </si>
+  <si>
+    <t>linked_form_id</t>
+  </si>
+  <si>
+    <t>linked_table_id</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>selectionArgs</t>
+  </si>
+  <si>
+    <t>newRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>openRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>fieldName</t>
+  </si>
+  <si>
+    <t>uri</t>
+  </si>
+  <si>
+    <t>callback</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>"HEALTHCENTRES.csv"</t>
+  </si>
+  <si>
+    <t>_.chain(context)
+.uniq(function(x) {
+return x.reg
+})
+.map(function(place){
+return {
+data_value:place.reg,
+display:{title: {text: place.regname} } };
+}).value()</t>
+  </si>
+  <si>
+    <t>_.map(context, function(place){place.data_value = place.cscode;
+place.display = {title: {text: place.csname} };
+return place;
+})</t>
+  </si>
+  <si>
+    <t>Date of second admission</t>
+  </si>
+  <si>
+    <t>Location of second admission</t>
+  </si>
+  <si>
+    <t>reghosp2</t>
+  </si>
+  <si>
+    <t>Region: &lt;b&gt;{{data.reghosp2}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Região: &lt;b&gt;{{data.reghosp2}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Health center / hospital: &lt;b&gt;{{data.HOSPCODE2}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Centro de saúde / hospital: &lt;b&gt;{{data.HOSPCODE2}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>hospcode2ns</t>
+  </si>
+  <si>
+    <t>data('hospcode2ns') != null</t>
+  </si>
+  <si>
+    <t>data('hospcode2ns')</t>
+  </si>
+  <si>
+    <t>choice_item.reg === data('reghosp2')</t>
+  </si>
+  <si>
+    <t>Causa do primeiro internamento</t>
+  </si>
+  <si>
+    <t>Causa do segundo internamento</t>
+  </si>
+  <si>
+    <t>Local do segundo internamento</t>
+  </si>
+  <si>
+    <t>Data do segundo internamento</t>
+  </si>
+  <si>
+    <t>Duração do primeiro internamento em dias</t>
+  </si>
+  <si>
+    <t>Length of second admission in days</t>
+  </si>
+  <si>
+    <t>Duração do segundo internamento em dias</t>
+  </si>
+  <si>
+    <t>reghosp3</t>
+  </si>
+  <si>
+    <t>Region: &lt;b&gt;{{data.reghosp3}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Região: &lt;b&gt;{{data.reghosp3}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Health center / hospital: &lt;b&gt;{{data.HOSPCODE3}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Centro de saúde / hospital: &lt;b&gt;{{data.HOSPCODE3}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>choice_item.reg === data('reghosp3')</t>
+  </si>
+  <si>
+    <t>hospcode3ns</t>
+  </si>
+  <si>
+    <t>data('hospcode3ns') != null</t>
+  </si>
+  <si>
+    <t>data('hospcode3ns')</t>
+  </si>
+  <si>
+    <t>Data do terceiro internamento</t>
+  </si>
+  <si>
+    <t>Causa do terceiro internamento</t>
+  </si>
+  <si>
+    <t>Duração do terceiro internamento em dias</t>
+  </si>
+  <si>
+    <t>Cause of third admission</t>
+  </si>
+  <si>
+    <t>Length of third internment in days</t>
+  </si>
+  <si>
+    <t>Date of third admission</t>
+  </si>
+  <si>
+    <t>Location of third admission</t>
+  </si>
+  <si>
+    <t>MADtrail Seguimento Telemovel</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Assistant 1</t>
+  </si>
+  <si>
+    <t>Assistente 1</t>
+  </si>
+  <si>
+    <t>No network</t>
+  </si>
+  <si>
+    <t>Incorrect Number</t>
+  </si>
+  <si>
+    <t>Doesn't answer the phone</t>
+  </si>
+  <si>
+    <t>Follow up possible</t>
+  </si>
+  <si>
+    <t>Mais de 3 vezes</t>
+  </si>
+  <si>
+    <t>Name of morança</t>
+  </si>
+  <si>
+    <t>Nome da morança</t>
+  </si>
+  <si>
+    <t>Oio</t>
+  </si>
+  <si>
+    <t>Biombo</t>
+  </si>
+  <si>
+    <t>Gabu</t>
+  </si>
+  <si>
+    <t>Cacheu</t>
+  </si>
+  <si>
+    <t>Bafata</t>
+  </si>
+  <si>
+    <t>Quinara</t>
+  </si>
+  <si>
+    <t>Tombali</t>
+  </si>
+  <si>
+    <t>Burbaque</t>
+  </si>
+  <si>
+    <t>Bolama</t>
+  </si>
+  <si>
+    <t>Sao Domigos</t>
+  </si>
+  <si>
+    <t>MSF Bafata</t>
+  </si>
+  <si>
+    <t>The date cannot be in the future:</t>
+  </si>
+  <si>
+    <t>A data não pode estar no futuro:</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('DATSEGUI'), data('DOD'))&lt;1 || adate.hasUncertainty(data('DOD'))</t>
+  </si>
+  <si>
+    <t>data('IDADEMES')&lt;13 || data('DOB')!="D:NS,M:NS,Y:NS"</t>
+  </si>
+  <si>
+    <t>Must be less than 13:</t>
+  </si>
+  <si>
+    <t>Deve ser menor que 13:</t>
+  </si>
+  <si>
+    <t>1ª chamada</t>
+  </si>
+  <si>
+    <t>1st call</t>
+  </si>
+  <si>
+    <t>2nd call</t>
+  </si>
+  <si>
+    <t>3rd call</t>
+  </si>
+  <si>
+    <t>2ª chamada</t>
+  </si>
+  <si>
+    <t>3ª chamada</t>
   </si>
 </sst>
 </file>
@@ -469,7 +961,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-406]General"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,6 +1017,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -569,15 +1067,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -863,9 +1359,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,7 +1428,7 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -973,11 +1469,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:O128"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
+      <selection pane="bottomLeft" activeCell="D3" activeCellId="1" sqref="F3:F124 D3:D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,15 +1481,21 @@
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.5703125" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.42578125" customWidth="1"/>
+    <col min="15" max="15" width="31.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
@@ -1021,110 +1523,171 @@
       <c r="I1" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F5" t="s">
         <v>42</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" t="s">
         <v>46</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
         <v>44</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G9" t="s">
+        <v>187</v>
+      </c>
+      <c r="H9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+      <c r="M9" t="s">
+        <v>193</v>
+      </c>
+      <c r="N9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F10" t="s">
         <v>51</v>
       </c>
-      <c r="H8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="G10" t="s">
+        <v>298</v>
+      </c>
+      <c r="H10" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>136</v>
-      </c>
-      <c r="H11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="G14" t="s">
+        <v>187</v>
       </c>
       <c r="H14" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>193</v>
+      </c>
+      <c r="N14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>49</v>
       </c>
@@ -1132,493 +1695,1125 @@
         <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G15" t="s">
+        <v>299</v>
       </c>
       <c r="H15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>41</v>
       </c>
-      <c r="D18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" t="s">
+        <v>187</v>
+      </c>
+      <c r="H19" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19" t="s">
+        <v>193</v>
+      </c>
+      <c r="N19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" t="s">
+        <v>300</v>
+      </c>
+      <c r="H20" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" t="s">
+        <v>197</v>
+      </c>
+      <c r="H26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
         <v>49</v>
       </c>
-      <c r="E21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
         <v>65</v>
       </c>
-      <c r="H21" t="s">
+      <c r="G29" t="s">
+        <v>176</v>
+      </c>
+      <c r="H29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
+        <v>199</v>
+      </c>
+      <c r="H31" t="s">
+        <v>198</v>
+      </c>
+      <c r="J31" t="s">
+        <v>293</v>
+      </c>
+      <c r="K31" t="s">
+        <v>291</v>
+      </c>
+      <c r="L31" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" t="s">
+        <v>131</v>
+      </c>
+      <c r="F32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" t="s">
+        <v>67</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" t="s">
+        <v>200</v>
+      </c>
+      <c r="H37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" t="s">
+        <v>140</v>
+      </c>
+      <c r="G38" t="s">
+        <v>136</v>
+      </c>
+      <c r="H38" t="s">
+        <v>137</v>
+      </c>
+      <c r="J38" t="s">
+        <v>294</v>
+      </c>
+      <c r="K38" t="s">
+        <v>295</v>
+      </c>
+      <c r="L38" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" t="s">
-        <v>72</v>
-      </c>
-      <c r="H24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" t="s">
-        <v>79</v>
-      </c>
-      <c r="H30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" t="s">
-        <v>82</v>
-      </c>
-      <c r="F31" t="s">
-        <v>83</v>
-      </c>
-      <c r="H31" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" t="s">
-        <v>92</v>
-      </c>
-      <c r="H32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" t="s">
-        <v>138</v>
-      </c>
-      <c r="H35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>40</v>
-      </c>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>95</v>
-      </c>
-      <c r="F39" t="s">
-        <v>96</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>47</v>
-      </c>
-      <c r="F40" t="s">
-        <v>100</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>47</v>
-      </c>
-      <c r="F41" t="s">
-        <v>102</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>58</v>
-      </c>
-      <c r="F42" t="s">
-        <v>104</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>47</v>
-      </c>
       <c r="F43" t="s">
-        <v>140</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="G43" t="s">
+        <v>177</v>
+      </c>
+      <c r="H43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>40</v>
       </c>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" t="s">
+        <v>72</v>
+      </c>
+      <c r="G47" t="s">
+        <v>178</v>
+      </c>
+      <c r="H47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" t="s">
+        <v>80</v>
+      </c>
+      <c r="G48" t="s">
+        <v>179</v>
+      </c>
+      <c r="H48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
         <v>49</v>
       </c>
-      <c r="E46" t="s">
-        <v>75</v>
-      </c>
-      <c r="F46" t="s">
-        <v>106</v>
-      </c>
-      <c r="H46" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+      <c r="E52" t="s">
+        <v>66</v>
+      </c>
+      <c r="F52" t="s">
+        <v>144</v>
+      </c>
+      <c r="G52" t="s">
+        <v>180</v>
+      </c>
+      <c r="H52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" t="s">
+        <v>147</v>
+      </c>
+      <c r="F54" t="s">
+        <v>145</v>
+      </c>
+      <c r="G54" t="s">
+        <v>181</v>
+      </c>
+      <c r="H54" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
-        <v>30</v>
-      </c>
-      <c r="F50" t="s">
-        <v>108</v>
-      </c>
-      <c r="H50" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D51" t="s">
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>83</v>
+      </c>
+      <c r="F59" t="s">
+        <v>84</v>
+      </c>
+      <c r="G59" t="s">
+        <v>202</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>110</v>
+      </c>
+      <c r="G60" t="s">
+        <v>203</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>160</v>
+      </c>
+      <c r="E61" t="s">
+        <v>204</v>
+      </c>
+      <c r="F61" t="s">
+        <v>208</v>
+      </c>
+      <c r="G61" t="s">
+        <v>209</v>
+      </c>
+      <c r="H61" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>160</v>
+      </c>
+      <c r="E62" t="s">
+        <v>205</v>
+      </c>
+      <c r="F62" t="s">
+        <v>87</v>
+      </c>
+      <c r="G62" t="s">
+        <v>206</v>
+      </c>
+      <c r="H62" t="s">
+        <v>207</v>
+      </c>
+      <c r="O62" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>70</v>
+      </c>
+      <c r="E63" t="s">
+        <v>216</v>
+      </c>
+      <c r="F63" t="s">
+        <v>211</v>
+      </c>
+      <c r="J63" s="13"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" t="s">
+        <v>212</v>
+      </c>
+      <c r="J64" s="13"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>114</v>
+      </c>
+      <c r="F65" t="s">
+        <v>87</v>
+      </c>
+      <c r="I65" t="s">
+        <v>213</v>
+      </c>
+      <c r="J65" s="13"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>86</v>
+      </c>
+      <c r="J66" s="13"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>40</v>
+      </c>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>39</v>
+      </c>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
         <v>47</v>
       </c>
-      <c r="F51" t="s">
-        <v>115</v>
-      </c>
-      <c r="H51" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
-        <v>47</v>
-      </c>
-      <c r="F52" t="s">
-        <v>110</v>
-      </c>
-      <c r="H52" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
-        <v>58</v>
-      </c>
-      <c r="F53" t="s">
-        <v>141</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="F69" t="s">
+        <v>89</v>
+      </c>
+      <c r="G69" t="s">
+        <v>182</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>56</v>
+      </c>
+      <c r="F70" t="s">
+        <v>90</v>
+      </c>
+      <c r="G70" t="s">
+        <v>183</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>150</v>
+      </c>
+      <c r="F71" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
-        <v>47</v>
-      </c>
-      <c r="F54" t="s">
-        <v>113</v>
-      </c>
-      <c r="H54" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D57" t="s">
-        <v>49</v>
-      </c>
-      <c r="E57" t="s">
-        <v>75</v>
-      </c>
-      <c r="F57" t="s">
-        <v>119</v>
-      </c>
-      <c r="H57" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>120</v>
-      </c>
-      <c r="C59" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
-        <v>30</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
-      </c>
-      <c r="H61" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D62" t="s">
-        <v>47</v>
-      </c>
-      <c r="F62" t="s">
-        <v>127</v>
-      </c>
-      <c r="H62" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
-        <v>47</v>
-      </c>
-      <c r="F63" t="s">
-        <v>128</v>
-      </c>
-      <c r="H63" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D64" t="s">
-        <v>58</v>
-      </c>
-      <c r="F64" t="s">
-        <v>129</v>
-      </c>
-      <c r="H64" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D65" t="s">
-        <v>47</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
-      </c>
-      <c r="H65" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D71" t="s">
-        <v>49</v>
-      </c>
-      <c r="E71" t="s">
-        <v>71</v>
-      </c>
-      <c r="F71" t="s">
-        <v>132</v>
-      </c>
-      <c r="H71" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>40</v>
+      </c>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" t="s">
+        <v>152</v>
+      </c>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>49</v>
+      </c>
+      <c r="E75" t="s">
+        <v>66</v>
+      </c>
+      <c r="F75" t="s">
+        <v>91</v>
+      </c>
+      <c r="G75" t="s">
+        <v>184</v>
+      </c>
+      <c r="H75" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>39</v>
+      </c>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>83</v>
+      </c>
+      <c r="F80" t="s">
+        <v>93</v>
+      </c>
+      <c r="G80" t="s">
+        <v>234</v>
+      </c>
+      <c r="H80" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>110</v>
+      </c>
+      <c r="G81" t="s">
+        <v>235</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>160</v>
+      </c>
+      <c r="E82" t="s">
+        <v>204</v>
+      </c>
+      <c r="F82" t="s">
+        <v>236</v>
+      </c>
+      <c r="G82" t="s">
+        <v>237</v>
+      </c>
+      <c r="H82" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>160</v>
+      </c>
+      <c r="E83" t="s">
+        <v>205</v>
+      </c>
+      <c r="F83" t="s">
+        <v>96</v>
+      </c>
+      <c r="G83" t="s">
+        <v>239</v>
+      </c>
+      <c r="H83" t="s">
+        <v>240</v>
+      </c>
+      <c r="O83" s="13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>70</v>
+      </c>
+      <c r="E84" t="s">
+        <v>216</v>
+      </c>
+      <c r="F84" t="s">
+        <v>241</v>
+      </c>
+      <c r="J84" s="13"/>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" t="s">
+        <v>242</v>
+      </c>
+      <c r="J85" s="13"/>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>114</v>
+      </c>
+      <c r="F86" t="s">
+        <v>96</v>
+      </c>
+      <c r="I86" t="s">
+        <v>243</v>
+      </c>
+      <c r="J86" s="13"/>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>86</v>
+      </c>
+      <c r="J87" s="13"/>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>40</v>
+      </c>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>39</v>
+      </c>
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>47</v>
+      </c>
+      <c r="F90" t="s">
+        <v>94</v>
+      </c>
+      <c r="G90" t="s">
+        <v>182</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>56</v>
+      </c>
+      <c r="F91" t="s">
+        <v>113</v>
+      </c>
+      <c r="G91" t="s">
+        <v>250</v>
+      </c>
+      <c r="H91" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>70</v>
+      </c>
+      <c r="E92" t="s">
+        <v>150</v>
+      </c>
+      <c r="F92" t="s">
+        <v>95</v>
+      </c>
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>40</v>
+      </c>
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>85</v>
+      </c>
+      <c r="C95" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>49</v>
+      </c>
+      <c r="E97" t="s">
+        <v>66</v>
+      </c>
+      <c r="F97" t="s">
+        <v>98</v>
+      </c>
+      <c r="G97" t="s">
+        <v>185</v>
+      </c>
+      <c r="H97" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>99</v>
+      </c>
+      <c r="C100" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>39</v>
+      </c>
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>83</v>
+      </c>
+      <c r="F102" t="s">
+        <v>100</v>
+      </c>
+      <c r="G102" t="s">
+        <v>266</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>110</v>
+      </c>
+      <c r="G103" t="s">
+        <v>267</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>160</v>
+      </c>
+      <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
+        <v>252</v>
+      </c>
+      <c r="G104" t="s">
+        <v>253</v>
+      </c>
+      <c r="H104" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>160</v>
+      </c>
+      <c r="E105" t="s">
+        <v>205</v>
+      </c>
+      <c r="F105" t="s">
+        <v>102</v>
+      </c>
+      <c r="G105" t="s">
+        <v>255</v>
+      </c>
+      <c r="H105" t="s">
+        <v>256</v>
+      </c>
+      <c r="O105" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>70</v>
+      </c>
+      <c r="E106" t="s">
+        <v>216</v>
+      </c>
+      <c r="F106" t="s">
+        <v>258</v>
+      </c>
+      <c r="J106" s="13"/>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>85</v>
+      </c>
+      <c r="C107" t="s">
+        <v>259</v>
+      </c>
+      <c r="J107" s="13"/>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>114</v>
+      </c>
+      <c r="F108" t="s">
+        <v>102</v>
+      </c>
+      <c r="I108" t="s">
+        <v>260</v>
+      </c>
+      <c r="J108" s="13"/>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>86</v>
+      </c>
+      <c r="J109" s="13"/>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>40</v>
+      </c>
+      <c r="H110" s="4"/>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>39</v>
+      </c>
+      <c r="H111" s="4"/>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>47</v>
+      </c>
+      <c r="F112" t="s">
+        <v>103</v>
+      </c>
+      <c r="G112" t="s">
+        <v>264</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>56</v>
+      </c>
+      <c r="F113" t="s">
+        <v>104</v>
+      </c>
+      <c r="G113" t="s">
+        <v>265</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>70</v>
+      </c>
+      <c r="E114" t="s">
+        <v>150</v>
+      </c>
+      <c r="F114" t="s">
+        <v>105</v>
+      </c>
+      <c r="H114" s="4"/>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>40</v>
+      </c>
+      <c r="H115" s="4"/>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>85</v>
+      </c>
+      <c r="C118" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>49</v>
+      </c>
+      <c r="E120" t="s">
+        <v>64</v>
+      </c>
+      <c r="F120" t="s">
+        <v>106</v>
+      </c>
+      <c r="G120" t="s">
+        <v>186</v>
+      </c>
+      <c r="H120" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>85</v>
+      </c>
+      <c r="C121" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>160</v>
+      </c>
+      <c r="E122" t="s">
+        <v>161</v>
+      </c>
+      <c r="F122" t="s">
+        <v>162</v>
+      </c>
+      <c r="G122" t="s">
+        <v>164</v>
+      </c>
+      <c r="H122" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>47</v>
+      </c>
+      <c r="F123" t="s">
+        <v>165</v>
+      </c>
+      <c r="G123" t="s">
+        <v>166</v>
+      </c>
+      <c r="H123" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>47</v>
+      </c>
+      <c r="F124" t="s">
+        <v>167</v>
+      </c>
+      <c r="G124" t="s">
+        <v>278</v>
+      </c>
+      <c r="H124" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1628,12 +2823,102 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFA789F-BD4B-4FB8-941E-A2F1BA51DC5F}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="58" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" t="s">
+        <v>230</v>
+      </c>
+      <c r="J3" t="s">
+        <v>231</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,8 +2951,11 @@
         <f>"1"</f>
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>276</v>
+      </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1678,9 +2966,11 @@
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>273</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1691,8 +2981,11 @@
         <f>"3"</f>
         <v>3</v>
       </c>
+      <c r="C4" t="s">
+        <v>275</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1703,251 +2996,594 @@
         <f>"4"</f>
         <v>4</v>
       </c>
+      <c r="C5" t="s">
+        <v>274</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B6" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" t="str">
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" t="str">
+      <c r="C8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>70</v>
+      <c r="C9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B10" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" t="s">
+        <v>269</v>
+      </c>
       <c r="D10" s="2" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B11" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
+      <c r="C11" t="s">
+        <v>270</v>
+      </c>
       <c r="D11" s="2" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B12" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" t="str">
-        <f>"5"</f>
-        <v>5</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" t="str">
-        <f>"6"</f>
-        <v>6</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" t="str">
-        <f>"7"</f>
-        <v>7</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>91</v>
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" t="str">
-        <f>"8"</f>
-        <v>8</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B21" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
+      <c r="C21" t="s">
+        <v>269</v>
+      </c>
       <c r="D21" s="2" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B22" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
+      <c r="C22" t="s">
+        <v>270</v>
+      </c>
       <c r="D22" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" t="str">
+        <f>"99"</f>
+        <v>99</v>
+      </c>
+      <c r="C24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C25" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="D25" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C26" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="D26" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C27" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="D27" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" t="str">
+        <f>"77"</f>
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" t="str">
+        <f>"33"</f>
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>216</v>
+      </c>
+      <c r="B31" t="str">
+        <f>"8888"</f>
+        <v>8888</v>
+      </c>
+      <c r="C31" t="s">
+        <v>217</v>
+      </c>
+      <c r="D31" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>216</v>
+      </c>
+      <c r="B32" t="str">
+        <f>"9999"</f>
+        <v>9999</v>
+      </c>
+      <c r="C32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>280</v>
+      </c>
+      <c r="D33" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>281</v>
+      </c>
+      <c r="D34" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>282</v>
+      </c>
+      <c r="D35" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36" t="str">
+        <f>"7"</f>
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>283</v>
+      </c>
+      <c r="D36" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" t="str">
+        <f>"8"</f>
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>284</v>
+      </c>
+      <c r="D37" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" t="str">
+        <f>"11"</f>
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>285</v>
+      </c>
+      <c r="D38" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" t="str">
+        <f>"12"</f>
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>286</v>
+      </c>
+      <c r="D39" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>161</v>
+      </c>
+      <c r="B40" t="str">
+        <f>"13"</f>
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>287</v>
+      </c>
+      <c r="D40" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41" t="str">
+        <f>"14"</f>
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>288</v>
+      </c>
+      <c r="D41" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" t="str">
+        <f>"15"</f>
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>289</v>
+      </c>
+      <c r="D42" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43" t="str">
+        <f>"16"</f>
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>290</v>
+      </c>
+      <c r="D43" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1964,275 +3600,275 @@
       <c r="D52" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="10"/>
+      <c r="B54" s="8"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="10"/>
+      <c r="B55" s="8"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="10"/>
+      <c r="B56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="10"/>
+      <c r="B57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="10"/>
+      <c r="B58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="10"/>
+      <c r="B59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="10"/>
+      <c r="B60" s="8"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="10"/>
+      <c r="B61" s="8"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="10"/>
+      <c r="B62" s="8"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="10"/>
+      <c r="B63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="10"/>
+      <c r="B64" s="8"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="10"/>
+      <c r="B65" s="8"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="10"/>
+      <c r="B66" s="8"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="10"/>
+      <c r="B67" s="8"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="10"/>
+      <c r="B68" s="8"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="10"/>
+      <c r="B69" s="8"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="10"/>
+      <c r="B70" s="8"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="10"/>
+      <c r="B71" s="8"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="10"/>
+      <c r="B72" s="8"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="10"/>
+      <c r="B73" s="8"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="10"/>
+      <c r="B74" s="8"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="10"/>
+      <c r="B75" s="8"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="10"/>
+      <c r="B76" s="8"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="10"/>
+      <c r="B77" s="8"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="10"/>
+      <c r="B78" s="8"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="10"/>
+      <c r="B79" s="8"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="10"/>
+      <c r="B80" s="8"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="10"/>
+      <c r="B81" s="8"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="10"/>
+      <c r="B82" s="8"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="10"/>
+      <c r="B83" s="8"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="10"/>
+      <c r="B84" s="8"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C92" s="10"/>
+      <c r="C92" s="8"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="10"/>
-      <c r="C97" s="10"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" s="10"/>
-      <c r="C102" s="10"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="10"/>
-      <c r="C103" s="10"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B104" s="10"/>
-      <c r="C104" s="10"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106" s="10"/>
-      <c r="C106" s="10"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B111" s="10"/>
+      <c r="B111" s="8"/>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B112" s="10"/>
+      <c r="B112" s="8"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="10"/>
+      <c r="B113" s="8"/>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="10"/>
+      <c r="B114" s="8"/>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="10"/>
+      <c r="B115" s="8"/>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="10"/>
+      <c r="B116" s="8"/>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="10"/>
+      <c r="B117" s="8"/>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="10"/>
+      <c r="B119" s="8"/>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="10"/>
+      <c r="B120" s="8"/>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="10"/>
+      <c r="B121" s="8"/>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="10"/>
+      <c r="B122" s="8"/>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="10"/>
+      <c r="B123" s="8"/>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="10"/>
+      <c r="B124" s="8"/>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="10"/>
+      <c r="B125" s="8"/>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="10"/>
+      <c r="B126" s="8"/>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="10"/>
+      <c r="B127" s="8"/>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" s="10"/>
+      <c r="B128" s="8"/>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="10"/>
+      <c r="B129" s="8"/>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="10"/>
+      <c r="B130" s="8"/>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="10"/>
+      <c r="B131" s="8"/>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="10"/>
+      <c r="B132" s="8"/>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="10"/>
+      <c r="B133" s="8"/>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="10"/>
+      <c r="B134" s="8"/>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="10"/>
+      <c r="B135" s="8"/>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="10"/>
+      <c r="B136" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2241,7 +3877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -2257,10 +3893,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2270,7 +3906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2288,16 +3924,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2321,13 +3957,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2348,211 +3984,526 @@
         <v>15</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="12"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="12"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="8"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="9"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="9"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="9"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="9"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="9"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="9"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="9"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="9"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="9"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="9"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="9"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="9"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="9"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="9"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="9"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="9"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="9"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="9"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="9"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="9"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="9"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="9"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="9"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="9"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="9"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="9"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="9"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="9"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="9"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="9"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="9"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="9"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="9"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="9"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="9"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="9"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="9"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="9"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="9"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="9"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="9"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="9"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="9"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="9"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="9"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="9"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="9"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="9"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="9"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="9"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="9"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="9"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="9"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="9"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="9"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="9"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="9"/>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="9"/>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="9"/>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="9"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="9"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="9"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="9"/>
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>241</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>258</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>208</v>
+      </c>
+      <c r="B37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>236</v>
+      </c>
+      <c r="B38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>252</v>
+      </c>
+      <c r="B39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:G92">
-    <sortCondition ref="G2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B123">
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/config/tables/MADTRIAL_FU_PHONE/Forms/MADTRIAL_FU_PHONE/MADTRIAL_FU_PHONE.xlsx
+++ b/app/config/tables/MADTRIAL_FU_PHONE/Forms/MADTRIAL_FU_PHONE/MADTRIAL_FU_PHONE.xlsx
@@ -3,18 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96F47BD-3B64-4E85-8855-ADED814B7DA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F504E2-2324-4B52-8EDC-2DC5308FBDC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
-    <sheet name="survey" sheetId="2" r:id="rId2"/>
-    <sheet name="queries" sheetId="8" r:id="rId3"/>
-    <sheet name="choices" sheetId="3" r:id="rId4"/>
-    <sheet name="calculates" sheetId="7" r:id="rId5"/>
-    <sheet name="prompt_types" sheetId="6" r:id="rId6"/>
-    <sheet name="model" sheetId="4" r:id="rId7"/>
+    <sheet name="survey" sheetId="10" r:id="rId2"/>
+    <sheet name="FU" sheetId="2" r:id="rId3"/>
+    <sheet name="queries" sheetId="8" r:id="rId4"/>
+    <sheet name="choices" sheetId="3" r:id="rId5"/>
+    <sheet name="calculates" sheetId="7" r:id="rId6"/>
+    <sheet name="prompt_types" sheetId="6" r:id="rId7"/>
+    <sheet name="model" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="332">
   <si>
     <t>setting_name</t>
   </si>
@@ -148,48 +149,27 @@
     <t>MADTRIAL_FU_PHONE</t>
   </si>
   <si>
-    <t>MADtrial Follow-up Phone</t>
-  </si>
-  <si>
     <t>begin screen</t>
   </si>
   <si>
     <t>end screen</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>DATSEGUI</t>
-  </si>
-  <si>
     <t>Data da ligação</t>
   </si>
   <si>
-    <t>TELENUM1</t>
-  </si>
-  <si>
     <t>Assistente</t>
   </si>
   <si>
-    <t>ASSISTENTE</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
-    <t>Numero de telemovel</t>
-  </si>
-  <si>
     <t>select_one</t>
   </si>
   <si>
     <t>cham</t>
   </si>
   <si>
-    <t>CHAMADA1</t>
-  </si>
-  <si>
     <t>Seguimento realizado</t>
   </si>
   <si>
@@ -205,15 +185,6 @@
     <t>integer</t>
   </si>
   <si>
-    <t>TELENUM2</t>
-  </si>
-  <si>
-    <t>CHAMADA2</t>
-  </si>
-  <si>
-    <t>TELENUM3</t>
-  </si>
-  <si>
     <t>INFORMADOR</t>
   </si>
   <si>
@@ -388,18 +359,6 @@
     <t>ass</t>
   </si>
   <si>
-    <t>CHAMADA3</t>
-  </si>
-  <si>
-    <t>data('CHAMADA1') != '1'</t>
-  </si>
-  <si>
-    <t>data('CHAMADA2') != '1'</t>
-  </si>
-  <si>
-    <t>data('CHAMADA1') == '1' || data('CHAMADA2') == '1' || data('CHAMADA3') == '1'</t>
-  </si>
-  <si>
     <t>inf</t>
   </si>
   <si>
@@ -436,6 +395,9 @@
     <t>Não Sabe</t>
   </si>
   <si>
+    <t>DOB</t>
+  </si>
+  <si>
     <t>"D:NS,M:NS,Y:NS"</t>
   </si>
   <si>
@@ -593,9 +555,6 @@
   </si>
   <si>
     <t>We can visit you to ask more questions about your child's death.</t>
-  </si>
-  <si>
-    <t>Phone number</t>
   </si>
   <si>
     <t>constraint</t>
@@ -849,9 +808,6 @@
     <t>Location of third admission</t>
   </si>
   <si>
-    <t>MADtrail Seguimento Telemovel</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -936,22 +892,154 @@
     <t>Deve ser menor que 13:</t>
   </si>
   <si>
-    <t>1ª chamada</t>
-  </si>
-  <si>
-    <t>1st call</t>
-  </si>
-  <si>
-    <t>2nd call</t>
-  </si>
-  <si>
-    <t>3rd call</t>
-  </si>
-  <si>
-    <t>2ª chamada</t>
-  </si>
-  <si>
-    <t>3ª chamada</t>
+    <t>TELEMOVEL1</t>
+  </si>
+  <si>
+    <t>TELEMOVEL2</t>
+  </si>
+  <si>
+    <t>TELEMOVEL3</t>
+  </si>
+  <si>
+    <t>CHAMADA11</t>
+  </si>
+  <si>
+    <t>CHAMADA21</t>
+  </si>
+  <si>
+    <t>CHAMADA13</t>
+  </si>
+  <si>
+    <t>CHAMADA12</t>
+  </si>
+  <si>
+    <t>CHAMADA31</t>
+  </si>
+  <si>
+    <t>ASSISTENTE1</t>
+  </si>
+  <si>
+    <t>DATSEGUI1</t>
+  </si>
+  <si>
+    <t>DATSEGUI3</t>
+  </si>
+  <si>
+    <t>ASSISTENTE3</t>
+  </si>
+  <si>
+    <t>CHAMADA23</t>
+  </si>
+  <si>
+    <t>CHAMADA33</t>
+  </si>
+  <si>
+    <t>DATSEGUI2</t>
+  </si>
+  <si>
+    <t>ASSISTENTE2</t>
+  </si>
+  <si>
+    <t>CHAMADA22</t>
+  </si>
+  <si>
+    <t>CHAMADA32</t>
+  </si>
+  <si>
+    <t>data('CHAMADA13') != '1'</t>
+  </si>
+  <si>
+    <t>data('CHAMADA23') != '1'</t>
+  </si>
+  <si>
+    <t>data('CHAMADA12') != '1'</t>
+  </si>
+  <si>
+    <t>data('CHAMADA22') != '1'</t>
+  </si>
+  <si>
+    <t>data('CHAMADA11') != '1'</t>
+  </si>
+  <si>
+    <t>data('CHAMADA21') != '1'</t>
+  </si>
+  <si>
+    <t>data('CHAMADA12') != null || data('CHAMADA22') != null || data('CHAMADA32') != null</t>
+  </si>
+  <si>
+    <t>(data('CHAMADA11') != null || data('CHAMADA21') != null || data('CHAMADA31') != null) &amp;&amp; data('CHAMADA13') == null &amp;&amp; data('CHAMADA23') == null &amp;&amp; data('CHAMADA33') == null</t>
+  </si>
+  <si>
+    <t>data('CHAMADA12') == null &amp;&amp; data('CHAMADA22') == null &amp;&amp; data('CHAMADA32') == null &amp;&amp; data('CHAMADA13') == null &amp;&amp; data('CHAMADA23') == null &amp;&amp; data('CHAMADA33') == null</t>
+  </si>
+  <si>
+    <t>data('CHAMADA11') == '1' || data('CHAMADA21') == '1' || data('CHAMADA31') == '1' || data('CHAMADA12') == '1' || data('CHAMADA22') == '1' || data('CHAMADA32') == '1' ||data('CHAMADA13') == '1' || data('CHAMADA23') == '1' || data('CHAMADA33') == '1'</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>FU</t>
+  </si>
+  <si>
+    <t>FOLLOWUP</t>
+  </si>
+  <si>
+    <t>tableApp</t>
+  </si>
+  <si>
+    <t>DATINC</t>
+  </si>
+  <si>
+    <t>NOMECRI</t>
+  </si>
+  <si>
+    <t>NOMERESP</t>
+  </si>
+  <si>
+    <t>NUMEST</t>
+  </si>
+  <si>
+    <t>SEX</t>
+  </si>
+  <si>
+    <t>do section FU</t>
+  </si>
+  <si>
+    <t>1st call - number: &lt;b&gt;{{data.TELEMOVEL1}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>1ª chamada - número: &lt;b&gt;{{data.TELEMOVEL1}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>2nd call - number: &lt;b&gt;{{data.TELEMOVEL2}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>2ª chamada - número: &lt;b&gt;{{data.TELEMOVEL2}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>3rd call - number: &lt;b&gt;{{data.TELEMOVEL3}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>3ª chamada - número: &lt;b&gt;{{data.TELEMOVEL3}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>1st try</t>
+  </si>
+  <si>
+    <t>3rd try</t>
+  </si>
+  <si>
+    <t>2nd try</t>
+  </si>
+  <si>
+    <t>MADtrial - Follow-up Phone</t>
+  </si>
+  <si>
+    <t>MADtrail - Seguimento Telemovel</t>
+  </si>
+  <si>
+    <t>ingeger</t>
   </si>
 </sst>
 </file>
@@ -1024,12 +1112,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1056,7 +1150,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1074,6 +1168,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1359,9 +1458,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,10 +1524,10 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>329</v>
       </c>
       <c r="D5" t="s">
-        <v>268</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1462,18 +1561,722 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G12:G24">
+    <sortCondition ref="G12"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787AB6FC-E5B2-448F-8A60-6571052C1548}">
+  <dimension ref="A1:K67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="69" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="82.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" t="s">
+        <v>292</v>
+      </c>
+      <c r="I5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>287</v>
+      </c>
+      <c r="G10" t="s">
+        <v>320</v>
+      </c>
+      <c r="H10" t="s">
+        <v>321</v>
+      </c>
+      <c r="J10" t="s">
+        <v>179</v>
+      </c>
+      <c r="K10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>300</v>
+      </c>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>294</v>
+      </c>
+      <c r="G14" t="s">
+        <v>322</v>
+      </c>
+      <c r="H14" t="s">
+        <v>323</v>
+      </c>
+      <c r="J14" t="s">
+        <v>179</v>
+      </c>
+      <c r="K14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>295</v>
+      </c>
+      <c r="G18" t="s">
+        <v>324</v>
+      </c>
+      <c r="H18" t="s">
+        <v>325</v>
+      </c>
+      <c r="J18" t="s">
+        <v>179</v>
+      </c>
+      <c r="K18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" t="s">
+        <v>181</v>
+      </c>
+      <c r="I25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" t="s">
+        <v>296</v>
+      </c>
+      <c r="I26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>296</v>
+      </c>
+      <c r="G27" t="s">
+        <v>161</v>
+      </c>
+      <c r="H27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" t="s">
+        <v>297</v>
+      </c>
+      <c r="G28" t="s">
+        <v>162</v>
+      </c>
+      <c r="H28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>288</v>
+      </c>
+      <c r="G31" t="s">
+        <v>320</v>
+      </c>
+      <c r="H31" t="s">
+        <v>321</v>
+      </c>
+      <c r="J31" t="s">
+        <v>179</v>
+      </c>
+      <c r="K31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>302</v>
+      </c>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>298</v>
+      </c>
+      <c r="G35" t="s">
+        <v>322</v>
+      </c>
+      <c r="H35" t="s">
+        <v>323</v>
+      </c>
+      <c r="J35" t="s">
+        <v>179</v>
+      </c>
+      <c r="K35" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>299</v>
+      </c>
+      <c r="G39" t="s">
+        <v>324</v>
+      </c>
+      <c r="H39" t="s">
+        <v>325</v>
+      </c>
+      <c r="J39" t="s">
+        <v>179</v>
+      </c>
+      <c r="K39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" t="s">
+        <v>181</v>
+      </c>
+      <c r="I46" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>104</v>
+      </c>
+      <c r="F47" t="s">
+        <v>291</v>
+      </c>
+      <c r="I47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" t="s">
+        <v>291</v>
+      </c>
+      <c r="G48" t="s">
+        <v>161</v>
+      </c>
+      <c r="H48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" t="s">
+        <v>290</v>
+      </c>
+      <c r="G49" t="s">
+        <v>162</v>
+      </c>
+      <c r="H49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>285</v>
+      </c>
+      <c r="G52" t="s">
+        <v>320</v>
+      </c>
+      <c r="H52" t="s">
+        <v>321</v>
+      </c>
+      <c r="J52" t="s">
+        <v>179</v>
+      </c>
+      <c r="K52" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>39</v>
+      </c>
+      <c r="G53" s="11"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" t="s">
+        <v>304</v>
+      </c>
+      <c r="G54" s="11"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>286</v>
+      </c>
+      <c r="G56" t="s">
+        <v>322</v>
+      </c>
+      <c r="H56" t="s">
+        <v>323</v>
+      </c>
+      <c r="J56" t="s">
+        <v>179</v>
+      </c>
+      <c r="K56" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>289</v>
+      </c>
+      <c r="G60" t="s">
+        <v>324</v>
+      </c>
+      <c r="H60" t="s">
+        <v>325</v>
+      </c>
+      <c r="J60" t="s">
+        <v>179</v>
+      </c>
+      <c r="K60" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O128"/>
+  <dimension ref="A1:O104"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" activeCellId="1" sqref="F3:F124 D3:D124"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1524,540 +2327,536 @@
         <v>22</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>114</v>
+        <v>106</v>
+      </c>
+      <c r="E3" t="s">
+        <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>195</v>
-      </c>
-      <c r="I3" t="s">
-        <v>196</v>
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
-        <v>115</v>
+      <c r="B4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s">
-        <v>174</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
+      <c r="B5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>40</v>
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>39</v>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>185</v>
+      </c>
+      <c r="H8" t="s">
+        <v>184</v>
+      </c>
+      <c r="J8" t="s">
+        <v>278</v>
+      </c>
+      <c r="K8" t="s">
+        <v>276</v>
+      </c>
+      <c r="L8" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>117</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" t="s">
-        <v>187</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-      <c r="M9" t="s">
-        <v>193</v>
-      </c>
-      <c r="N9" t="s">
-        <v>194</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" t="s">
-        <v>298</v>
-      </c>
-      <c r="H10" t="s">
-        <v>297</v>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="11"/>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" t="s">
-        <v>119</v>
-      </c>
-      <c r="G12" s="11"/>
+        <v>76</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>39</v>
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="G14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M14" t="s">
-        <v>193</v>
-      </c>
-      <c r="N14" t="s">
-        <v>194</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>49</v>
       </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="G15" t="s">
-        <v>299</v>
+        <v>123</v>
       </c>
       <c r="H15" t="s">
-        <v>301</v>
+        <v>124</v>
+      </c>
+      <c r="J15" t="s">
+        <v>279</v>
+      </c>
+      <c r="K15" t="s">
+        <v>280</v>
+      </c>
+      <c r="L15" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
         <v>56</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" t="s">
+        <v>164</v>
+      </c>
+      <c r="H20" t="s">
         <v>59</v>
       </c>
-      <c r="G19" t="s">
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" t="s">
+        <v>165</v>
+      </c>
+      <c r="H24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" t="s">
+        <v>166</v>
+      </c>
+      <c r="H25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" t="s">
+        <v>167</v>
+      </c>
+      <c r="H29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" t="s">
+        <v>168</v>
+      </c>
+      <c r="H31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" t="s">
+        <v>188</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="H19" t="s">
-        <v>48</v>
-      </c>
-      <c r="M19" t="s">
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" t="s">
+        <v>189</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>147</v>
+      </c>
+      <c r="E38" t="s">
+        <v>190</v>
+      </c>
+      <c r="F38" t="s">
+        <v>194</v>
+      </c>
+      <c r="G38" t="s">
+        <v>195</v>
+      </c>
+      <c r="H38" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>147</v>
+      </c>
+      <c r="E39" t="s">
+        <v>191</v>
+      </c>
+      <c r="F39" t="s">
+        <v>77</v>
+      </c>
+      <c r="G39" t="s">
+        <v>192</v>
+      </c>
+      <c r="H39" t="s">
         <v>193</v>
       </c>
-      <c r="N19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+      <c r="O39" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" t="s">
+        <v>202</v>
+      </c>
+      <c r="F40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J40" s="13"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" t="s">
+        <v>198</v>
+      </c>
+      <c r="J41" s="13"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" t="s">
+        <v>77</v>
+      </c>
+      <c r="I42" t="s">
+        <v>199</v>
+      </c>
+      <c r="J42" s="13"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>76</v>
+      </c>
+      <c r="J43" s="13"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" t="s">
+        <v>169</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
         <v>49</v>
       </c>
-      <c r="E20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" t="s">
-        <v>300</v>
-      </c>
-      <c r="H20" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" t="s">
-        <v>122</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="F47" t="s">
+        <v>80</v>
+      </c>
+      <c r="G47" t="s">
+        <v>170</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
         <v>60</v>
       </c>
-      <c r="G26" t="s">
-        <v>197</v>
-      </c>
-      <c r="H26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" t="s">
-        <v>176</v>
-      </c>
-      <c r="H29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" t="s">
-        <v>199</v>
-      </c>
-      <c r="H31" t="s">
-        <v>198</v>
-      </c>
-      <c r="J31" t="s">
-        <v>293</v>
-      </c>
-      <c r="K31" t="s">
-        <v>291</v>
-      </c>
-      <c r="L31" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" t="s">
-        <v>131</v>
-      </c>
-      <c r="F32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>114</v>
-      </c>
-      <c r="F34" t="s">
-        <v>67</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" t="s">
-        <v>139</v>
-      </c>
-      <c r="G37" t="s">
-        <v>200</v>
-      </c>
-      <c r="H37" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" t="s">
-        <v>140</v>
-      </c>
-      <c r="G38" t="s">
-        <v>136</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="E48" t="s">
         <v>137</v>
       </c>
-      <c r="J38" t="s">
-        <v>294</v>
-      </c>
-      <c r="K38" t="s">
-        <v>295</v>
-      </c>
-      <c r="L38" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>49</v>
-      </c>
-      <c r="E43" t="s">
-        <v>66</v>
-      </c>
-      <c r="F43" t="s">
-        <v>68</v>
-      </c>
-      <c r="G43" t="s">
-        <v>177</v>
-      </c>
-      <c r="H43" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
-        <v>70</v>
-      </c>
-      <c r="E47" t="s">
-        <v>71</v>
-      </c>
-      <c r="F47" t="s">
-        <v>72</v>
-      </c>
-      <c r="G47" t="s">
-        <v>178</v>
-      </c>
-      <c r="H47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>47</v>
-      </c>
       <c r="F48" t="s">
-        <v>80</v>
-      </c>
-      <c r="G48" t="s">
-        <v>179</v>
-      </c>
-      <c r="H48" t="s">
-        <v>81</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="H48" s="4"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>40</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H49" s="4"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>86</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C50" t="s">
+        <v>139</v>
+      </c>
+      <c r="H50" s="4"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E52" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F52" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="G52" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="H52" t="s">
         <v>82</v>
@@ -2065,755 +2864,511 @@
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" t="s">
-        <v>143</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
-        <v>49</v>
-      </c>
-      <c r="E54" t="s">
-        <v>147</v>
-      </c>
-      <c r="F54" t="s">
-        <v>145</v>
-      </c>
-      <c r="G54" t="s">
-        <v>181</v>
-      </c>
-      <c r="H54" t="s">
-        <v>146</v>
+      <c r="B54" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>86</v>
+        <v>75</v>
+      </c>
+      <c r="C55" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>40</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="H56" s="4"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>85</v>
-      </c>
-      <c r="C57" t="s">
-        <v>149</v>
+      <c r="D57" t="s">
+        <v>73</v>
+      </c>
+      <c r="F57" t="s">
+        <v>83</v>
+      </c>
+      <c r="G57" t="s">
+        <v>220</v>
+      </c>
+      <c r="H57" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>39</v>
-      </c>
-      <c r="H58" s="4"/>
+      <c r="D58" t="s">
+        <v>100</v>
+      </c>
+      <c r="G58" t="s">
+        <v>221</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>83</v>
+        <v>147</v>
+      </c>
+      <c r="E59" t="s">
+        <v>190</v>
       </c>
       <c r="F59" t="s">
-        <v>84</v>
+        <v>222</v>
       </c>
       <c r="G59" t="s">
-        <v>202</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>201</v>
+        <v>223</v>
+      </c>
+      <c r="H59" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>110</v>
+        <v>147</v>
+      </c>
+      <c r="E60" t="s">
+        <v>191</v>
+      </c>
+      <c r="F60" t="s">
+        <v>86</v>
       </c>
       <c r="G60" t="s">
-        <v>203</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>88</v>
+        <v>225</v>
+      </c>
+      <c r="H60" t="s">
+        <v>226</v>
+      </c>
+      <c r="O60" s="13" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F61" t="s">
-        <v>208</v>
-      </c>
-      <c r="G61" t="s">
-        <v>209</v>
-      </c>
-      <c r="H61" t="s">
-        <v>210</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="J61" s="13"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D62" t="s">
-        <v>160</v>
-      </c>
-      <c r="E62" t="s">
-        <v>205</v>
-      </c>
-      <c r="F62" t="s">
-        <v>87</v>
-      </c>
-      <c r="G62" t="s">
-        <v>206</v>
-      </c>
-      <c r="H62" t="s">
-        <v>207</v>
-      </c>
-      <c r="O62" s="13" t="s">
-        <v>215</v>
-      </c>
+      <c r="B62" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" t="s">
+        <v>228</v>
+      </c>
+      <c r="J62" s="13"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>70</v>
-      </c>
-      <c r="E63" t="s">
-        <v>216</v>
+        <v>104</v>
       </c>
       <c r="F63" t="s">
-        <v>211</v>
+        <v>86</v>
+      </c>
+      <c r="I63" t="s">
+        <v>229</v>
       </c>
       <c r="J63" s="13"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
+        <v>76</v>
+      </c>
+      <c r="J64" s="13"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>39</v>
+      </c>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>38</v>
+      </c>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>42</v>
+      </c>
+      <c r="F67" t="s">
+        <v>84</v>
+      </c>
+      <c r="G67" t="s">
+        <v>169</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>49</v>
+      </c>
+      <c r="F68" t="s">
+        <v>103</v>
+      </c>
+      <c r="G68" t="s">
+        <v>236</v>
+      </c>
+      <c r="H68" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>60</v>
+      </c>
+      <c r="E69" t="s">
+        <v>137</v>
+      </c>
+      <c r="F69" t="s">
         <v>85</v>
       </c>
-      <c r="C64" t="s">
-        <v>212</v>
-      </c>
-      <c r="J64" s="13"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D65" t="s">
-        <v>114</v>
-      </c>
-      <c r="F65" t="s">
-        <v>87</v>
-      </c>
-      <c r="I65" t="s">
-        <v>213</v>
-      </c>
-      <c r="J65" s="13"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>86</v>
-      </c>
-      <c r="J66" s="13"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>40</v>
-      </c>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>39</v>
       </c>
-      <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D69" t="s">
-        <v>47</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>43</v>
+      </c>
+      <c r="E74" t="s">
+        <v>56</v>
+      </c>
+      <c r="F74" t="s">
+        <v>88</v>
+      </c>
+      <c r="G74" t="s">
+        <v>172</v>
+      </c>
+      <c r="H74" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>89</v>
       </c>
-      <c r="G69" t="s">
-        <v>182</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D70" t="s">
-        <v>56</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="C77" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>38</v>
+      </c>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>73</v>
+      </c>
+      <c r="F79" t="s">
         <v>90</v>
       </c>
-      <c r="G70" t="s">
-        <v>183</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D71" t="s">
-        <v>70</v>
-      </c>
-      <c r="E71" t="s">
-        <v>150</v>
-      </c>
-      <c r="F71" t="s">
-        <v>112</v>
-      </c>
-      <c r="H71" s="4"/>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>40</v>
-      </c>
-      <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>85</v>
-      </c>
-      <c r="C73" t="s">
-        <v>152</v>
-      </c>
-      <c r="H73" s="4"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D75" t="s">
-        <v>49</v>
-      </c>
-      <c r="E75" t="s">
-        <v>66</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="G79" t="s">
+        <v>252</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>100</v>
+      </c>
+      <c r="G80" t="s">
+        <v>253</v>
+      </c>
+      <c r="H80" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="G75" t="s">
-        <v>184</v>
-      </c>
-      <c r="H75" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>85</v>
-      </c>
-      <c r="C78" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>39</v>
-      </c>
-      <c r="H79" s="4"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D80" t="s">
-        <v>83</v>
-      </c>
-      <c r="F80" t="s">
-        <v>93</v>
-      </c>
-      <c r="G80" t="s">
-        <v>234</v>
-      </c>
-      <c r="H80" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>110</v>
+        <v>147</v>
+      </c>
+      <c r="E81" t="s">
+        <v>190</v>
+      </c>
+      <c r="F81" t="s">
+        <v>238</v>
       </c>
       <c r="G81" t="s">
-        <v>235</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>247</v>
+        <v>239</v>
+      </c>
+      <c r="H81" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="E82" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="F82" t="s">
-        <v>236</v>
+        <v>92</v>
       </c>
       <c r="G82" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H82" t="s">
-        <v>238</v>
+        <v>242</v>
+      </c>
+      <c r="O82" s="13" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="E83" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F83" t="s">
-        <v>96</v>
-      </c>
-      <c r="G83" t="s">
-        <v>239</v>
-      </c>
-      <c r="H83" t="s">
-        <v>240</v>
-      </c>
-      <c r="O83" s="13" t="s">
         <v>244</v>
       </c>
+      <c r="J83" s="13"/>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D84" t="s">
-        <v>70</v>
-      </c>
-      <c r="E84" t="s">
-        <v>216</v>
-      </c>
-      <c r="F84" t="s">
-        <v>241</v>
+      <c r="B84" t="s">
+        <v>75</v>
+      </c>
+      <c r="C84" t="s">
+        <v>245</v>
       </c>
       <c r="J84" s="13"/>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>85</v>
-      </c>
-      <c r="C85" t="s">
-        <v>242</v>
+      <c r="D85" t="s">
+        <v>104</v>
+      </c>
+      <c r="F85" t="s">
+        <v>92</v>
+      </c>
+      <c r="I85" t="s">
+        <v>246</v>
       </c>
       <c r="J85" s="13"/>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D86" t="s">
-        <v>114</v>
-      </c>
-      <c r="F86" t="s">
-        <v>96</v>
-      </c>
-      <c r="I86" t="s">
-        <v>243</v>
+      <c r="B86" t="s">
+        <v>76</v>
       </c>
       <c r="J86" s="13"/>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>86</v>
-      </c>
-      <c r="J87" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="H87" s="4"/>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H88" s="4"/>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>39</v>
-      </c>
-      <c r="H89" s="4"/>
+      <c r="D89" t="s">
+        <v>42</v>
+      </c>
+      <c r="F89" t="s">
+        <v>93</v>
+      </c>
+      <c r="G89" t="s">
+        <v>250</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F90" t="s">
         <v>94</v>
       </c>
       <c r="G90" t="s">
-        <v>182</v>
+        <v>251</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="E91" t="s">
+        <v>137</v>
       </c>
       <c r="F91" t="s">
-        <v>113</v>
-      </c>
-      <c r="G91" t="s">
-        <v>250</v>
-      </c>
-      <c r="H91" t="s">
-        <v>251</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="H91" s="4"/>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D92" t="s">
-        <v>70</v>
-      </c>
-      <c r="E92" t="s">
-        <v>150</v>
-      </c>
-      <c r="F92" t="s">
-        <v>95</v>
+      <c r="B92" t="s">
+        <v>39</v>
       </c>
       <c r="H92" s="4"/>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>40</v>
-      </c>
-      <c r="H93" s="4"/>
+        <v>76</v>
+      </c>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C95" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>43</v>
+      </c>
+      <c r="E97" t="s">
+        <v>54</v>
+      </c>
+      <c r="F97" t="s">
+        <v>96</v>
+      </c>
+      <c r="G97" t="s">
+        <v>173</v>
+      </c>
+      <c r="H97" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>75</v>
+      </c>
+      <c r="C98" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>147</v>
+      </c>
+      <c r="E99" t="s">
+        <v>148</v>
+      </c>
+      <c r="F99" t="s">
+        <v>149</v>
+      </c>
+      <c r="G99" t="s">
+        <v>151</v>
+      </c>
+      <c r="H99" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>42</v>
+      </c>
+      <c r="F100" t="s">
+        <v>152</v>
+      </c>
+      <c r="G100" t="s">
+        <v>153</v>
+      </c>
+      <c r="H100" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>42</v>
+      </c>
+      <c r="F101" t="s">
+        <v>154</v>
+      </c>
+      <c r="G101" t="s">
+        <v>263</v>
+      </c>
+      <c r="H101" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D97" t="s">
-        <v>49</v>
-      </c>
-      <c r="E97" t="s">
-        <v>66</v>
-      </c>
-      <c r="F97" t="s">
-        <v>98</v>
-      </c>
-      <c r="G97" t="s">
-        <v>185</v>
-      </c>
-      <c r="H97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>99</v>
-      </c>
-      <c r="C100" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>39</v>
-      </c>
-      <c r="H101" s="4"/>
-    </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D102" t="s">
-        <v>83</v>
-      </c>
-      <c r="F102" t="s">
-        <v>100</v>
-      </c>
-      <c r="G102" t="s">
-        <v>266</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D103" t="s">
-        <v>110</v>
-      </c>
-      <c r="G103" t="s">
-        <v>267</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D104" t="s">
-        <v>160</v>
-      </c>
-      <c r="E104" t="s">
-        <v>204</v>
-      </c>
-      <c r="F104" t="s">
-        <v>252</v>
-      </c>
-      <c r="G104" t="s">
-        <v>253</v>
-      </c>
-      <c r="H104" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D105" t="s">
-        <v>160</v>
-      </c>
-      <c r="E105" t="s">
-        <v>205</v>
-      </c>
-      <c r="F105" t="s">
-        <v>102</v>
-      </c>
-      <c r="G105" t="s">
-        <v>255</v>
-      </c>
-      <c r="H105" t="s">
-        <v>256</v>
-      </c>
-      <c r="O105" s="13" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D106" t="s">
-        <v>70</v>
-      </c>
-      <c r="E106" t="s">
-        <v>216</v>
-      </c>
-      <c r="F106" t="s">
-        <v>258</v>
-      </c>
-      <c r="J106" s="13"/>
-    </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>85</v>
-      </c>
-      <c r="C107" t="s">
-        <v>259</v>
-      </c>
-      <c r="J107" s="13"/>
-    </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D108" t="s">
-        <v>114</v>
-      </c>
-      <c r="F108" t="s">
-        <v>102</v>
-      </c>
-      <c r="I108" t="s">
-        <v>260</v>
-      </c>
-      <c r="J108" s="13"/>
-    </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>86</v>
-      </c>
-      <c r="J109" s="13"/>
-    </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>40</v>
-      </c>
-      <c r="H110" s="4"/>
-    </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>39</v>
-      </c>
-      <c r="H111" s="4"/>
-    </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D112" t="s">
-        <v>47</v>
-      </c>
-      <c r="F112" t="s">
-        <v>103</v>
-      </c>
-      <c r="G112" t="s">
-        <v>264</v>
-      </c>
-      <c r="H112" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D113" t="s">
-        <v>56</v>
-      </c>
-      <c r="F113" t="s">
-        <v>104</v>
-      </c>
-      <c r="G113" t="s">
-        <v>265</v>
-      </c>
-      <c r="H113" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D114" t="s">
-        <v>70</v>
-      </c>
-      <c r="E114" t="s">
-        <v>150</v>
-      </c>
-      <c r="F114" t="s">
-        <v>105</v>
-      </c>
-      <c r="H114" s="4"/>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>40</v>
-      </c>
-      <c r="H115" s="4"/>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>85</v>
-      </c>
-      <c r="C118" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D120" t="s">
-        <v>49</v>
-      </c>
-      <c r="E120" t="s">
-        <v>64</v>
-      </c>
-      <c r="F120" t="s">
-        <v>106</v>
-      </c>
-      <c r="G120" t="s">
-        <v>186</v>
-      </c>
-      <c r="H120" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>85</v>
-      </c>
-      <c r="C121" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D122" t="s">
-        <v>160</v>
-      </c>
-      <c r="E122" t="s">
-        <v>161</v>
-      </c>
-      <c r="F122" t="s">
-        <v>162</v>
-      </c>
-      <c r="G122" t="s">
-        <v>164</v>
-      </c>
-      <c r="H122" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D123" t="s">
-        <v>47</v>
-      </c>
-      <c r="F123" t="s">
-        <v>165</v>
-      </c>
-      <c r="G123" t="s">
-        <v>166</v>
-      </c>
-      <c r="H123" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D124" t="s">
-        <v>47</v>
-      </c>
-      <c r="F124" t="s">
-        <v>167</v>
-      </c>
-      <c r="G124" t="s">
-        <v>278</v>
-      </c>
-      <c r="H124" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
-        <v>86</v>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2822,7 +3377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFA789F-BD4B-4FB8-941E-A2F1BA51DC5F}">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -2846,65 +3401,65 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="J2" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="J3" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -2912,7 +3467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D136"/>
   <sheetViews>
@@ -2945,344 +3500,344 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B4" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B6" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B8" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B9" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B10" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B11" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B12" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C19" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="D19" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="C20" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B21" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B22" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B23" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D23" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B24" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D24" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B25" t="str">
         <f>"1"</f>
@@ -3299,7 +3854,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B26" t="str">
         <f>"2"</f>
@@ -3316,7 +3871,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B27" t="str">
         <f>"3"</f>
@@ -3333,242 +3888,242 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B28" t="str">
         <f>"77"</f>
         <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="D28" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B29" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D29" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B30" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="B31" t="str">
         <f>"8888"</f>
         <v>8888</v>
       </c>
       <c r="C31" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D31" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="B32" t="str">
         <f>"9999"</f>
         <v>9999</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D32" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B33" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D33" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B34" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D34" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B35" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D35" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B36" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D36" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B37" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="D37" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B38" t="str">
         <f>"11"</f>
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D38" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B39" t="str">
         <f>"12"</f>
         <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D39" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B40" t="str">
         <f>"13"</f>
         <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D40" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B41" t="str">
         <f>"14"</f>
         <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D41" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B42" t="str">
         <f>"15"</f>
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D42" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B43" t="str">
         <f>"16"</f>
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D43" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3877,7 +4432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -3906,7 +4461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -3957,13 +4512,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3973,7 +4528,7 @@
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -3983,354 +4538,353 @@
       <c r="C1" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>116</v>
       </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>211</v>
-      </c>
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" t="s">
-        <v>160</v>
-      </c>
-      <c r="C19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>241</v>
-      </c>
-      <c r="B20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>258</v>
-      </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>84</v>
       </c>
-      <c r="B23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>93</v>
       </c>
-      <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>104</v>
-      </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>197</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -4338,21 +4892,21 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -4360,10 +4914,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -4371,43 +4925,43 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>208</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="C37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>236</v>
+        <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="C38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>252</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="C39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>195</v>
+        <v>94</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -4415,10 +4969,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -4426,10 +4980,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -4437,10 +4991,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -4448,10 +5002,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -4459,10 +5013,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
@@ -4470,10 +5024,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -4481,10 +5035,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -4492,18 +5046,234 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="B48" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>194</v>
+      </c>
+      <c r="B49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>222</v>
+      </c>
+      <c r="B50" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>238</v>
+      </c>
+      <c r="B51" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>314</v>
+      </c>
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>312</v>
+      </c>
+      <c r="B60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>315</v>
+      </c>
+      <c r="B61" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>316</v>
+      </c>
+      <c r="B62" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>317</v>
+      </c>
+      <c r="B63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>318</v>
+      </c>
+      <c r="B64" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C48" t="b">
+      <c r="C65" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C68" s="19" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B123">
-    <sortCondition ref="A2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A58:C64">
+    <sortCondition ref="A58"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/config/tables/MADTRIAL_FU_PHONE/Forms/MADTRIAL_FU_PHONE/MADTRIAL_FU_PHONE.xlsx
+++ b/app/config/tables/MADTRIAL_FU_PHONE/Forms/MADTRIAL_FU_PHONE/MADTRIAL_FU_PHONE.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F504E2-2324-4B52-8EDC-2DC5308FBDC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8555A5-B32F-4E84-96F1-80460663DCA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="334">
   <si>
     <t>setting_name</t>
   </si>
@@ -1039,7 +1039,13 @@
     <t>MADtrail - Seguimento Telemovel</t>
   </si>
   <si>
-    <t>ingeger</t>
+    <t>IDINC</t>
+  </si>
+  <si>
+    <t>IDADEANO</t>
+  </si>
+  <si>
+    <t>IDADEMES</t>
   </si>
 </sst>
 </file>
@@ -4514,11 +4520,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5177,102 +5183,124 @@
         <v>312</v>
       </c>
       <c r="B60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>315</v>
-      </c>
-      <c r="B61" t="s">
-        <v>42</v>
-      </c>
-      <c r="C61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>316</v>
-      </c>
-      <c r="B62" t="s">
-        <v>42</v>
-      </c>
-      <c r="C62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>317</v>
-      </c>
-      <c r="B63" t="s">
-        <v>42</v>
-      </c>
-      <c r="C63" t="b">
+      <c r="C63" s="19" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>315</v>
+      </c>
+      <c r="B64" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>316</v>
+      </c>
+      <c r="B65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>317</v>
+      </c>
+      <c r="B66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>318</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B67" t="s">
         <v>43</v>
       </c>
-      <c r="C64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C65" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C66" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C67" s="15" t="b">
+      <c r="C67" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="C68" s="19" t="b">
+        <v>49</v>
+      </c>
+      <c r="C68" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="15" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A58:C64">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A58:C70">
     <sortCondition ref="A58"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/config/tables/MADTRIAL_FU_PHONE/Forms/MADTRIAL_FU_PHONE/MADTRIAL_FU_PHONE.xlsx
+++ b/app/config/tables/MADTRIAL_FU_PHONE/Forms/MADTRIAL_FU_PHONE/MADTRIAL_FU_PHONE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8555A5-B32F-4E84-96F1-80460663DCA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C442B626-CA96-4497-9F0B-7226D7509B31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="348">
   <si>
     <t>setting_name</t>
   </si>
@@ -1046,6 +1046,48 @@
   </si>
   <si>
     <t>IDADEMES</t>
+  </si>
+  <si>
+    <t>data('CHAMADA11') == '4'</t>
+  </si>
+  <si>
+    <t>&lt;font color = "red"&gt;As chamadas anteriores informaram que este número está incorreto &lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>&lt;font color = "red"&gt;Previous calls said this number is incorrect &lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>data('CHAMADA21') == '4'</t>
+  </si>
+  <si>
+    <t>data('CHAMADA31') == '4'</t>
+  </si>
+  <si>
+    <t>data('CHAMADA11') == '4' || data('CHAMADA12') == '4'</t>
+  </si>
+  <si>
+    <t>data('CHAMADA31') == '4' || data('CHAMADA32') == '4'</t>
+  </si>
+  <si>
+    <t>data('CHAMADA21') == '4' || data('CHAMADA22') == '4'</t>
+  </si>
+  <si>
+    <t>data('chamada1') == '4'</t>
+  </si>
+  <si>
+    <t>data('chamada2') == '4'</t>
+  </si>
+  <si>
+    <t>data('chamada3') == '4'</t>
+  </si>
+  <si>
+    <t>chamada3</t>
+  </si>
+  <si>
+    <t>chamada1</t>
+  </si>
+  <si>
+    <t>chamada2</t>
   </si>
 </sst>
 </file>
@@ -1577,11 +1619,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787AB6FC-E5B2-448F-8A60-6571052C1548}">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,44 +1705,44 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="E5" t="s">
+        <v>107</v>
       </c>
       <c r="F5" t="s">
-        <v>292</v>
-      </c>
-      <c r="I5" t="s">
-        <v>105</v>
+        <v>293</v>
+      </c>
+      <c r="G5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="F6" t="s">
         <v>292</v>
       </c>
-      <c r="G6" t="s">
-        <v>161</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
+      <c r="I6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1738,66 +1780,64 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="11"/>
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>339</v>
+      </c>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" t="s">
-        <v>300</v>
-      </c>
-      <c r="G12" s="11"/>
+      <c r="D12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="G12" t="s">
+        <v>336</v>
+      </c>
+      <c r="H12" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>38</v>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" t="s">
+        <v>287</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" t="s">
-        <v>294</v>
-      </c>
-      <c r="G14" t="s">
-        <v>322</v>
-      </c>
-      <c r="H14" t="s">
-        <v>323</v>
-      </c>
-      <c r="J14" t="s">
-        <v>179</v>
-      </c>
-      <c r="K14" t="s">
-        <v>180</v>
-      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>39</v>
       </c>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>43</v>
       </c>
@@ -1805,13 +1845,13 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G18" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H18" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J18" t="s">
         <v>179</v>
@@ -1820,453 +1860,806 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>341</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="G20" t="s">
+        <v>336</v>
+      </c>
+      <c r="H20" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" t="s">
+        <v>294</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="B23" s="15" t="s">
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>295</v>
+      </c>
+      <c r="G26" t="s">
+        <v>324</v>
+      </c>
+      <c r="H26" t="s">
+        <v>325</v>
+      </c>
+      <c r="J26" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
+        <v>340</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="G28" t="s">
+        <v>336</v>
+      </c>
+      <c r="H28" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
         <v>104</v>
       </c>
-      <c r="F25" t="s">
-        <v>181</v>
-      </c>
-      <c r="I25" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F26" t="s">
-        <v>296</v>
-      </c>
-      <c r="I26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" t="s">
-        <v>296</v>
-      </c>
-      <c r="G27" t="s">
-        <v>161</v>
-      </c>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" t="s">
-        <v>107</v>
-      </c>
-      <c r="F28" t="s">
-        <v>297</v>
-      </c>
-      <c r="G28" t="s">
-        <v>162</v>
-      </c>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="E29" s="4"/>
+      <c r="F29" t="s">
+        <v>295</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" t="s">
-        <v>288</v>
-      </c>
-      <c r="G31" t="s">
-        <v>320</v>
-      </c>
-      <c r="H31" t="s">
-        <v>321</v>
-      </c>
-      <c r="J31" t="s">
-        <v>179</v>
-      </c>
-      <c r="K31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="11"/>
+        <v>76</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" t="s">
-        <v>302</v>
-      </c>
-      <c r="G33" s="11"/>
+        <v>76</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" t="s">
-        <v>298</v>
-      </c>
-      <c r="G35" t="s">
-        <v>322</v>
-      </c>
-      <c r="H35" t="s">
-        <v>323</v>
-      </c>
-      <c r="J35" t="s">
-        <v>179</v>
-      </c>
-      <c r="K35" t="s">
-        <v>180</v>
+      <c r="A35" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" t="s">
-        <v>303</v>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" t="s">
+        <v>181</v>
+      </c>
+      <c r="I37" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>38</v>
+      <c r="D38" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" t="s">
+        <v>297</v>
+      </c>
+      <c r="G38" t="s">
+        <v>162</v>
+      </c>
+      <c r="H38" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="F39" t="s">
-        <v>299</v>
-      </c>
-      <c r="G39" t="s">
-        <v>324</v>
-      </c>
-      <c r="H39" t="s">
-        <v>325</v>
-      </c>
-      <c r="J39" t="s">
-        <v>179</v>
-      </c>
-      <c r="K39" t="s">
-        <v>180</v>
+        <v>296</v>
+      </c>
+      <c r="I39" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>39</v>
+      <c r="D40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" t="s">
+        <v>296</v>
+      </c>
+      <c r="G40" t="s">
+        <v>161</v>
+      </c>
+      <c r="H40" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="B44" s="15" t="s">
+      <c r="D43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>288</v>
+      </c>
+      <c r="G43" t="s">
+        <v>320</v>
+      </c>
+      <c r="H43" t="s">
+        <v>321</v>
+      </c>
+      <c r="J43" t="s">
+        <v>179</v>
+      </c>
+      <c r="K43" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="15" t="s">
-        <v>308</v>
-      </c>
+      <c r="C44" t="s">
+        <v>334</v>
+      </c>
+      <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>38</v>
+      <c r="D45" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="G45" t="s">
+        <v>336</v>
+      </c>
+      <c r="H45" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>104</v>
       </c>
+      <c r="E46" s="4"/>
       <c r="F46" t="s">
-        <v>181</v>
-      </c>
-      <c r="I46" t="s">
-        <v>182</v>
+        <v>288</v>
+      </c>
+      <c r="I46">
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
-        <v>104</v>
-      </c>
-      <c r="F47" t="s">
-        <v>291</v>
-      </c>
-      <c r="I47" t="s">
-        <v>105</v>
-      </c>
+      <c r="B47" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F48" t="s">
-        <v>291</v>
-      </c>
-      <c r="G48" t="s">
-        <v>161</v>
-      </c>
-      <c r="H48" t="s">
-        <v>40</v>
-      </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" s="11"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>106</v>
-      </c>
-      <c r="E49" t="s">
-        <v>107</v>
-      </c>
-      <c r="F49" t="s">
-        <v>290</v>
-      </c>
-      <c r="G49" t="s">
-        <v>162</v>
-      </c>
-      <c r="H49" t="s">
-        <v>41</v>
-      </c>
+      <c r="B49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" t="s">
+        <v>302</v>
+      </c>
+      <c r="G49" s="11"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>38</v>
+      <c r="D51" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>298</v>
+      </c>
+      <c r="G51" t="s">
+        <v>322</v>
+      </c>
+      <c r="H51" t="s">
+        <v>323</v>
+      </c>
+      <c r="J51" t="s">
+        <v>179</v>
+      </c>
+      <c r="K51" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
-        <v>43</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F52" t="s">
-        <v>285</v>
-      </c>
-      <c r="G52" t="s">
-        <v>320</v>
-      </c>
-      <c r="H52" t="s">
-        <v>321</v>
-      </c>
-      <c r="J52" t="s">
-        <v>179</v>
-      </c>
-      <c r="K52" t="s">
-        <v>180</v>
-      </c>
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" t="s">
+        <v>337</v>
+      </c>
+      <c r="E52" s="4"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>39</v>
-      </c>
-      <c r="G53" s="11"/>
+      <c r="D53" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="G53" t="s">
+        <v>336</v>
+      </c>
+      <c r="H53" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" t="s">
-        <v>304</v>
-      </c>
-      <c r="G54" s="11"/>
+      <c r="D54" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" t="s">
+        <v>298</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>38</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E55" s="4"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
-        <v>43</v>
-      </c>
-      <c r="E56" t="s">
-        <v>44</v>
-      </c>
-      <c r="F56" t="s">
-        <v>286</v>
-      </c>
-      <c r="G56" t="s">
-        <v>322</v>
-      </c>
-      <c r="H56" t="s">
-        <v>323</v>
-      </c>
-      <c r="J56" t="s">
-        <v>179</v>
-      </c>
-      <c r="K56" t="s">
-        <v>180</v>
+      <c r="B56" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>39</v>
+        <v>75</v>
+      </c>
+      <c r="C57" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>299</v>
+      </c>
+      <c r="G59" t="s">
+        <v>324</v>
+      </c>
+      <c r="H59" t="s">
+        <v>325</v>
+      </c>
+      <c r="J59" t="s">
+        <v>179</v>
+      </c>
+      <c r="K59" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>75</v>
       </c>
-      <c r="C58" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D60" t="s">
-        <v>43</v>
-      </c>
-      <c r="E60" t="s">
-        <v>44</v>
-      </c>
-      <c r="F60" t="s">
-        <v>289</v>
-      </c>
-      <c r="G60" t="s">
-        <v>324</v>
-      </c>
-      <c r="H60" t="s">
-        <v>325</v>
-      </c>
-      <c r="J60" t="s">
-        <v>179</v>
-      </c>
-      <c r="K60" t="s">
-        <v>180</v>
-      </c>
+      <c r="C60" t="s">
+        <v>338</v>
+      </c>
+      <c r="E60" s="4"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>39</v>
+      <c r="D61" t="s">
+        <v>100</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="G61" t="s">
+        <v>336</v>
+      </c>
+      <c r="H61" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>76</v>
+      <c r="D62" t="s">
+        <v>104</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" t="s">
+        <v>299</v>
+      </c>
+      <c r="I62">
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>76</v>
       </c>
+      <c r="E63" s="4"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="B68" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C68" s="15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>104</v>
+      </c>
+      <c r="F70" t="s">
+        <v>181</v>
+      </c>
+      <c r="I70" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>106</v>
+      </c>
+      <c r="E71" t="s">
+        <v>107</v>
+      </c>
+      <c r="F71" t="s">
+        <v>290</v>
+      </c>
+      <c r="G71" t="s">
+        <v>162</v>
+      </c>
+      <c r="H71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>104</v>
+      </c>
+      <c r="F72" t="s">
+        <v>291</v>
+      </c>
+      <c r="I72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>30</v>
+      </c>
+      <c r="F73" t="s">
+        <v>291</v>
+      </c>
+      <c r="G73" t="s">
+        <v>161</v>
+      </c>
+      <c r="H73" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>43</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>285</v>
+      </c>
+      <c r="G76" t="s">
+        <v>320</v>
+      </c>
+      <c r="H76" t="s">
+        <v>321</v>
+      </c>
+      <c r="J76" t="s">
+        <v>179</v>
+      </c>
+      <c r="K76" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" t="s">
+        <v>342</v>
+      </c>
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>100</v>
+      </c>
+      <c r="E78" s="4"/>
+      <c r="G78" t="s">
+        <v>336</v>
+      </c>
+      <c r="H78" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>104</v>
+      </c>
+      <c r="E79" s="4"/>
+      <c r="F79" t="s">
+        <v>285</v>
+      </c>
+      <c r="I79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>76</v>
+      </c>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>39</v>
+      </c>
+      <c r="G81" s="11"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>75</v>
+      </c>
+      <c r="C82" t="s">
+        <v>304</v>
+      </c>
+      <c r="G82" s="11"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>43</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>286</v>
+      </c>
+      <c r="G84" t="s">
+        <v>322</v>
+      </c>
+      <c r="H84" t="s">
+        <v>323</v>
+      </c>
+      <c r="J84" t="s">
+        <v>179</v>
+      </c>
+      <c r="K84" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>75</v>
+      </c>
+      <c r="C85" t="s">
+        <v>343</v>
+      </c>
+      <c r="E85" s="4"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>100</v>
+      </c>
+      <c r="E86" s="4"/>
+      <c r="G86" t="s">
+        <v>336</v>
+      </c>
+      <c r="H86" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>104</v>
+      </c>
+      <c r="E87" s="4"/>
+      <c r="F87" t="s">
+        <v>286</v>
+      </c>
+      <c r="I87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>76</v>
+      </c>
+      <c r="E88" s="4"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>75</v>
+      </c>
+      <c r="C90" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>43</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>289</v>
+      </c>
+      <c r="G92" t="s">
+        <v>324</v>
+      </c>
+      <c r="H92" t="s">
+        <v>325</v>
+      </c>
+      <c r="J92" t="s">
+        <v>179</v>
+      </c>
+      <c r="K92" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>75</v>
+      </c>
+      <c r="C93" t="s">
+        <v>344</v>
+      </c>
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>100</v>
+      </c>
+      <c r="E94" s="4"/>
+      <c r="G94" t="s">
+        <v>336</v>
+      </c>
+      <c r="H94" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>104</v>
+      </c>
+      <c r="E95" s="4"/>
+      <c r="F95" t="s">
+        <v>289</v>
+      </c>
+      <c r="I95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>76</v>
+      </c>
+      <c r="E96" s="4"/>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>75</v>
+      </c>
+      <c r="C101" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3478,8 +3871,8 @@
   <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4520,11 +4913,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5155,13 +5548,13 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>314</v>
-      </c>
-      <c r="B58" t="s">
-        <v>30</v>
-      </c>
-      <c r="C58" t="b">
-        <v>0</v>
+        <v>346</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="D58" t="s">
         <v>313</v>
@@ -5169,140 +5562,174 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>120</v>
-      </c>
-      <c r="B59" t="s">
-        <v>30</v>
-      </c>
-      <c r="C59" t="b">
-        <v>0</v>
+        <v>347</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="19" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>345</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>314</v>
+      </c>
+      <c r="B61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>312</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B63" t="s">
         <v>49</v>
       </c>
-      <c r="C60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C63" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>315</v>
-      </c>
-      <c r="B64" t="s">
-        <v>42</v>
-      </c>
-      <c r="C64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>316</v>
-      </c>
-      <c r="B65" t="s">
-        <v>42</v>
-      </c>
-      <c r="C65" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>317</v>
-      </c>
-      <c r="B66" t="s">
-        <v>42</v>
-      </c>
-      <c r="C66" t="b">
+      <c r="C66" s="19" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>315</v>
+      </c>
+      <c r="B67" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>316</v>
+      </c>
+      <c r="B68" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>317</v>
+      </c>
+      <c r="B69" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>318</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B70" t="s">
         <v>43</v>
       </c>
-      <c r="C67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C68" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+      <c r="C71" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C69" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+      <c r="C72" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B73" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C70" s="15" t="b">
+      <c r="C73" s="15" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A58:C70">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A58:C73">
     <sortCondition ref="A58"/>
   </sortState>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/app/config/tables/MADTRIAL_FU_PHONE/Forms/MADTRIAL_FU_PHONE/MADTRIAL_FU_PHONE.xlsx
+++ b/app/config/tables/MADTRIAL_FU_PHONE/Forms/MADTRIAL_FU_PHONE/MADTRIAL_FU_PHONE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C442B626-CA96-4497-9F0B-7226D7509B31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEACCFFA-0711-4F22-9FA3-8F2F204744E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="366">
   <si>
     <t>setting_name</t>
   </si>
@@ -176,9 +176,6 @@
     <t>Sem rede</t>
   </si>
   <si>
-    <t>não atende o telemovel</t>
-  </si>
-  <si>
     <t>Numero Incorreto</t>
   </si>
   <si>
@@ -654,27 +651,6 @@
   </si>
   <si>
     <t>query_type</t>
-  </si>
-  <si>
-    <t>linked_form_id</t>
-  </si>
-  <si>
-    <t>linked_table_id</t>
-  </si>
-  <si>
-    <t>selection</t>
-  </si>
-  <si>
-    <t>selectionArgs</t>
-  </si>
-  <si>
-    <t>newRowInitialElementKeyToValueMap</t>
-  </si>
-  <si>
-    <t>openRowInitialElementKeyToValueMap</t>
-  </si>
-  <si>
-    <t>fieldName</t>
   </si>
   <si>
     <t>uri</t>
@@ -1088,6 +1064,84 @@
   </si>
   <si>
     <t>chamada2</t>
+  </si>
+  <si>
+    <t>Não atende o telemovel</t>
+  </si>
+  <si>
+    <t>VPI</t>
+  </si>
+  <si>
+    <t>Name: &lt;b&gt;{{data.NOMECRI}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Nome: &lt;b&gt;{{data.NOMECRI}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>data('DOB') == 'D:NS,M:NS,Y:NS'</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>Birthdate: &lt;b&gt;{{calculates.displayDOB}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Data de nascimento: &lt;b&gt;{{calculates.displayDOB}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Age: &lt;b&gt;{{data.IDADEANO}}&lt;/b&gt; year(s), &lt;b&gt;{{data.IDADEMES}}&lt;/b&gt; month(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idade: &lt;b&gt;{{data.IDADEANO}}&lt;/b&gt; ano(s), &lt;b&gt;{{data.IDADEMES}}&lt;/b&gt; mes(es) </t>
+  </si>
+  <si>
+    <t>data('SEX') =='1'</t>
+  </si>
+  <si>
+    <t>Sex: &lt;b&gt;Male&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Sexo: &lt;b&gt;Masculino&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Sex: &lt;b&gt;Female&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Sexo: &lt;b&gt;Feminino&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Responsible: &lt;b&gt;{{data.NOMERESP}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Responsável: &lt;b&gt;{{data.NOMERESP}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Inclusão: &lt;b&gt;{{calculates.displayDATINC}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Inclusion: &lt;b&gt;{{calculates.displayDATINC}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>displayDATINC</t>
+  </si>
+  <si>
+    <t>displayDOB</t>
+  </si>
+  <si>
+    <t>Estudo nº: &lt;b&gt;{{data.NUMEST}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>adate.display(data('DOB'))</t>
+  </si>
+  <si>
+    <t>adate.display(data('DATINC'))</t>
+  </si>
+  <si>
+    <t>Study no.: &lt;b&gt;{{data.NUMEST}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>display.adate.helperText</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1252,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1215,7 +1269,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1572,10 +1625,10 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D5" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1619,11 +1672,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787AB6FC-E5B2-448F-8A60-6571052C1548}">
-  <dimension ref="A1:K103"/>
+  <dimension ref="A1:L229"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,7 +1694,7 @@
     <col min="11" max="11" width="82.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -1670,92 +1723,98 @@
         <v>22</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I4" t="s">
         <v>181</v>
       </c>
-      <c r="I4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" t="s">
         <v>106</v>
       </c>
-      <c r="E5" t="s">
-        <v>107</v>
-      </c>
       <c r="F5" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="G5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" t="s">
+        <v>284</v>
+      </c>
+      <c r="I6" t="s">
         <v>104</v>
       </c>
-      <c r="F6" t="s">
-        <v>292</v>
-      </c>
-      <c r="I6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>43</v>
       </c>
@@ -1763,904 +1822,2044 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="G10" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H10" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="J10" t="s">
+        <v>178</v>
+      </c>
+      <c r="K10" t="s">
         <v>179</v>
       </c>
-      <c r="K10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" s="4"/>
       <c r="G12" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="H12" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="G15" t="s">
+        <v>342</v>
+      </c>
+      <c r="H15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" t="s">
+        <v>351</v>
+      </c>
+      <c r="H17" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" t="s">
+        <v>353</v>
+      </c>
+      <c r="H19" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>75</v>
       </c>
-      <c r="C16" t="s">
-        <v>300</v>
-      </c>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" t="s">
-        <v>294</v>
-      </c>
-      <c r="G18" t="s">
-        <v>322</v>
-      </c>
-      <c r="H18" t="s">
-        <v>323</v>
-      </c>
-      <c r="J18" t="s">
-        <v>179</v>
-      </c>
-      <c r="K18" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" t="s">
-        <v>341</v>
-      </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="G20" t="s">
-        <v>336</v>
-      </c>
-      <c r="H20" t="s">
-        <v>335</v>
-      </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" t="s">
-        <v>294</v>
-      </c>
-      <c r="I21">
-        <v>4</v>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="4"/>
+      <c r="D22" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" t="s">
+        <v>348</v>
+      </c>
+      <c r="H22" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>39</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" t="s">
-        <v>301</v>
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" t="s">
+        <v>346</v>
+      </c>
+      <c r="H24" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" t="s">
-        <v>295</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E26" s="4"/>
       <c r="G26" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="H26" t="s">
-        <v>325</v>
-      </c>
-      <c r="J26" t="s">
-        <v>179</v>
-      </c>
-      <c r="K26" t="s">
-        <v>180</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" t="s">
-        <v>340</v>
-      </c>
-      <c r="E27" s="4"/>
+      <c r="D27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" t="s">
+        <v>355</v>
+      </c>
+      <c r="H27" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="4"/>
+        <v>99</v>
+      </c>
       <c r="G28" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="H28" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" t="s">
-        <v>295</v>
-      </c>
-      <c r="I29">
-        <v>4</v>
-      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="11"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>292</v>
+      </c>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>286</v>
+      </c>
+      <c r="G32" t="s">
+        <v>314</v>
+      </c>
+      <c r="H32" t="s">
+        <v>315</v>
+      </c>
+      <c r="J32" t="s">
+        <v>178</v>
+      </c>
+      <c r="K32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>333</v>
+      </c>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="G34" t="s">
+        <v>328</v>
+      </c>
+      <c r="H34" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" t="s">
+        <v>286</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="G37" t="s">
+        <v>342</v>
+      </c>
+      <c r="H37" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" t="s">
+        <v>351</v>
+      </c>
+      <c r="H39" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>99</v>
+      </c>
+      <c r="G41" t="s">
+        <v>353</v>
+      </c>
+      <c r="H41" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>99</v>
+      </c>
+      <c r="G44" t="s">
+        <v>348</v>
+      </c>
+      <c r="H44" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>99</v>
+      </c>
+      <c r="G46" t="s">
+        <v>346</v>
+      </c>
+      <c r="H46" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="G48" t="s">
+        <v>358</v>
+      </c>
+      <c r="H48" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>99</v>
+      </c>
+      <c r="G49" t="s">
+        <v>355</v>
+      </c>
+      <c r="H49" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>99</v>
+      </c>
+      <c r="G50" t="s">
+        <v>364</v>
+      </c>
+      <c r="H50" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>104</v>
-      </c>
-      <c r="F37" t="s">
-        <v>181</v>
-      </c>
-      <c r="I37" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" t="s">
-        <v>107</v>
-      </c>
-      <c r="F38" t="s">
-        <v>297</v>
-      </c>
-      <c r="G38" t="s">
-        <v>162</v>
-      </c>
-      <c r="H38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>104</v>
-      </c>
-      <c r="F39" t="s">
-        <v>296</v>
-      </c>
-      <c r="I39" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>30</v>
-      </c>
-      <c r="F40" t="s">
-        <v>296</v>
-      </c>
-      <c r="G40" t="s">
-        <v>161</v>
-      </c>
-      <c r="H40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>43</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" t="s">
-        <v>288</v>
-      </c>
-      <c r="G43" t="s">
-        <v>320</v>
-      </c>
-      <c r="H43" t="s">
-        <v>321</v>
-      </c>
-      <c r="J43" t="s">
-        <v>179</v>
-      </c>
-      <c r="K43" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" t="s">
-        <v>334</v>
-      </c>
-      <c r="E44" s="4"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>100</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="G45" t="s">
-        <v>336</v>
-      </c>
-      <c r="H45" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>104</v>
-      </c>
-      <c r="E46" s="4"/>
-      <c r="F46" t="s">
-        <v>288</v>
-      </c>
-      <c r="I46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>76</v>
-      </c>
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G48" s="11"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" t="s">
-        <v>302</v>
-      </c>
-      <c r="G49" s="11"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D51" t="s">
-        <v>43</v>
-      </c>
-      <c r="E51" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" t="s">
-        <v>298</v>
-      </c>
-      <c r="G51" t="s">
-        <v>322</v>
-      </c>
-      <c r="H51" t="s">
-        <v>323</v>
-      </c>
-      <c r="J51" t="s">
-        <v>179</v>
-      </c>
-      <c r="K51" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s">
-        <v>337</v>
-      </c>
-      <c r="E52" s="4"/>
+        <v>293</v>
+      </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
-        <v>100</v>
-      </c>
-      <c r="E53" s="4"/>
-      <c r="G53" t="s">
-        <v>336</v>
-      </c>
-      <c r="H53" t="s">
-        <v>335</v>
+      <c r="B53" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>104</v>
-      </c>
-      <c r="E54" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
       <c r="F54" t="s">
-        <v>298</v>
-      </c>
-      <c r="I54">
-        <v>4</v>
+        <v>287</v>
+      </c>
+      <c r="G54" t="s">
+        <v>316</v>
+      </c>
+      <c r="H54" t="s">
+        <v>317</v>
+      </c>
+      <c r="J54" t="s">
+        <v>178</v>
+      </c>
+      <c r="K54" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="C55" t="s">
+        <v>332</v>
       </c>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>39</v>
+      <c r="D56" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="4"/>
+      <c r="G56" t="s">
+        <v>328</v>
+      </c>
+      <c r="H56" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" t="s">
-        <v>303</v>
+      <c r="D57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" t="s">
+        <v>287</v>
+      </c>
+      <c r="I57">
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>38</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E58" s="4"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>43</v>
-      </c>
-      <c r="E59" t="s">
-        <v>44</v>
-      </c>
-      <c r="F59" t="s">
-        <v>299</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E59" s="4"/>
       <c r="G59" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="H59" t="s">
-        <v>325</v>
-      </c>
-      <c r="J59" t="s">
-        <v>179</v>
-      </c>
-      <c r="K59" t="s">
-        <v>180</v>
+        <v>343</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C60" t="s">
-        <v>338</v>
-      </c>
-      <c r="E60" s="4"/>
+        <v>350</v>
+      </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>100</v>
-      </c>
-      <c r="E61" s="4"/>
+        <v>99</v>
+      </c>
       <c r="G61" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="H61" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D62" t="s">
-        <v>104</v>
-      </c>
-      <c r="E62" s="4"/>
-      <c r="F62" t="s">
-        <v>299</v>
-      </c>
-      <c r="I62">
-        <v>4</v>
+      <c r="B62" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>76</v>
-      </c>
-      <c r="E63" s="4"/>
+      <c r="D63" t="s">
+        <v>99</v>
+      </c>
+      <c r="G63" t="s">
+        <v>353</v>
+      </c>
+      <c r="H63" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>99</v>
+      </c>
+      <c r="G66" t="s">
+        <v>348</v>
+      </c>
+      <c r="H66" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>99</v>
+      </c>
+      <c r="G68" t="s">
+        <v>346</v>
+      </c>
+      <c r="H68" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>99</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="G70" t="s">
+        <v>358</v>
+      </c>
+      <c r="H70" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>99</v>
+      </c>
+      <c r="G71" t="s">
+        <v>355</v>
+      </c>
+      <c r="H71" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>99</v>
+      </c>
+      <c r="G72" t="s">
+        <v>364</v>
+      </c>
+      <c r="H72" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="18" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>103</v>
+      </c>
+      <c r="F79" t="s">
+        <v>180</v>
+      </c>
+      <c r="I79" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>105</v>
+      </c>
+      <c r="E80" t="s">
+        <v>106</v>
+      </c>
+      <c r="F80" t="s">
+        <v>289</v>
+      </c>
+      <c r="G80" t="s">
+        <v>161</v>
+      </c>
+      <c r="H80" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>103</v>
+      </c>
+      <c r="F81" t="s">
+        <v>288</v>
+      </c>
+      <c r="I81" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>30</v>
+      </c>
+      <c r="F82" t="s">
+        <v>288</v>
+      </c>
+      <c r="G82" t="s">
+        <v>160</v>
+      </c>
+      <c r="H82" t="s">
+        <v>40</v>
+      </c>
+      <c r="L82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>43</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>280</v>
+      </c>
+      <c r="G85" t="s">
+        <v>312</v>
+      </c>
+      <c r="H85" t="s">
+        <v>313</v>
+      </c>
+      <c r="J85" t="s">
+        <v>178</v>
+      </c>
+      <c r="K85" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>74</v>
+      </c>
+      <c r="C86" t="s">
         <v>326</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="E86" s="4"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>99</v>
+      </c>
+      <c r="E87" s="4"/>
+      <c r="G87" t="s">
+        <v>328</v>
+      </c>
+      <c r="H87" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>103</v>
+      </c>
+      <c r="E88" s="4"/>
+      <c r="F88" t="s">
+        <v>280</v>
+      </c>
+      <c r="I88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>75</v>
       </c>
-      <c r="C68" s="15" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+      <c r="E89" s="4"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>99</v>
+      </c>
+      <c r="E90" s="4"/>
+      <c r="G90" t="s">
+        <v>342</v>
+      </c>
+      <c r="H90" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>74</v>
+      </c>
+      <c r="C91" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>99</v>
+      </c>
+      <c r="G92" t="s">
+        <v>351</v>
+      </c>
+      <c r="H92" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>99</v>
+      </c>
+      <c r="G94" t="s">
+        <v>353</v>
+      </c>
+      <c r="H94" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>74</v>
+      </c>
+      <c r="C96" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>99</v>
+      </c>
+      <c r="G97" t="s">
+        <v>348</v>
+      </c>
+      <c r="H97" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>99</v>
+      </c>
+      <c r="G99" t="s">
+        <v>346</v>
+      </c>
+      <c r="H99" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>99</v>
+      </c>
+      <c r="E101" s="4"/>
+      <c r="G101" t="s">
+        <v>358</v>
+      </c>
+      <c r="H101" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>99</v>
+      </c>
+      <c r="G102" t="s">
+        <v>355</v>
+      </c>
+      <c r="H102" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>99</v>
+      </c>
+      <c r="G103" t="s">
+        <v>364</v>
+      </c>
+      <c r="H103" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>39</v>
+      </c>
+      <c r="G104" s="11"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>74</v>
+      </c>
+      <c r="C105" t="s">
+        <v>294</v>
+      </c>
+      <c r="G105" s="11"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D70" t="s">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>43</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>290</v>
+      </c>
+      <c r="G107" t="s">
+        <v>314</v>
+      </c>
+      <c r="H107" t="s">
+        <v>315</v>
+      </c>
+      <c r="J107" t="s">
+        <v>178</v>
+      </c>
+      <c r="K107" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>74</v>
+      </c>
+      <c r="C108" t="s">
+        <v>329</v>
+      </c>
+      <c r="E108" s="4"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>99</v>
+      </c>
+      <c r="E109" s="4"/>
+      <c r="G109" t="s">
+        <v>328</v>
+      </c>
+      <c r="H109" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>103</v>
+      </c>
+      <c r="E110" s="4"/>
+      <c r="F110" t="s">
+        <v>290</v>
+      </c>
+      <c r="I110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>75</v>
+      </c>
+      <c r="E111" s="4"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>99</v>
+      </c>
+      <c r="E112" s="4"/>
+      <c r="G112" t="s">
+        <v>342</v>
+      </c>
+      <c r="H112" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>74</v>
+      </c>
+      <c r="C113" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>99</v>
+      </c>
+      <c r="G114" t="s">
+        <v>351</v>
+      </c>
+      <c r="H114" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>99</v>
+      </c>
+      <c r="G116" t="s">
+        <v>353</v>
+      </c>
+      <c r="H116" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>74</v>
+      </c>
+      <c r="C118" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>99</v>
+      </c>
+      <c r="G119" t="s">
+        <v>348</v>
+      </c>
+      <c r="H119" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>99</v>
+      </c>
+      <c r="G121" t="s">
+        <v>346</v>
+      </c>
+      <c r="H121" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>99</v>
+      </c>
+      <c r="E123" s="4"/>
+      <c r="G123" t="s">
+        <v>358</v>
+      </c>
+      <c r="H123" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>99</v>
+      </c>
+      <c r="G124" t="s">
+        <v>355</v>
+      </c>
+      <c r="H124" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>99</v>
+      </c>
+      <c r="G125" t="s">
+        <v>364</v>
+      </c>
+      <c r="H125" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>74</v>
+      </c>
+      <c r="C127" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>43</v>
+      </c>
+      <c r="E129" t="s">
+        <v>44</v>
+      </c>
+      <c r="F129" t="s">
+        <v>291</v>
+      </c>
+      <c r="G129" t="s">
+        <v>316</v>
+      </c>
+      <c r="H129" t="s">
+        <v>317</v>
+      </c>
+      <c r="J129" t="s">
+        <v>178</v>
+      </c>
+      <c r="K129" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>74</v>
+      </c>
+      <c r="C130" t="s">
+        <v>330</v>
+      </c>
+      <c r="E130" s="4"/>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>99</v>
+      </c>
+      <c r="E131" s="4"/>
+      <c r="G131" t="s">
+        <v>328</v>
+      </c>
+      <c r="H131" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>103</v>
+      </c>
+      <c r="E132" s="4"/>
+      <c r="F132" t="s">
+        <v>291</v>
+      </c>
+      <c r="I132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>75</v>
+      </c>
+      <c r="E133" s="4"/>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>99</v>
+      </c>
+      <c r="E134" s="4"/>
+      <c r="G134" t="s">
+        <v>342</v>
+      </c>
+      <c r="H134" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>74</v>
+      </c>
+      <c r="C135" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>99</v>
+      </c>
+      <c r="G136" t="s">
+        <v>351</v>
+      </c>
+      <c r="H136" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>99</v>
+      </c>
+      <c r="G138" t="s">
+        <v>353</v>
+      </c>
+      <c r="H138" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>74</v>
+      </c>
+      <c r="C140" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>99</v>
+      </c>
+      <c r="G141" t="s">
+        <v>348</v>
+      </c>
+      <c r="H141" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>99</v>
+      </c>
+      <c r="G143" t="s">
+        <v>346</v>
+      </c>
+      <c r="H143" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>99</v>
+      </c>
+      <c r="E145" s="4"/>
+      <c r="G145" t="s">
+        <v>358</v>
+      </c>
+      <c r="H145" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>99</v>
+      </c>
+      <c r="G146" t="s">
+        <v>355</v>
+      </c>
+      <c r="H146" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>99</v>
+      </c>
+      <c r="G147" t="s">
+        <v>364</v>
+      </c>
+      <c r="H147" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="B152" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C152" s="14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>103</v>
+      </c>
+      <c r="F154" t="s">
+        <v>180</v>
+      </c>
+      <c r="I154" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>105</v>
+      </c>
+      <c r="E155" t="s">
+        <v>106</v>
+      </c>
+      <c r="F155" t="s">
+        <v>282</v>
+      </c>
+      <c r="G155" t="s">
+        <v>161</v>
+      </c>
+      <c r="H155" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>103</v>
+      </c>
+      <c r="F156" t="s">
+        <v>283</v>
+      </c>
+      <c r="I156" t="s">
         <v>104</v>
       </c>
-      <c r="F70" t="s">
-        <v>181</v>
-      </c>
-      <c r="I70" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D71" t="s">
-        <v>106</v>
-      </c>
-      <c r="E71" t="s">
-        <v>107</v>
-      </c>
-      <c r="F71" t="s">
-        <v>290</v>
-      </c>
-      <c r="G71" t="s">
-        <v>162</v>
-      </c>
-      <c r="H71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D72" t="s">
-        <v>104</v>
-      </c>
-      <c r="F72" t="s">
-        <v>291</v>
-      </c>
-      <c r="I72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
         <v>30</v>
       </c>
-      <c r="F73" t="s">
-        <v>291</v>
-      </c>
-      <c r="G73" t="s">
-        <v>161</v>
-      </c>
-      <c r="H73" t="s">
+      <c r="F157" t="s">
+        <v>283</v>
+      </c>
+      <c r="G157" t="s">
+        <v>160</v>
+      </c>
+      <c r="H157" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+      <c r="L157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D76" t="s">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
         <v>43</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E160" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F76" t="s">
-        <v>285</v>
-      </c>
-      <c r="G76" t="s">
-        <v>320</v>
-      </c>
-      <c r="H76" t="s">
-        <v>321</v>
-      </c>
-      <c r="J76" t="s">
+      <c r="F160" t="s">
+        <v>277</v>
+      </c>
+      <c r="G160" t="s">
+        <v>312</v>
+      </c>
+      <c r="H160" t="s">
+        <v>313</v>
+      </c>
+      <c r="J160" t="s">
+        <v>178</v>
+      </c>
+      <c r="K160" t="s">
         <v>179</v>
       </c>
-      <c r="K76" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>74</v>
+      </c>
+      <c r="C161" t="s">
+        <v>334</v>
+      </c>
+      <c r="E161" s="4"/>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>99</v>
+      </c>
+      <c r="E162" s="4"/>
+      <c r="G162" t="s">
+        <v>328</v>
+      </c>
+      <c r="H162" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>103</v>
+      </c>
+      <c r="E163" s="4"/>
+      <c r="F163" t="s">
+        <v>277</v>
+      </c>
+      <c r="I163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
         <v>75</v>
       </c>
-      <c r="C77" t="s">
+      <c r="E164" s="4"/>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>99</v>
+      </c>
+      <c r="E165" s="4"/>
+      <c r="G165" t="s">
         <v>342</v>
       </c>
-      <c r="E77" s="4"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D78" t="s">
-        <v>100</v>
-      </c>
-      <c r="E78" s="4"/>
-      <c r="G78" t="s">
+      <c r="H165" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>74</v>
+      </c>
+      <c r="C166" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>99</v>
+      </c>
+      <c r="G167" t="s">
+        <v>351</v>
+      </c>
+      <c r="H167" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>99</v>
+      </c>
+      <c r="G169" t="s">
+        <v>353</v>
+      </c>
+      <c r="H169" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>74</v>
+      </c>
+      <c r="C171" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>99</v>
+      </c>
+      <c r="G172" t="s">
+        <v>348</v>
+      </c>
+      <c r="H172" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>99</v>
+      </c>
+      <c r="G174" t="s">
+        <v>346</v>
+      </c>
+      <c r="H174" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D176" t="s">
+        <v>99</v>
+      </c>
+      <c r="E176" s="4"/>
+      <c r="G176" t="s">
+        <v>358</v>
+      </c>
+      <c r="H176" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>99</v>
+      </c>
+      <c r="G177" t="s">
+        <v>355</v>
+      </c>
+      <c r="H177" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D178" t="s">
+        <v>99</v>
+      </c>
+      <c r="G178" t="s">
+        <v>364</v>
+      </c>
+      <c r="H178" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>39</v>
+      </c>
+      <c r="G179" s="11"/>
+    </row>
+    <row r="180" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>74</v>
+      </c>
+      <c r="C180" t="s">
+        <v>296</v>
+      </c>
+      <c r="G180" s="11"/>
+    </row>
+    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>43</v>
+      </c>
+      <c r="E182" t="s">
+        <v>44</v>
+      </c>
+      <c r="F182" t="s">
+        <v>278</v>
+      </c>
+      <c r="G182" t="s">
+        <v>314</v>
+      </c>
+      <c r="H182" t="s">
+        <v>315</v>
+      </c>
+      <c r="J182" t="s">
+        <v>178</v>
+      </c>
+      <c r="K182" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>74</v>
+      </c>
+      <c r="C183" t="s">
+        <v>335</v>
+      </c>
+      <c r="E183" s="4"/>
+    </row>
+    <row r="184" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
+        <v>99</v>
+      </c>
+      <c r="E184" s="4"/>
+      <c r="G184" t="s">
+        <v>328</v>
+      </c>
+      <c r="H184" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
+        <v>103</v>
+      </c>
+      <c r="E185" s="4"/>
+      <c r="F185" t="s">
+        <v>278</v>
+      </c>
+      <c r="I185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>75</v>
+      </c>
+      <c r="E186" s="4"/>
+    </row>
+    <row r="187" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D187" t="s">
+        <v>99</v>
+      </c>
+      <c r="E187" s="4"/>
+      <c r="G187" t="s">
+        <v>342</v>
+      </c>
+      <c r="H187" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="188" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>74</v>
+      </c>
+      <c r="C188" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="189" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
+        <v>99</v>
+      </c>
+      <c r="G189" t="s">
+        <v>351</v>
+      </c>
+      <c r="H189" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="190" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="191" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D191" t="s">
+        <v>99</v>
+      </c>
+      <c r="G191" t="s">
+        <v>353</v>
+      </c>
+      <c r="H191" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="192" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="193" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>74</v>
+      </c>
+      <c r="C193" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="194" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D194" t="s">
+        <v>99</v>
+      </c>
+      <c r="G194" t="s">
+        <v>348</v>
+      </c>
+      <c r="H194" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="195" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="196" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D196" t="s">
+        <v>99</v>
+      </c>
+      <c r="G196" t="s">
+        <v>346</v>
+      </c>
+      <c r="H196" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="197" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="198" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D198" t="s">
+        <v>99</v>
+      </c>
+      <c r="E198" s="4"/>
+      <c r="G198" t="s">
+        <v>358</v>
+      </c>
+      <c r="H198" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="199" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D199" t="s">
+        <v>99</v>
+      </c>
+      <c r="G199" t="s">
+        <v>355</v>
+      </c>
+      <c r="H199" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="200" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
+        <v>99</v>
+      </c>
+      <c r="G200" t="s">
+        <v>364</v>
+      </c>
+      <c r="H200" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="201" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="202" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>74</v>
+      </c>
+      <c r="C202" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="203" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="204" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D204" t="s">
+        <v>43</v>
+      </c>
+      <c r="E204" t="s">
+        <v>44</v>
+      </c>
+      <c r="F204" t="s">
+        <v>281</v>
+      </c>
+      <c r="G204" t="s">
+        <v>316</v>
+      </c>
+      <c r="H204" t="s">
+        <v>317</v>
+      </c>
+      <c r="J204" t="s">
+        <v>178</v>
+      </c>
+      <c r="K204" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="205" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>74</v>
+      </c>
+      <c r="C205" t="s">
         <v>336</v>
       </c>
-      <c r="H78" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D79" t="s">
-        <v>104</v>
-      </c>
-      <c r="E79" s="4"/>
-      <c r="F79" t="s">
-        <v>285</v>
-      </c>
-      <c r="I79">
+      <c r="E205" s="4"/>
+    </row>
+    <row r="206" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D206" t="s">
+        <v>99</v>
+      </c>
+      <c r="E206" s="4"/>
+      <c r="G206" t="s">
+        <v>328</v>
+      </c>
+      <c r="H206" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="207" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D207" t="s">
+        <v>103</v>
+      </c>
+      <c r="E207" s="4"/>
+      <c r="F207" t="s">
+        <v>281</v>
+      </c>
+      <c r="I207">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>76</v>
-      </c>
-      <c r="E80" s="4"/>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+    <row r="208" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>75</v>
+      </c>
+      <c r="E208" s="4"/>
+    </row>
+    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D209" t="s">
+        <v>99</v>
+      </c>
+      <c r="E209" s="4"/>
+      <c r="G209" t="s">
+        <v>342</v>
+      </c>
+      <c r="H209" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>74</v>
+      </c>
+      <c r="C210" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D211" t="s">
+        <v>99</v>
+      </c>
+      <c r="G211" t="s">
+        <v>351</v>
+      </c>
+      <c r="H211" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D213" t="s">
+        <v>99</v>
+      </c>
+      <c r="G213" t="s">
+        <v>353</v>
+      </c>
+      <c r="H213" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>74</v>
+      </c>
+      <c r="C215" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D216" t="s">
+        <v>99</v>
+      </c>
+      <c r="G216" t="s">
+        <v>348</v>
+      </c>
+      <c r="H216" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D218" t="s">
+        <v>99</v>
+      </c>
+      <c r="G218" t="s">
+        <v>346</v>
+      </c>
+      <c r="H218" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D220" t="s">
+        <v>99</v>
+      </c>
+      <c r="E220" s="4"/>
+      <c r="G220" t="s">
+        <v>358</v>
+      </c>
+      <c r="H220" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D221" t="s">
+        <v>99</v>
+      </c>
+      <c r="G221" t="s">
+        <v>355</v>
+      </c>
+      <c r="H221" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D222" t="s">
+        <v>99</v>
+      </c>
+      <c r="G222" t="s">
+        <v>364</v>
+      </c>
+      <c r="H222" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
         <v>39</v>
       </c>
-      <c r="G81" s="11"/>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+    </row>
+    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
         <v>75</v>
       </c>
-      <c r="C82" t="s">
-        <v>304</v>
-      </c>
-      <c r="G82" s="11"/>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D84" t="s">
-        <v>43</v>
-      </c>
-      <c r="E84" t="s">
-        <v>44</v>
-      </c>
-      <c r="F84" t="s">
-        <v>286</v>
-      </c>
-      <c r="G84" t="s">
-        <v>322</v>
-      </c>
-      <c r="H84" t="s">
-        <v>323</v>
-      </c>
-      <c r="J84" t="s">
-        <v>179</v>
-      </c>
-      <c r="K84" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
         <v>75</v>
       </c>
-      <c r="C85" t="s">
-        <v>343</v>
-      </c>
-      <c r="E85" s="4"/>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D86" t="s">
-        <v>100</v>
-      </c>
-      <c r="E86" s="4"/>
-      <c r="G86" t="s">
-        <v>336</v>
-      </c>
-      <c r="H86" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D87" t="s">
-        <v>104</v>
-      </c>
-      <c r="E87" s="4"/>
-      <c r="F87" t="s">
-        <v>286</v>
-      </c>
-      <c r="I87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>76</v>
-      </c>
-      <c r="E88" s="4"/>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
         <v>75</v>
       </c>
-      <c r="C90" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D92" t="s">
-        <v>43</v>
-      </c>
-      <c r="E92" t="s">
-        <v>44</v>
-      </c>
-      <c r="F92" t="s">
-        <v>289</v>
-      </c>
-      <c r="G92" t="s">
-        <v>324</v>
-      </c>
-      <c r="H92" t="s">
-        <v>325</v>
-      </c>
-      <c r="J92" t="s">
-        <v>179</v>
-      </c>
-      <c r="K92" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
+        <v>74</v>
+      </c>
+      <c r="C227" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
         <v>75</v>
-      </c>
-      <c r="C93" t="s">
-        <v>344</v>
-      </c>
-      <c r="E93" s="4"/>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D94" t="s">
-        <v>100</v>
-      </c>
-      <c r="E94" s="4"/>
-      <c r="G94" t="s">
-        <v>336</v>
-      </c>
-      <c r="H94" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D95" t="s">
-        <v>104</v>
-      </c>
-      <c r="E95" s="4"/>
-      <c r="F95" t="s">
-        <v>289</v>
-      </c>
-      <c r="I95">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>76</v>
-      </c>
-      <c r="E96" s="4"/>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>75</v>
-      </c>
-      <c r="C101" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2673,9 +3872,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2726,22 +3925,22 @@
         <v>22</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>178</v>
-      </c>
       <c r="O1" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -2751,19 +3950,19 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H3" t="s">
         <v>50</v>
-      </c>
-      <c r="G3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -2781,24 +3980,24 @@
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -2806,112 +4005,112 @@
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J8" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="K8" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="L8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G15" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" t="s">
         <v>123</v>
       </c>
-      <c r="H15" t="s">
-        <v>124</v>
-      </c>
       <c r="J15" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="K15" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="L15" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -2929,16 +4128,16 @@
         <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" t="s">
+        <v>163</v>
+      </c>
+      <c r="H20" t="s">
         <v>58</v>
-      </c>
-      <c r="G20" t="s">
-        <v>164</v>
-      </c>
-      <c r="H20" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -2948,10 +4147,10 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -2961,19 +4160,19 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" t="s">
         <v>60</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>61</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
+        <v>164</v>
+      </c>
+      <c r="H24" t="s">
         <v>62</v>
-      </c>
-      <c r="G24" t="s">
-        <v>165</v>
-      </c>
-      <c r="H24" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -2981,13 +4180,13 @@
         <v>42</v>
       </c>
       <c r="F25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" t="s">
+        <v>165</v>
+      </c>
+      <c r="H25" t="s">
         <v>70</v>
-      </c>
-      <c r="G25" t="s">
-        <v>166</v>
-      </c>
-      <c r="H25" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -2997,7 +4196,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -3010,24 +4209,24 @@
         <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -3035,21 +4234,21 @@
         <v>43</v>
       </c>
       <c r="E31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F31" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" t="s">
+        <v>167</v>
+      </c>
+      <c r="H31" t="s">
         <v>132</v>
-      </c>
-      <c r="G31" t="s">
-        <v>168</v>
-      </c>
-      <c r="H31" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
@@ -3059,10 +4258,10 @@
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
@@ -3073,102 +4272,102 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" t="s">
         <v>73</v>
       </c>
-      <c r="F36" t="s">
-        <v>74</v>
-      </c>
       <c r="G36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F38" t="s">
+        <v>193</v>
+      </c>
+      <c r="G38" t="s">
         <v>194</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>195</v>
-      </c>
-      <c r="H38" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E39" t="s">
+        <v>190</v>
+      </c>
+      <c r="F39" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" t="s">
         <v>191</v>
       </c>
-      <c r="F39" t="s">
-        <v>77</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>192</v>
       </c>
-      <c r="H39" t="s">
-        <v>193</v>
-      </c>
       <c r="O39" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J40" s="13"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J41" s="13"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J42" s="13"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J43" s="13"/>
     </row>
@@ -3189,38 +4388,38 @@
         <v>42</v>
       </c>
       <c r="F46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H48" s="4"/>
     </row>
@@ -3232,10 +4431,10 @@
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H50" s="4"/>
     </row>
@@ -3249,16 +4448,16 @@
         <v>43</v>
       </c>
       <c r="E52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F52" t="s">
+        <v>80</v>
+      </c>
+      <c r="G52" t="s">
+        <v>170</v>
+      </c>
+      <c r="H52" t="s">
         <v>81</v>
-      </c>
-      <c r="G52" t="s">
-        <v>171</v>
-      </c>
-      <c r="H52" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
@@ -3268,15 +4467,15 @@
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
@@ -3287,102 +4486,102 @@
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G57" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="H57" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G58" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F59" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G59" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H59" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G60" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H60" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="O60" s="13" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E61" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F61" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="J61" s="13"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C62" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="J62" s="13"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I63" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="J63" s="13"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J64" s="13"/>
     </row>
@@ -3403,38 +4602,38 @@
         <v>42</v>
       </c>
       <c r="F67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G68" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H68" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H69" s="4"/>
     </row>
@@ -3446,15 +4645,15 @@
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
@@ -3467,16 +4666,16 @@
         <v>43</v>
       </c>
       <c r="E74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G74" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
@@ -3486,15 +4685,15 @@
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
@@ -3505,102 +4704,102 @@
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G79" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G80" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E81" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F81" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G81" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H81" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E82" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="H82" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="O82" s="13" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E83" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F83" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="J83" s="13"/>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C84" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="J84" s="13"/>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F85" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="J85" s="13"/>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J86" s="13"/>
     </row>
@@ -3621,38 +4820,38 @@
         <v>42</v>
       </c>
       <c r="F89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G89" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G90" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E91" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H91" s="4"/>
     </row>
@@ -3664,20 +4863,20 @@
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.25">
@@ -3690,41 +4889,41 @@
         <v>43</v>
       </c>
       <c r="E97" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F97" t="s">
+        <v>95</v>
+      </c>
+      <c r="G97" t="s">
+        <v>172</v>
+      </c>
+      <c r="H97" t="s">
         <v>96</v>
-      </c>
-      <c r="G97" t="s">
-        <v>173</v>
-      </c>
-      <c r="H97" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C98" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
+        <v>146</v>
+      </c>
+      <c r="E99" t="s">
         <v>147</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>148</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
+        <v>150</v>
+      </c>
+      <c r="H99" t="s">
         <v>149</v>
-      </c>
-      <c r="G99" t="s">
-        <v>151</v>
-      </c>
-      <c r="H99" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
@@ -3732,13 +4931,13 @@
         <v>42</v>
       </c>
       <c r="F100" t="s">
+        <v>151</v>
+      </c>
+      <c r="G100" t="s">
         <v>152</v>
       </c>
-      <c r="G100" t="s">
-        <v>153</v>
-      </c>
       <c r="H100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
@@ -3746,18 +4945,18 @@
         <v>42</v>
       </c>
       <c r="F101" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G101" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="H101" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
@@ -3767,7 +4966,7 @@
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3778,87 +4977,60 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFA789F-BD4B-4FB8-941E-A2F1BA51DC5F}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="58" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D1" s="14" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="C2" t="s">
         <v>209</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="D2" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G1" s="14" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" t="s">
-        <v>216</v>
-      </c>
-      <c r="J2" t="s">
-        <v>217</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B3" t="s">
-        <v>216</v>
-      </c>
-      <c r="J3" t="s">
-        <v>217</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3868,11 +5040,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3906,7 +5078,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D2" t="s">
         <v>45</v>
@@ -3921,7 +5093,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>46</v>
@@ -3936,10 +5108,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3951,10 +5123,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3966,567 +5138,578 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
         <v>109</v>
-      </c>
-      <c r="D7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s">
         <v>111</v>
-      </c>
-      <c r="D8" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" t="s">
         <v>113</v>
-      </c>
-      <c r="D9" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>341</v>
       </c>
       <c r="C18" t="s">
-        <v>155</v>
+        <v>341</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D19" t="s">
-        <v>158</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" t="str">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C21" t="s">
-        <v>254</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" t="str">
+      <c r="C22" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C22" t="s">
-        <v>255</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" t="str">
+      <c r="C23" t="s">
+        <v>247</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C23" t="s">
-        <v>256</v>
-      </c>
-      <c r="D23" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>117</v>
-      </c>
-      <c r="B24" t="str">
-        <f>"99"</f>
-        <v>99</v>
-      </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>248</v>
       </c>
       <c r="D24" t="s">
-        <v>119</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B25" t="str">
+        <f>"99"</f>
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C26" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="D25" t="str">
+      <c r="D26" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>134</v>
-      </c>
-      <c r="B26" t="str">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C27" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="D26" t="str">
+      <c r="D27" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>134</v>
-      </c>
-      <c r="B27" t="str">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C28" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D28" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>134</v>
-      </c>
-      <c r="B28" t="str">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" t="str">
         <f>"77"</f>
         <v>77</v>
       </c>
-      <c r="C28" t="s">
-        <v>135</v>
-      </c>
-      <c r="D28" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C29" t="s">
         <v>134</v>
       </c>
-      <c r="B29" t="str">
+      <c r="D29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" t="s">
         <v>118</v>
       </c>
-      <c r="D29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>137</v>
-      </c>
-      <c r="B30" t="str">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C30" t="s">
-        <v>138</v>
-      </c>
-      <c r="D30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>202</v>
-      </c>
-      <c r="B31" t="str">
-        <f>"8888"</f>
-        <v>8888</v>
-      </c>
       <c r="C31" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="D31" t="s">
-        <v>204</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" t="str">
+        <f>"88888"</f>
+        <v>88888</v>
+      </c>
+      <c r="C32" t="s">
         <v>202</v>
       </c>
-      <c r="B32" t="str">
-        <f>"9999"</f>
-        <v>9999</v>
-      </c>
-      <c r="C32" t="s">
-        <v>118</v>
-      </c>
       <c r="D32" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="B33" t="str">
+        <f>"77777"</f>
+        <v>77777</v>
+      </c>
+      <c r="C33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C33" t="s">
-        <v>265</v>
-      </c>
-      <c r="D33" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>148</v>
-      </c>
-      <c r="B34" t="str">
+      <c r="C34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D34" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C34" t="s">
-        <v>266</v>
-      </c>
-      <c r="D34" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>148</v>
-      </c>
-      <c r="B35" t="str">
+      <c r="C35" t="s">
+        <v>258</v>
+      </c>
+      <c r="D35" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C35" t="s">
-        <v>267</v>
-      </c>
-      <c r="D35" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>148</v>
-      </c>
-      <c r="B36" t="str">
+      <c r="C36" t="s">
+        <v>259</v>
+      </c>
+      <c r="D36" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
-      <c r="C36" t="s">
-        <v>268</v>
-      </c>
-      <c r="D36" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>148</v>
-      </c>
-      <c r="B37" t="str">
+      <c r="C37" t="s">
+        <v>260</v>
+      </c>
+      <c r="D37" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
-      <c r="C37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D37" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>148</v>
-      </c>
-      <c r="B38" t="str">
+      <c r="C38" t="s">
+        <v>261</v>
+      </c>
+      <c r="D38" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" t="str">
         <f>"11"</f>
         <v>11</v>
       </c>
-      <c r="C38" t="s">
-        <v>270</v>
-      </c>
-      <c r="D38" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>148</v>
-      </c>
-      <c r="B39" t="str">
+      <c r="C39" t="s">
+        <v>262</v>
+      </c>
+      <c r="D39" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" t="str">
         <f>"12"</f>
         <v>12</v>
       </c>
-      <c r="C39" t="s">
-        <v>271</v>
-      </c>
-      <c r="D39" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>148</v>
-      </c>
-      <c r="B40" t="str">
+      <c r="C40" t="s">
+        <v>263</v>
+      </c>
+      <c r="D40" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" t="str">
         <f>"13"</f>
         <v>13</v>
       </c>
-      <c r="C40" t="s">
-        <v>272</v>
-      </c>
-      <c r="D40" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>148</v>
-      </c>
-      <c r="B41" t="str">
+      <c r="C41" t="s">
+        <v>264</v>
+      </c>
+      <c r="D41" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" t="str">
         <f>"14"</f>
         <v>14</v>
       </c>
-      <c r="C41" t="s">
-        <v>273</v>
-      </c>
-      <c r="D41" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>148</v>
-      </c>
-      <c r="B42" t="str">
+      <c r="C42" t="s">
+        <v>265</v>
+      </c>
+      <c r="D42" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" t="str">
         <f>"15"</f>
         <v>15</v>
       </c>
-      <c r="C42" t="s">
-        <v>274</v>
-      </c>
-      <c r="D42" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>148</v>
-      </c>
-      <c r="B43" t="str">
+      <c r="C43" t="s">
+        <v>266</v>
+      </c>
+      <c r="D43" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" t="str">
         <f>"16"</f>
         <v>16</v>
       </c>
-      <c r="C43" t="s">
-        <v>275</v>
-      </c>
-      <c r="D43" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
+      <c r="C44" t="s">
+        <v>267</v>
+      </c>
+      <c r="D44" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
@@ -4551,10 +5734,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="8"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="D53" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>
@@ -4648,7 +5831,6 @@
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="8"/>
@@ -4675,10 +5857,10 @@
       <c r="C91" s="8"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="8"/>
       <c r="C92" s="8"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="8"/>
       <c r="C93" s="8"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
@@ -4751,6 +5933,7 @@
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="8"/>
@@ -4770,8 +5953,8 @@
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="8"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="8"/>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="8"/>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" s="8"/>
@@ -4823,6 +6006,9 @@
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" s="8"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -4833,11 +6019,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4852,6 +6038,22 @@
       </c>
       <c r="B1" s="10" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -4915,8 +6117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
@@ -4941,189 +6143,189 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="15" t="b">
+        <v>105</v>
+      </c>
+      <c r="C2" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="15" t="b">
+        <v>105</v>
+      </c>
+      <c r="C3" s="14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="15" t="b">
+        <v>105</v>
+      </c>
+      <c r="C4" s="14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="15" t="b">
+      <c r="C5" s="14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="15" t="b">
+      <c r="C6" s="14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="15" t="b">
+      <c r="C7" s="14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="15" t="b">
+      <c r="C8" s="14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="15" t="b">
+      <c r="C9" s="14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="15" t="b">
+      <c r="C10" s="14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="15" t="b">
+      <c r="C11" s="14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="15" t="b">
+      <c r="C12" s="14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="15" t="b">
+      <c r="C13" s="14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="15" t="b">
+      <c r="C14" s="14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="15" t="b">
+      <c r="C15" s="14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="15" t="b">
+      <c r="C16" s="14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="15" t="b">
+        <v>103</v>
+      </c>
+      <c r="C17" s="14" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -5132,15 +6334,15 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -5148,10 +6350,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -5159,10 +6361,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -5170,10 +6372,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -5181,10 +6383,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -5192,10 +6394,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -5203,7 +6405,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
         <v>42</v>
@@ -5214,7 +6416,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
@@ -5225,7 +6427,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s">
         <v>42</v>
@@ -5236,10 +6438,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -5247,10 +6449,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
@@ -5258,10 +6460,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -5269,10 +6471,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
@@ -5280,10 +6482,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -5291,10 +6493,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
@@ -5302,10 +6504,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -5313,10 +6515,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -5324,10 +6526,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -5335,10 +6537,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -5346,10 +6548,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -5357,10 +6559,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -5368,7 +6570,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
@@ -5379,7 +6581,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
@@ -5390,7 +6592,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
@@ -5401,7 +6603,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
@@ -5412,10 +6614,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
@@ -5423,7 +6625,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B46" t="s">
         <v>42</v>
@@ -5434,7 +6636,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
         <v>43</v>
@@ -5445,10 +6647,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -5456,10 +6658,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
@@ -5467,10 +6669,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
@@ -5480,20 +6682,20 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B52" t="s">
         <v>42</v>
@@ -5504,7 +6706,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
         <v>43</v>
@@ -5515,7 +6717,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" t="s">
         <v>42</v>
@@ -5526,10 +6728,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -5537,7 +6739,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>43</v>
@@ -5548,43 +6750,43 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C58" s="19" t="b">
+        <v>48</v>
+      </c>
+      <c r="C58" s="18" t="b">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C59" s="19" t="b">
+        <v>48</v>
+      </c>
+      <c r="C59" s="18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C60" s="19" t="b">
+        <v>48</v>
+      </c>
+      <c r="C60" s="18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B61" t="s">
         <v>30</v>
@@ -5595,7 +6797,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B62" t="s">
         <v>30</v>
@@ -5606,10 +6808,10 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
@@ -5617,40 +6819,40 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C66" s="19" t="b">
+      <c r="C66" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B67" t="s">
         <v>42</v>
@@ -5661,7 +6863,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B68" t="s">
         <v>42</v>
@@ -5672,7 +6874,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B69" t="s">
         <v>42</v>
@@ -5683,7 +6885,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B70" t="s">
         <v>43</v>
@@ -5694,34 +6896,34 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C71" s="15" t="b">
+        <v>48</v>
+      </c>
+      <c r="C71" s="14" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C72" s="15" t="b">
+        <v>48</v>
+      </c>
+      <c r="C72" s="14" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C73" s="15" t="b">
+        <v>48</v>
+      </c>
+      <c r="C73" s="14" t="b">
         <v>0</v>
       </c>
     </row>

--- a/app/config/tables/MADTRIAL_FU_PHONE/Forms/MADTRIAL_FU_PHONE/MADTRIAL_FU_PHONE.xlsx
+++ b/app/config/tables/MADTRIAL_FU_PHONE/Forms/MADTRIAL_FU_PHONE/MADTRIAL_FU_PHONE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEACCFFA-0711-4F22-9FA3-8F2F204744E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDC24DD-6A15-498E-9276-1AC9DB27717C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="398">
   <si>
     <t>setting_name</t>
   </si>
@@ -838,27 +838,15 @@
     <t>Tombali</t>
   </si>
   <si>
-    <t>Burbaque</t>
-  </si>
-  <si>
     <t>Bolama</t>
   </si>
   <si>
-    <t>Sao Domigos</t>
-  </si>
-  <si>
-    <t>MSF Bafata</t>
-  </si>
-  <si>
     <t>The date cannot be in the future:</t>
   </si>
   <si>
     <t>A data não pode estar no futuro:</t>
   </si>
   <si>
-    <t>adate.diffInDays(data('DATSEGUI'), data('DOD'))&lt;1 || adate.hasUncertainty(data('DOD'))</t>
-  </si>
-  <si>
     <t>data('IDADEMES')&lt;13 || data('DOB')!="D:NS,M:NS,Y:NS"</t>
   </si>
   <si>
@@ -940,15 +928,6 @@
     <t>data('CHAMADA21') != '1'</t>
   </si>
   <si>
-    <t>data('CHAMADA12') != null || data('CHAMADA22') != null || data('CHAMADA32') != null</t>
-  </si>
-  <si>
-    <t>(data('CHAMADA11') != null || data('CHAMADA21') != null || data('CHAMADA31') != null) &amp;&amp; data('CHAMADA13') == null &amp;&amp; data('CHAMADA23') == null &amp;&amp; data('CHAMADA33') == null</t>
-  </si>
-  <si>
-    <t>data('CHAMADA12') == null &amp;&amp; data('CHAMADA22') == null &amp;&amp; data('CHAMADA32') == null &amp;&amp; data('CHAMADA13') == null &amp;&amp; data('CHAMADA23') == null &amp;&amp; data('CHAMADA33') == null</t>
-  </si>
-  <si>
     <t>data('CHAMADA11') == '1' || data('CHAMADA21') == '1' || data('CHAMADA31') == '1' || data('CHAMADA12') == '1' || data('CHAMADA22') == '1' || data('CHAMADA32') == '1' ||data('CHAMADA13') == '1' || data('CHAMADA23') == '1' || data('CHAMADA33') == '1'</t>
   </si>
   <si>
@@ -970,9 +949,6 @@
     <t>NOMECRI</t>
   </si>
   <si>
-    <t>NOMERESP</t>
-  </si>
-  <si>
     <t>NUMEST</t>
   </si>
   <si>
@@ -982,24 +958,6 @@
     <t>do section FU</t>
   </si>
   <si>
-    <t>1st call - number: &lt;b&gt;{{data.TELEMOVEL1}}&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>1ª chamada - número: &lt;b&gt;{{data.TELEMOVEL1}}&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>2nd call - number: &lt;b&gt;{{data.TELEMOVEL2}}&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>2ª chamada - número: &lt;b&gt;{{data.TELEMOVEL2}}&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>3rd call - number: &lt;b&gt;{{data.TELEMOVEL3}}&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>3ª chamada - número: &lt;b&gt;{{data.TELEMOVEL3}}&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>1st try</t>
   </si>
   <si>
@@ -1111,12 +1069,6 @@
     <t>Sexo: &lt;b&gt;Feminino&lt;/b&gt;</t>
   </si>
   <si>
-    <t>Responsible: &lt;b&gt;{{data.NOMERESP}}&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>Responsável: &lt;b&gt;{{data.NOMERESP}}&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>Inclusão: &lt;b&gt;{{calculates.displayDATINC}}&lt;/b&gt;</t>
   </si>
   <si>
@@ -1142,6 +1094,156 @@
   </si>
   <si>
     <t>display.adate.helperText</t>
+  </si>
+  <si>
+    <t>SAB</t>
+  </si>
+  <si>
+    <t>Bubaque</t>
+  </si>
+  <si>
+    <t>Farim</t>
+  </si>
+  <si>
+    <t>Sao Domingos</t>
+  </si>
+  <si>
+    <t>Name of mother: &lt;b&gt;{{data.NOMEMAE}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Nome da mãe: &lt;b&gt;{{data.NOMEMAE}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>NOMEMAE</t>
+  </si>
+  <si>
+    <t>data('CHAMADA12') == null &amp;&amp; data('CHAMADA22') == null &amp;&amp; data('CHAMADA32') == null &amp;&amp; data('CHAMADA13') == null &amp;&amp; data('CHAMADA23') == null &amp;&amp; data('CHAMADA33') == null || (data('DATSEGUI3') == data('DATSEGUI1')) || (data('DATSEGUI2') == data('DATSEGUI1'))</t>
+  </si>
+  <si>
+    <t>(data('CHAMADA12') != null || data('CHAMADA22') != null || data('CHAMADA32') != null) &amp;&amp; data('DATSEGUI2') != null</t>
+  </si>
+  <si>
+    <t>((data('CHAMADA11') != null || data('CHAMADA21') != null || data('CHAMADA31') != null) &amp;&amp; data('CHAMADA13') == null &amp;&amp; data('CHAMADA23') == null &amp;&amp; data('CHAMADA33') == null &amp;&amp; data('DATSEGUI2') != data('DATSEGUI1')) ||  (data('DATSEGUI3') == data('DATSEGUI2') &amp;&amp; data('DATSEGUI3') != null)</t>
+  </si>
+  <si>
+    <t>(data('CHAMADA11') != null || data('CHAMADA21') != null || data('CHAMADA31') != null) &amp;&amp; (data('CHAMADA12') != null || data('CHAMADA22') != null || data('CHAMADA32') != null)  &amp;&amp; data('DATSEGUI2') != data('DATSEGUI3') &amp;&amp; data('DATSEGUI2') != null</t>
+  </si>
+  <si>
+    <t>(data('CHAMADA11') != null || data('CHAMADA21') != null || data('CHAMADA31') != null) &amp;&amp; data('CHAMADA13') == null &amp;&amp; data('CHAMADA23') == null &amp;&amp; data('CHAMADA33') == null &amp;&amp; data('DATSEGUI1') != null &amp;&amp; data('DATSEGUI3') == null</t>
+  </si>
+  <si>
+    <t>data('CHAMADA11') == null &amp;&amp; data('CHAMADA21') == null &amp;&amp; data('CHAMADA31') == null &amp;&amp; data('CHAMADA12') == null &amp;&amp; data('CHAMADA22') == null &amp;&amp; data('CHAMADA32') == null &amp;&amp; data('CHAMADA13') == null &amp;&amp; data('CHAMADA23') == null &amp;&amp; data('CHAMADA33') == null</t>
+  </si>
+  <si>
+    <t>data('DATSEGUI3')</t>
+  </si>
+  <si>
+    <t>data('DATSEGUI2')</t>
+  </si>
+  <si>
+    <t>data('DATSEGUI1')</t>
+  </si>
+  <si>
+    <t>datsegui</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('datsegui'), data('DOD'))&lt;1 || adate.hasUncertainty(data('DOD'))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('datsegui'), data('HOSPDATA1'))&lt;1 || adate.hasUncertainty(data('HOSPDATA1'))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('datsegui'), data('HOSPDATA2'))&lt;1 || adate.hasUncertainty(data('HOSPDATA2'))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('datsegui'), data('HOSPDATA3'))&lt;1 || adate.hasUncertainty(data('HOSPDATA3'))</t>
+  </si>
+  <si>
+    <t>1st call - number: &lt;b&gt;{{data.TELEMOVEL1}}&lt;/b&gt;
+Relation: &lt;b&gt;{{calculates.relation1}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>1ª chamada - número: &lt;b&gt;{{data.TELEMOVEL1}}&lt;/b&gt; &lt;br /&gt;
+Relação: &lt;b&gt;{{calculates.relationPU1}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>relation1</t>
+  </si>
+  <si>
+    <t>relationPU1</t>
+  </si>
+  <si>
+    <t>relation2</t>
+  </si>
+  <si>
+    <t>relationPU2</t>
+  </si>
+  <si>
+    <t>relation3</t>
+  </si>
+  <si>
+    <t>relationPU3</t>
+  </si>
+  <si>
+    <t>2nd call - number: &lt;b&gt;{{data.TELEMOVEL2}}&lt;/b&gt;
+Relation: &lt;b&gt;{{calculates.relation2}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>2ª chamada - número: &lt;b&gt;{{data.TELEMOVEL2}}&lt;/b&gt; &lt;br /&gt;
+Relação: &lt;b&gt;{{calculates.relationPU2}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>3ª chamada - número: &lt;b&gt;{{data.TELEMOVEL3}}&lt;/b&gt; &lt;br /&gt;
+Relação: &lt;b&gt;{{calculates.relationPU3}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>3rd call - number: &lt;b&gt;{{data.TELEMOVEL3}}&lt;/b&gt;
+Relation: &lt;b&gt;{{calculates.relation3}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>TELEINF1</t>
+  </si>
+  <si>
+    <t>TELEINF2</t>
+  </si>
+  <si>
+    <t>TELEINF3</t>
+  </si>
+  <si>
+    <t>freebase.relation(data('TELEINF1'),'EN')</t>
+  </si>
+  <si>
+    <t>freebase.relation(data('TELEINF1'),'PU')</t>
+  </si>
+  <si>
+    <t>freebase.relation(data('TELEINF2'),'EN')</t>
+  </si>
+  <si>
+    <t>freebase.relation(data('TELEINF2'),'PU')</t>
+  </si>
+  <si>
+    <t>freebase.relation(data('TELEINF3'),'EN')</t>
+  </si>
+  <si>
+    <t>freebase.relation(data('TELEINF3'),'PU')</t>
+  </si>
+  <si>
+    <t>data('TELEINF2') == '3'</t>
+  </si>
+  <si>
+    <t>2nd call - number: &lt;b&gt;Don't have&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ª chamada - número: &lt;b&gt;Não tem&lt;/b&gt; </t>
+  </si>
+  <si>
+    <t>data('TELEINF3') == '3'</t>
+  </si>
+  <si>
+    <t>3rd call - number: &lt;b&gt;Don't have&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3ª chamada - número: &lt;b&gt;Não tem&lt;/b&gt; </t>
   </si>
 </sst>
 </file>
@@ -1559,9 +1661,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12:G24"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1606,7 +1708,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>270519</v>
+        <v>60120</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1625,10 +1727,10 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="D5" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1672,11 +1774,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787AB6FC-E5B2-448F-8A60-6571052C1548}">
-  <dimension ref="A1:L229"/>
+  <dimension ref="A1:L274"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,7 +1790,7 @@
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.140625" customWidth="1"/>
     <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="69" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="82.7109375" bestFit="1" customWidth="1"/>
@@ -1729,18 +1831,18 @@
         <v>177</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>74</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1767,7 +1869,7 @@
         <v>106</v>
       </c>
       <c r="F5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G5" t="s">
         <v>161</v>
@@ -1781,7 +1883,7 @@
         <v>103</v>
       </c>
       <c r="F6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I6" t="s">
         <v>104</v>
@@ -1792,7 +1894,7 @@
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G7" t="s">
         <v>160</v>
@@ -1811,353 +1913,364 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" t="s">
-        <v>279</v>
-      </c>
-      <c r="G10" t="s">
-        <v>312</v>
-      </c>
-      <c r="H10" t="s">
-        <v>313</v>
-      </c>
-      <c r="J10" t="s">
-        <v>178</v>
-      </c>
-      <c r="K10" t="s">
-        <v>179</v>
+      <c r="A10" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" t="s">
-        <v>331</v>
-      </c>
-      <c r="E11" s="4"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="G12" t="s">
-        <v>328</v>
-      </c>
-      <c r="H12" t="s">
-        <v>327</v>
+        <v>103</v>
+      </c>
+      <c r="F12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I12" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" t="s">
+        <v>285</v>
+      </c>
+      <c r="G13" t="s">
+        <v>161</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" t="s">
-        <v>279</v>
-      </c>
-      <c r="I13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="4"/>
+      <c r="F14" t="s">
+        <v>284</v>
+      </c>
+      <c r="I14" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>284</v>
+      </c>
       <c r="G15" t="s">
-        <v>342</v>
+        <v>160</v>
       </c>
       <c r="H15" t="s">
-        <v>343</v>
+        <v>40</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C16" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" t="s">
-        <v>351</v>
-      </c>
-      <c r="H17" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" t="s">
-        <v>353</v>
-      </c>
-      <c r="H19" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C18" s="14" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" t="s">
+        <v>180</v>
+      </c>
+      <c r="I20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" t="s">
+        <v>278</v>
+      </c>
+      <c r="G21" t="s">
+        <v>161</v>
+      </c>
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" t="s">
-        <v>348</v>
-      </c>
-      <c r="H22" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" t="s">
-        <v>346</v>
-      </c>
-      <c r="H24" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="F22" t="s">
+        <v>279</v>
+      </c>
+      <c r="I22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
+        <v>279</v>
+      </c>
+      <c r="G23" t="s">
+        <v>160</v>
+      </c>
+      <c r="H23" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="G26" t="s">
-        <v>358</v>
-      </c>
-      <c r="H26" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" t="s">
-        <v>355</v>
-      </c>
-      <c r="H27" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>99</v>
-      </c>
-      <c r="G28" t="s">
-        <v>364</v>
-      </c>
-      <c r="H28" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="J28" t="s">
+        <v>178</v>
+      </c>
+      <c r="K28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
         <v>74</v>
       </c>
-      <c r="C30" t="s">
-        <v>292</v>
-      </c>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" t="s">
-        <v>286</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="C29" t="s">
+        <v>317</v>
+      </c>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="G30" t="s">
         <v>314</v>
       </c>
-      <c r="H32" t="s">
-        <v>315</v>
-      </c>
-      <c r="J32" t="s">
-        <v>178</v>
-      </c>
-      <c r="K32" t="s">
-        <v>179</v>
-      </c>
+      <c r="H30" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" t="s">
+        <v>275</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="D33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="G33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H33" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>74</v>
       </c>
-      <c r="C33" t="s">
-        <v>333</v>
-      </c>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" s="4"/>
-      <c r="G34" t="s">
-        <v>328</v>
-      </c>
-      <c r="H34" t="s">
-        <v>327</v>
+      <c r="C34" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" t="s">
-        <v>286</v>
-      </c>
-      <c r="I35">
-        <v>4</v>
+        <v>99</v>
+      </c>
+      <c r="G35" t="s">
+        <v>337</v>
+      </c>
+      <c r="H35" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" s="4"/>
+        <v>331</v>
+      </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="4"/>
       <c r="G37" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H37" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>74</v>
       </c>
-      <c r="C38" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>99</v>
-      </c>
-      <c r="G39" t="s">
-        <v>351</v>
-      </c>
-      <c r="H39" t="s">
-        <v>352</v>
+      <c r="C39" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>345</v>
+      <c r="D40" t="s">
+        <v>99</v>
+      </c>
+      <c r="G40" t="s">
+        <v>334</v>
+      </c>
+      <c r="H40" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>99</v>
-      </c>
-      <c r="G41" t="s">
-        <v>353</v>
-      </c>
-      <c r="H41" t="s">
-        <v>354</v>
+      <c r="B41" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>75</v>
+      <c r="D42" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" t="s">
+        <v>332</v>
+      </c>
+      <c r="H42" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" t="s">
-        <v>344</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>99</v>
       </c>
+      <c r="E44" s="4"/>
       <c r="G44" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H44" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>345</v>
+      <c r="D45" t="s">
+        <v>99</v>
+      </c>
+      <c r="G45" t="s">
+        <v>354</v>
+      </c>
+      <c r="H45" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
@@ -2165,1700 +2278,2076 @@
         <v>99</v>
       </c>
       <c r="G46" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H46" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>75</v>
+      <c r="D47" t="s">
+        <v>103</v>
+      </c>
+      <c r="F47" t="s">
+        <v>366</v>
+      </c>
+      <c r="I47" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>99</v>
-      </c>
-      <c r="E48" s="4"/>
-      <c r="G48" t="s">
-        <v>358</v>
-      </c>
-      <c r="H48" t="s">
-        <v>357</v>
-      </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" s="11"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>99</v>
-      </c>
-      <c r="G49" t="s">
-        <v>355</v>
-      </c>
-      <c r="H49" t="s">
-        <v>356</v>
-      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" t="s">
+        <v>288</v>
+      </c>
+      <c r="G49" s="11"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
-        <v>99</v>
-      </c>
-      <c r="G50" t="s">
-        <v>364</v>
-      </c>
-      <c r="H50" t="s">
-        <v>361</v>
+      <c r="B50" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>39</v>
+        <v>74</v>
+      </c>
+      <c r="C51" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+      <c r="D52" t="s">
+        <v>99</v>
+      </c>
+      <c r="G52" t="s">
+        <v>393</v>
+      </c>
+      <c r="H52" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" t="s">
+        <v>282</v>
+      </c>
+      <c r="I53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>43</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>282</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="J55" t="s">
+        <v>178</v>
+      </c>
+      <c r="K55" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>74</v>
       </c>
-      <c r="C52" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
-        <v>43</v>
-      </c>
-      <c r="E54" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54" t="s">
-        <v>287</v>
-      </c>
-      <c r="G54" t="s">
-        <v>316</v>
-      </c>
-      <c r="H54" t="s">
-        <v>317</v>
-      </c>
-      <c r="J54" t="s">
-        <v>178</v>
-      </c>
-      <c r="K54" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>74</v>
-      </c>
-      <c r="C55" t="s">
-        <v>332</v>
-      </c>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
-        <v>99</v>
+      <c r="C56" t="s">
+        <v>319</v>
       </c>
       <c r="E56" s="4"/>
-      <c r="G56" t="s">
-        <v>328</v>
-      </c>
-      <c r="H56" t="s">
-        <v>327</v>
-      </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="G57" t="s">
+        <v>314</v>
+      </c>
+      <c r="H57" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="4"/>
-      <c r="F57" t="s">
-        <v>287</v>
-      </c>
-      <c r="I57">
+      <c r="E58" s="4"/>
+      <c r="F58" t="s">
+        <v>282</v>
+      </c>
+      <c r="I58">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>75</v>
       </c>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D59" t="s">
-        <v>99</v>
-      </c>
       <c r="E59" s="4"/>
-      <c r="G59" t="s">
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="G60" t="s">
+        <v>328</v>
+      </c>
+      <c r="H60" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>99</v>
+      </c>
+      <c r="G62" t="s">
+        <v>337</v>
+      </c>
+      <c r="H62" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>99</v>
+      </c>
+      <c r="G64" t="s">
+        <v>339</v>
+      </c>
+      <c r="H64" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>99</v>
+      </c>
+      <c r="G67" t="s">
+        <v>334</v>
+      </c>
+      <c r="H67" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>99</v>
+      </c>
+      <c r="G69" t="s">
+        <v>332</v>
+      </c>
+      <c r="H69" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>99</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="G71" t="s">
         <v>342</v>
       </c>
-      <c r="H59" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>74</v>
-      </c>
-      <c r="C60" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
-        <v>99</v>
-      </c>
-      <c r="G61" t="s">
-        <v>351</v>
-      </c>
-      <c r="H61" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+      <c r="H71" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>99</v>
+      </c>
+      <c r="G72" t="s">
+        <v>354</v>
+      </c>
+      <c r="H72" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>99</v>
+      </c>
+      <c r="G73" t="s">
+        <v>348</v>
+      </c>
+      <c r="H73" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
-        <v>99</v>
-      </c>
-      <c r="G63" t="s">
-        <v>353</v>
-      </c>
-      <c r="H63" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>74</v>
-      </c>
-      <c r="C65" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
-        <v>99</v>
-      </c>
-      <c r="G66" t="s">
-        <v>348</v>
-      </c>
-      <c r="H66" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
-        <v>99</v>
-      </c>
-      <c r="G68" t="s">
-        <v>346</v>
-      </c>
-      <c r="H68" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D70" t="s">
-        <v>99</v>
-      </c>
-      <c r="E70" s="4"/>
-      <c r="G70" t="s">
-        <v>358</v>
-      </c>
-      <c r="H70" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D71" t="s">
-        <v>99</v>
-      </c>
-      <c r="G71" t="s">
-        <v>355</v>
-      </c>
-      <c r="H71" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D72" t="s">
-        <v>99</v>
-      </c>
-      <c r="G72" t="s">
-        <v>364</v>
-      </c>
-      <c r="H72" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>103</v>
+      </c>
+      <c r="F74" t="s">
+        <v>366</v>
+      </c>
+      <c r="I74" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="B77" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>74</v>
       </c>
-      <c r="C77" s="14" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D79" t="s">
-        <v>103</v>
-      </c>
-      <c r="F79" t="s">
-        <v>180</v>
-      </c>
-      <c r="I79" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>105</v>
-      </c>
-      <c r="E80" t="s">
-        <v>106</v>
-      </c>
-      <c r="F80" t="s">
-        <v>289</v>
+        <v>99</v>
       </c>
       <c r="G80" t="s">
-        <v>161</v>
+        <v>396</v>
       </c>
       <c r="H80" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
         <v>103</v>
       </c>
       <c r="F81" t="s">
-        <v>288</v>
-      </c>
-      <c r="I81" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D82" t="s">
-        <v>30</v>
-      </c>
-      <c r="F82" t="s">
-        <v>288</v>
-      </c>
-      <c r="G82" t="s">
-        <v>160</v>
-      </c>
-      <c r="H82" t="s">
-        <v>40</v>
-      </c>
-      <c r="L82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="I81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>43</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>283</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="J83" t="s">
+        <v>178</v>
+      </c>
+      <c r="K83" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="C84" t="s">
+        <v>318</v>
+      </c>
+      <c r="E84" s="4"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>43</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F85" t="s">
-        <v>280</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E85" s="4"/>
       <c r="G85" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H85" t="s">
         <v>313</v>
       </c>
-      <c r="J85" t="s">
-        <v>178</v>
-      </c>
-      <c r="K85" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>103</v>
+      </c>
+      <c r="E86" s="4"/>
+      <c r="F86" t="s">
+        <v>283</v>
+      </c>
+      <c r="I86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>75</v>
+      </c>
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>99</v>
+      </c>
+      <c r="E88" s="4"/>
+      <c r="G88" t="s">
+        <v>328</v>
+      </c>
+      <c r="H88" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>74</v>
       </c>
-      <c r="C86" t="s">
-        <v>326</v>
-      </c>
-      <c r="E86" s="4"/>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D87" t="s">
-        <v>99</v>
-      </c>
-      <c r="E87" s="4"/>
-      <c r="G87" t="s">
-        <v>328</v>
-      </c>
-      <c r="H87" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D88" t="s">
+      <c r="C89" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>99</v>
+      </c>
+      <c r="G90" t="s">
+        <v>337</v>
+      </c>
+      <c r="H90" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>99</v>
+      </c>
+      <c r="G92" t="s">
+        <v>339</v>
+      </c>
+      <c r="H92" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>74</v>
+      </c>
+      <c r="C94" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>99</v>
+      </c>
+      <c r="G95" t="s">
+        <v>334</v>
+      </c>
+      <c r="H95" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>99</v>
+      </c>
+      <c r="G97" t="s">
+        <v>332</v>
+      </c>
+      <c r="H97" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>99</v>
+      </c>
+      <c r="E99" s="4"/>
+      <c r="G99" t="s">
+        <v>342</v>
+      </c>
+      <c r="H99" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>99</v>
+      </c>
+      <c r="G100" t="s">
+        <v>354</v>
+      </c>
+      <c r="H100" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>99</v>
+      </c>
+      <c r="G101" t="s">
+        <v>348</v>
+      </c>
+      <c r="H101" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
         <v>103</v>
       </c>
-      <c r="E88" s="4"/>
-      <c r="F88" t="s">
-        <v>280</v>
-      </c>
-      <c r="I88">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+      <c r="F102" t="s">
+        <v>366</v>
+      </c>
+      <c r="I102" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
         <v>75</v>
       </c>
-      <c r="E89" s="4"/>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D90" t="s">
-        <v>99</v>
-      </c>
-      <c r="E90" s="4"/>
-      <c r="G90" t="s">
-        <v>342</v>
-      </c>
-      <c r="H90" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>74</v>
-      </c>
-      <c r="C91" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D92" t="s">
-        <v>99</v>
-      </c>
-      <c r="G92" t="s">
-        <v>351</v>
-      </c>
-      <c r="H92" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D94" t="s">
-        <v>99</v>
-      </c>
-      <c r="G94" t="s">
-        <v>353</v>
-      </c>
-      <c r="H94" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>74</v>
-      </c>
-      <c r="C96" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D97" t="s">
-        <v>99</v>
-      </c>
-      <c r="G97" t="s">
-        <v>348</v>
-      </c>
-      <c r="H97" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D99" t="s">
-        <v>99</v>
-      </c>
-      <c r="G99" t="s">
-        <v>346</v>
-      </c>
-      <c r="H99" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D101" t="s">
-        <v>99</v>
-      </c>
-      <c r="E101" s="4"/>
-      <c r="G101" t="s">
-        <v>358</v>
-      </c>
-      <c r="H101" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D102" t="s">
-        <v>99</v>
-      </c>
-      <c r="G102" t="s">
-        <v>355</v>
-      </c>
-      <c r="H102" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D103" t="s">
-        <v>99</v>
-      </c>
-      <c r="G103" t="s">
-        <v>364</v>
-      </c>
-      <c r="H103" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>39</v>
       </c>
-      <c r="G104" s="11"/>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="B108" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C105" t="s">
-        <v>294</v>
-      </c>
-      <c r="G105" s="11"/>
-    </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
+      <c r="C108" s="14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D107" t="s">
+    <row r="110" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
         <v>43</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E110" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F107" t="s">
-        <v>290</v>
-      </c>
-      <c r="G107" t="s">
-        <v>314</v>
-      </c>
-      <c r="H107" t="s">
-        <v>315</v>
-      </c>
-      <c r="J107" t="s">
+      <c r="F110" t="s">
+        <v>276</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="J110" t="s">
         <v>178</v>
       </c>
-      <c r="K107" t="s">
+      <c r="K110" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
         <v>74</v>
       </c>
-      <c r="C108" t="s">
-        <v>329</v>
-      </c>
-      <c r="E108" s="4"/>
-    </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D109" t="s">
-        <v>99</v>
-      </c>
-      <c r="E109" s="4"/>
-      <c r="G109" t="s">
-        <v>328</v>
-      </c>
-      <c r="H109" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D110" t="s">
-        <v>103</v>
-      </c>
-      <c r="E110" s="4"/>
-      <c r="F110" t="s">
-        <v>290</v>
-      </c>
-      <c r="I110">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>75</v>
+      <c r="C111" t="s">
+        <v>312</v>
       </c>
       <c r="E111" s="4"/>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
         <v>99</v>
       </c>
       <c r="E112" s="4"/>
       <c r="G112" t="s">
+        <v>314</v>
+      </c>
+      <c r="H112" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>103</v>
+      </c>
+      <c r="E113" s="4"/>
+      <c r="F113" t="s">
+        <v>276</v>
+      </c>
+      <c r="I113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>75</v>
+      </c>
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>99</v>
+      </c>
+      <c r="E115" s="4"/>
+      <c r="G115" t="s">
+        <v>328</v>
+      </c>
+      <c r="H115" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>74</v>
+      </c>
+      <c r="C116" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>99</v>
+      </c>
+      <c r="G117" t="s">
+        <v>337</v>
+      </c>
+      <c r="H117" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>99</v>
+      </c>
+      <c r="G119" t="s">
+        <v>339</v>
+      </c>
+      <c r="H119" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>74</v>
+      </c>
+      <c r="C121" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>99</v>
+      </c>
+      <c r="G122" t="s">
+        <v>334</v>
+      </c>
+      <c r="H122" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>99</v>
+      </c>
+      <c r="G124" t="s">
+        <v>332</v>
+      </c>
+      <c r="H124" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>99</v>
+      </c>
+      <c r="E126" s="4"/>
+      <c r="G126" t="s">
         <v>342</v>
       </c>
-      <c r="H112" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>74</v>
-      </c>
-      <c r="C113" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D114" t="s">
-        <v>99</v>
-      </c>
-      <c r="G114" t="s">
-        <v>351</v>
-      </c>
-      <c r="H114" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
+      <c r="H126" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>99</v>
+      </c>
+      <c r="G127" t="s">
+        <v>354</v>
+      </c>
+      <c r="H127" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>99</v>
+      </c>
+      <c r="G128" t="s">
+        <v>348</v>
+      </c>
+      <c r="H128" t="s">
         <v>345</v>
-      </c>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D116" t="s">
-        <v>99</v>
-      </c>
-      <c r="G116" t="s">
-        <v>353</v>
-      </c>
-      <c r="H116" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>74</v>
-      </c>
-      <c r="C118" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D119" t="s">
-        <v>99</v>
-      </c>
-      <c r="G119" t="s">
-        <v>348</v>
-      </c>
-      <c r="H119" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D121" t="s">
-        <v>99</v>
-      </c>
-      <c r="G121" t="s">
-        <v>346</v>
-      </c>
-      <c r="H121" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D123" t="s">
-        <v>99</v>
-      </c>
-      <c r="E123" s="4"/>
-      <c r="G123" t="s">
-        <v>358</v>
-      </c>
-      <c r="H123" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D124" t="s">
-        <v>99</v>
-      </c>
-      <c r="G124" t="s">
-        <v>355</v>
-      </c>
-      <c r="H124" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D125" t="s">
-        <v>99</v>
-      </c>
-      <c r="G125" t="s">
-        <v>364</v>
-      </c>
-      <c r="H125" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
-        <v>74</v>
-      </c>
-      <c r="C127" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
-        <v>43</v>
-      </c>
-      <c r="E129" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="F129" t="s">
-        <v>291</v>
-      </c>
-      <c r="G129" t="s">
-        <v>316</v>
-      </c>
-      <c r="H129" t="s">
-        <v>317</v>
-      </c>
-      <c r="J129" t="s">
-        <v>178</v>
-      </c>
-      <c r="K129" t="s">
-        <v>179</v>
+        <v>366</v>
+      </c>
+      <c r="I129" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
+        <v>39</v>
+      </c>
+      <c r="G130" s="11"/>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
         <v>74</v>
       </c>
-      <c r="C130" t="s">
-        <v>330</v>
-      </c>
-      <c r="E130" s="4"/>
-    </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D131" t="s">
-        <v>99</v>
-      </c>
-      <c r="E131" s="4"/>
-      <c r="G131" t="s">
-        <v>328</v>
-      </c>
-      <c r="H131" t="s">
-        <v>327</v>
-      </c>
+      <c r="C131" t="s">
+        <v>290</v>
+      </c>
+      <c r="G131" s="11"/>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D132" t="s">
-        <v>103</v>
-      </c>
-      <c r="E132" s="4"/>
-      <c r="F132" t="s">
-        <v>291</v>
-      </c>
-      <c r="I132">
-        <v>4</v>
+      <c r="B132" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>75</v>
-      </c>
-      <c r="E133" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="C133" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D134" t="s">
         <v>99</v>
       </c>
-      <c r="E134" s="4"/>
       <c r="G134" t="s">
+        <v>393</v>
+      </c>
+      <c r="H134" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>103</v>
+      </c>
+      <c r="F135" t="s">
+        <v>286</v>
+      </c>
+      <c r="I135">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>43</v>
+      </c>
+      <c r="E137" t="s">
+        <v>44</v>
+      </c>
+      <c r="F137" t="s">
+        <v>286</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="J137" t="s">
+        <v>178</v>
+      </c>
+      <c r="K137" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>74</v>
+      </c>
+      <c r="C138" t="s">
+        <v>315</v>
+      </c>
+      <c r="E138" s="4"/>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>99</v>
+      </c>
+      <c r="E139" s="4"/>
+      <c r="G139" t="s">
+        <v>314</v>
+      </c>
+      <c r="H139" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>103</v>
+      </c>
+      <c r="E140" s="4"/>
+      <c r="F140" t="s">
+        <v>286</v>
+      </c>
+      <c r="I140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>75</v>
+      </c>
+      <c r="E141" s="4"/>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>99</v>
+      </c>
+      <c r="E142" s="4"/>
+      <c r="G142" t="s">
+        <v>328</v>
+      </c>
+      <c r="H142" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>74</v>
+      </c>
+      <c r="C143" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>99</v>
+      </c>
+      <c r="G144" t="s">
+        <v>337</v>
+      </c>
+      <c r="H144" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>99</v>
+      </c>
+      <c r="G146" t="s">
+        <v>339</v>
+      </c>
+      <c r="H146" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>74</v>
+      </c>
+      <c r="C148" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>99</v>
+      </c>
+      <c r="G149" t="s">
+        <v>334</v>
+      </c>
+      <c r="H149" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>99</v>
+      </c>
+      <c r="G151" t="s">
+        <v>332</v>
+      </c>
+      <c r="H151" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>99</v>
+      </c>
+      <c r="E153" s="4"/>
+      <c r="G153" t="s">
         <v>342</v>
       </c>
-      <c r="H134" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>74</v>
-      </c>
-      <c r="C135" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D136" t="s">
-        <v>99</v>
-      </c>
-      <c r="G136" t="s">
-        <v>351</v>
-      </c>
-      <c r="H136" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
+      <c r="H153" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>99</v>
+      </c>
+      <c r="G154" t="s">
+        <v>354</v>
+      </c>
+      <c r="H154" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>99</v>
+      </c>
+      <c r="G155" t="s">
+        <v>348</v>
+      </c>
+      <c r="H155" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D138" t="s">
-        <v>99</v>
-      </c>
-      <c r="G138" t="s">
-        <v>353</v>
-      </c>
-      <c r="H138" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
-        <v>74</v>
-      </c>
-      <c r="C140" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D141" t="s">
-        <v>99</v>
-      </c>
-      <c r="G141" t="s">
-        <v>348</v>
-      </c>
-      <c r="H141" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D143" t="s">
-        <v>99</v>
-      </c>
-      <c r="G143" t="s">
-        <v>346</v>
-      </c>
-      <c r="H143" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D145" t="s">
-        <v>99</v>
-      </c>
-      <c r="E145" s="4"/>
-      <c r="G145" t="s">
-        <v>358</v>
-      </c>
-      <c r="H145" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D146" t="s">
-        <v>99</v>
-      </c>
-      <c r="G146" t="s">
-        <v>355</v>
-      </c>
-      <c r="H146" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D147" t="s">
-        <v>99</v>
-      </c>
-      <c r="G147" t="s">
-        <v>364</v>
-      </c>
-      <c r="H147" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="B152" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C152" s="14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D154" t="s">
-        <v>103</v>
-      </c>
-      <c r="F154" t="s">
-        <v>180</v>
-      </c>
-      <c r="I154" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D155" t="s">
-        <v>105</v>
-      </c>
-      <c r="E155" t="s">
-        <v>106</v>
-      </c>
-      <c r="F155" t="s">
-        <v>282</v>
-      </c>
-      <c r="G155" t="s">
-        <v>161</v>
-      </c>
-      <c r="H155" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D156" t="s">
         <v>103</v>
       </c>
       <c r="F156" t="s">
-        <v>283</v>
+        <v>366</v>
       </c>
       <c r="I156" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D157" t="s">
-        <v>30</v>
-      </c>
-      <c r="F157" t="s">
-        <v>283</v>
-      </c>
-      <c r="G157" t="s">
-        <v>160</v>
-      </c>
-      <c r="H157" t="s">
-        <v>40</v>
-      </c>
-      <c r="L157" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
+        <v>74</v>
+      </c>
+      <c r="C159" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D160" t="s">
-        <v>43</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F160" t="s">
-        <v>277</v>
-      </c>
-      <c r="G160" t="s">
-        <v>312</v>
-      </c>
-      <c r="H160" t="s">
-        <v>313</v>
-      </c>
-      <c r="J160" t="s">
-        <v>178</v>
-      </c>
-      <c r="K160" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>74</v>
       </c>
       <c r="C161" t="s">
-        <v>334</v>
-      </c>
-      <c r="E161" s="4"/>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D162" t="s">
         <v>99</v>
       </c>
-      <c r="E162" s="4"/>
       <c r="G162" t="s">
-        <v>328</v>
+        <v>396</v>
       </c>
       <c r="H162" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D163" t="s">
         <v>103</v>
       </c>
-      <c r="E163" s="4"/>
       <c r="F163" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="I163">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>75</v>
-      </c>
-      <c r="E164" s="4"/>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="165" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="D165" t="s">
-        <v>99</v>
-      </c>
-      <c r="E165" s="4"/>
-      <c r="G165" t="s">
-        <v>342</v>
-      </c>
-      <c r="H165" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="E165" t="s">
+        <v>44</v>
+      </c>
+      <c r="F165" t="s">
+        <v>287</v>
+      </c>
+      <c r="G165" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H165" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="J165" t="s">
+        <v>178</v>
+      </c>
+      <c r="K165" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>74</v>
       </c>
       <c r="C166" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+      <c r="E166" s="4"/>
+    </row>
+    <row r="167" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D167" t="s">
         <v>99</v>
       </c>
+      <c r="E167" s="4"/>
       <c r="G167" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="H167" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D169" t="s">
-        <v>99</v>
-      </c>
-      <c r="G169" t="s">
-        <v>353</v>
-      </c>
-      <c r="H169" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B170" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>103</v>
+      </c>
+      <c r="E168" s="4"/>
+      <c r="F168" t="s">
+        <v>287</v>
+      </c>
+      <c r="I168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E169" s="4"/>
+    </row>
+    <row r="170" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>99</v>
+      </c>
+      <c r="E170" s="4"/>
+      <c r="G170" t="s">
+        <v>328</v>
+      </c>
+      <c r="H170" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="171" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>74</v>
       </c>
       <c r="C171" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="172" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D172" t="s">
         <v>99</v>
       </c>
       <c r="G172" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H172" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="173" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="174" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D174" t="s">
         <v>99</v>
       </c>
       <c r="G174" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="H174" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="175" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D176" t="s">
-        <v>99</v>
-      </c>
-      <c r="E176" s="4"/>
-      <c r="G176" t="s">
-        <v>358</v>
-      </c>
-      <c r="H176" t="s">
+    <row r="176" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>74</v>
+      </c>
+      <c r="C176" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>99</v>
+      </c>
+      <c r="G177" t="s">
+        <v>334</v>
+      </c>
+      <c r="H177" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
+        <v>99</v>
+      </c>
+      <c r="G179" t="s">
+        <v>332</v>
+      </c>
+      <c r="H179" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D181" t="s">
+        <v>99</v>
+      </c>
+      <c r="E181" s="4"/>
+      <c r="G181" t="s">
+        <v>342</v>
+      </c>
+      <c r="H181" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>99</v>
+      </c>
+      <c r="G182" t="s">
+        <v>354</v>
+      </c>
+      <c r="H182" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
+        <v>99</v>
+      </c>
+      <c r="G183" t="s">
+        <v>348</v>
+      </c>
+      <c r="H183" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
+        <v>103</v>
+      </c>
+      <c r="F184" t="s">
+        <v>366</v>
+      </c>
+      <c r="I184" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="B190" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C190" s="14" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D177" t="s">
-        <v>99</v>
-      </c>
-      <c r="G177" t="s">
-        <v>355</v>
-      </c>
-      <c r="H177" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D178" t="s">
-        <v>99</v>
-      </c>
-      <c r="G178" t="s">
-        <v>364</v>
-      </c>
-      <c r="H178" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B179" t="s">
-        <v>39</v>
-      </c>
-      <c r="G179" s="11"/>
-    </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B180" t="s">
-        <v>74</v>
-      </c>
-      <c r="C180" t="s">
-        <v>296</v>
-      </c>
-      <c r="G180" s="11"/>
-    </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B181" t="s">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D182" t="s">
+    <row r="192" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D192" t="s">
         <v>43</v>
       </c>
-      <c r="E182" t="s">
+      <c r="E192" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F182" t="s">
-        <v>278</v>
-      </c>
-      <c r="G182" t="s">
-        <v>314</v>
-      </c>
-      <c r="H182" t="s">
-        <v>315</v>
-      </c>
-      <c r="J182" t="s">
+      <c r="F192" t="s">
+        <v>273</v>
+      </c>
+      <c r="G192" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H192" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="J192" t="s">
         <v>178</v>
       </c>
-      <c r="K182" t="s">
+      <c r="K192" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B183" t="s">
-        <v>74</v>
-      </c>
-      <c r="C183" t="s">
-        <v>335</v>
-      </c>
-      <c r="E183" s="4"/>
-    </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D184" t="s">
-        <v>99</v>
-      </c>
-      <c r="E184" s="4"/>
-      <c r="G184" t="s">
-        <v>328</v>
-      </c>
-      <c r="H184" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D185" t="s">
-        <v>103</v>
-      </c>
-      <c r="E185" s="4"/>
-      <c r="F185" t="s">
-        <v>278</v>
-      </c>
-      <c r="I185">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
-        <v>75</v>
-      </c>
-      <c r="E186" s="4"/>
-    </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D187" t="s">
-        <v>99</v>
-      </c>
-      <c r="E187" s="4"/>
-      <c r="G187" t="s">
-        <v>342</v>
-      </c>
-      <c r="H187" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="188" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B188" t="s">
-        <v>74</v>
-      </c>
-      <c r="C188" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="189" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D189" t="s">
-        <v>99</v>
-      </c>
-      <c r="G189" t="s">
-        <v>351</v>
-      </c>
-      <c r="H189" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B190" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D191" t="s">
-        <v>99</v>
-      </c>
-      <c r="G191" t="s">
-        <v>353</v>
-      </c>
-      <c r="H191" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B192" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>74</v>
       </c>
       <c r="C193" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="194" spans="2:11" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="E193" s="4"/>
+    </row>
+    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D194" t="s">
         <v>99</v>
       </c>
+      <c r="E194" s="4"/>
       <c r="G194" t="s">
+        <v>314</v>
+      </c>
+      <c r="H194" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D195" t="s">
+        <v>103</v>
+      </c>
+      <c r="E195" s="4"/>
+      <c r="F195" t="s">
+        <v>273</v>
+      </c>
+      <c r="I195">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>75</v>
+      </c>
+      <c r="E196" s="4"/>
+    </row>
+    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D197" t="s">
+        <v>99</v>
+      </c>
+      <c r="E197" s="4"/>
+      <c r="G197" t="s">
+        <v>328</v>
+      </c>
+      <c r="H197" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>74</v>
+      </c>
+      <c r="C198" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D199" t="s">
+        <v>99</v>
+      </c>
+      <c r="G199" t="s">
+        <v>337</v>
+      </c>
+      <c r="H199" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D201" t="s">
+        <v>99</v>
+      </c>
+      <c r="G201" t="s">
+        <v>339</v>
+      </c>
+      <c r="H201" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>74</v>
+      </c>
+      <c r="C203" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D204" t="s">
+        <v>99</v>
+      </c>
+      <c r="G204" t="s">
+        <v>334</v>
+      </c>
+      <c r="H204" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D206" t="s">
+        <v>99</v>
+      </c>
+      <c r="G206" t="s">
+        <v>332</v>
+      </c>
+      <c r="H206" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D208" t="s">
+        <v>99</v>
+      </c>
+      <c r="E208" s="4"/>
+      <c r="G208" t="s">
+        <v>342</v>
+      </c>
+      <c r="H208" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="209" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D209" t="s">
+        <v>99</v>
+      </c>
+      <c r="G209" t="s">
+        <v>354</v>
+      </c>
+      <c r="H209" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="210" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D210" t="s">
+        <v>99</v>
+      </c>
+      <c r="G210" t="s">
         <v>348</v>
       </c>
-      <c r="H194" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="195" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B195" t="s">
+      <c r="H210" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="196" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D196" t="s">
-        <v>99</v>
-      </c>
-      <c r="G196" t="s">
-        <v>346</v>
-      </c>
-      <c r="H196" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="197" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B197" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="198" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D198" t="s">
-        <v>99</v>
-      </c>
-      <c r="E198" s="4"/>
-      <c r="G198" t="s">
-        <v>358</v>
-      </c>
-      <c r="H198" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D199" t="s">
-        <v>99</v>
-      </c>
-      <c r="G199" t="s">
-        <v>355</v>
-      </c>
-      <c r="H199" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D200" t="s">
-        <v>99</v>
-      </c>
-      <c r="G200" t="s">
-        <v>364</v>
-      </c>
-      <c r="H200" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="201" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B201" t="s">
+    <row r="211" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D211" t="s">
+        <v>103</v>
+      </c>
+      <c r="F211" t="s">
+        <v>366</v>
+      </c>
+      <c r="I211" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="212" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="202" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B202" t="s">
+      <c r="G212" s="11"/>
+    </row>
+    <row r="213" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
         <v>74</v>
       </c>
-      <c r="C202" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="203" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B203" t="s">
+      <c r="C213" t="s">
+        <v>292</v>
+      </c>
+      <c r="G213" s="11"/>
+    </row>
+    <row r="214" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="204" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D204" t="s">
-        <v>43</v>
-      </c>
-      <c r="E204" t="s">
-        <v>44</v>
-      </c>
-      <c r="F204" t="s">
-        <v>281</v>
-      </c>
-      <c r="G204" t="s">
-        <v>316</v>
-      </c>
-      <c r="H204" t="s">
-        <v>317</v>
-      </c>
-      <c r="J204" t="s">
-        <v>178</v>
-      </c>
-      <c r="K204" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="205" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B205" t="s">
-        <v>74</v>
-      </c>
-      <c r="C205" t="s">
-        <v>336</v>
-      </c>
-      <c r="E205" s="4"/>
-    </row>
-    <row r="206" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D206" t="s">
-        <v>99</v>
-      </c>
-      <c r="E206" s="4"/>
-      <c r="G206" t="s">
-        <v>328</v>
-      </c>
-      <c r="H206" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="207" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D207" t="s">
-        <v>103</v>
-      </c>
-      <c r="E207" s="4"/>
-      <c r="F207" t="s">
-        <v>281</v>
-      </c>
-      <c r="I207">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="208" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B208" t="s">
-        <v>75</v>
-      </c>
-      <c r="E208" s="4"/>
-    </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D209" t="s">
-        <v>99</v>
-      </c>
-      <c r="E209" s="4"/>
-      <c r="G209" t="s">
-        <v>342</v>
-      </c>
-      <c r="H209" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B210" t="s">
-        <v>74</v>
-      </c>
-      <c r="C210" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D211" t="s">
-        <v>99</v>
-      </c>
-      <c r="G211" t="s">
-        <v>351</v>
-      </c>
-      <c r="H211" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B212" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D213" t="s">
-        <v>99</v>
-      </c>
-      <c r="G213" t="s">
-        <v>353</v>
-      </c>
-      <c r="H213" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B214" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>74</v>
       </c>
       <c r="C215" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="216" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D216" t="s">
         <v>99</v>
       </c>
       <c r="G216" t="s">
+        <v>393</v>
+      </c>
+      <c r="H216" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="217" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D217" t="s">
+        <v>103</v>
+      </c>
+      <c r="F217" t="s">
+        <v>274</v>
+      </c>
+      <c r="I217">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="219" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D219" t="s">
+        <v>43</v>
+      </c>
+      <c r="E219" t="s">
+        <v>44</v>
+      </c>
+      <c r="F219" t="s">
+        <v>274</v>
+      </c>
+      <c r="G219" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="H219" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="J219" t="s">
+        <v>178</v>
+      </c>
+      <c r="K219" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="220" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
+        <v>74</v>
+      </c>
+      <c r="C220" t="s">
+        <v>321</v>
+      </c>
+      <c r="E220" s="4"/>
+    </row>
+    <row r="221" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D221" t="s">
+        <v>99</v>
+      </c>
+      <c r="E221" s="4"/>
+      <c r="G221" t="s">
+        <v>314</v>
+      </c>
+      <c r="H221" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="222" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D222" t="s">
+        <v>103</v>
+      </c>
+      <c r="E222" s="4"/>
+      <c r="F222" t="s">
+        <v>274</v>
+      </c>
+      <c r="I222">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>75</v>
+      </c>
+      <c r="E223" s="4"/>
+    </row>
+    <row r="224" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D224" t="s">
+        <v>99</v>
+      </c>
+      <c r="E224" s="4"/>
+      <c r="G224" t="s">
+        <v>328</v>
+      </c>
+      <c r="H224" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>74</v>
+      </c>
+      <c r="C225" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D226" t="s">
+        <v>99</v>
+      </c>
+      <c r="G226" t="s">
+        <v>337</v>
+      </c>
+      <c r="H226" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D228" t="s">
+        <v>99</v>
+      </c>
+      <c r="G228" t="s">
+        <v>339</v>
+      </c>
+      <c r="H228" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>74</v>
+      </c>
+      <c r="C230" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D231" t="s">
+        <v>99</v>
+      </c>
+      <c r="G231" t="s">
+        <v>334</v>
+      </c>
+      <c r="H231" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D233" t="s">
+        <v>99</v>
+      </c>
+      <c r="G233" t="s">
+        <v>332</v>
+      </c>
+      <c r="H233" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D235" t="s">
+        <v>99</v>
+      </c>
+      <c r="E235" s="4"/>
+      <c r="G235" t="s">
+        <v>342</v>
+      </c>
+      <c r="H235" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D236" t="s">
+        <v>99</v>
+      </c>
+      <c r="G236" t="s">
+        <v>354</v>
+      </c>
+      <c r="H236" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D237" t="s">
+        <v>99</v>
+      </c>
+      <c r="G237" t="s">
         <v>348</v>
       </c>
-      <c r="H216" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B217" t="s">
+      <c r="H237" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D218" t="s">
-        <v>99</v>
-      </c>
-      <c r="G218" t="s">
-        <v>346</v>
-      </c>
-      <c r="H218" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B219" t="s">
+    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D238" t="s">
+        <v>103</v>
+      </c>
+      <c r="F238" t="s">
+        <v>366</v>
+      </c>
+      <c r="I238" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D220" t="s">
-        <v>99</v>
-      </c>
-      <c r="E220" s="4"/>
-      <c r="G220" t="s">
-        <v>358</v>
-      </c>
-      <c r="H220" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D221" t="s">
-        <v>99</v>
-      </c>
-      <c r="G221" t="s">
+    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="241" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>74</v>
+      </c>
+      <c r="C241" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="242" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="243" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>74</v>
+      </c>
+      <c r="C243" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="244" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D244" t="s">
+        <v>99</v>
+      </c>
+      <c r="G244" t="s">
+        <v>396</v>
+      </c>
+      <c r="H244" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="245" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D245" t="s">
+        <v>103</v>
+      </c>
+      <c r="F245" t="s">
+        <v>277</v>
+      </c>
+      <c r="I245">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="247" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D247" t="s">
+        <v>43</v>
+      </c>
+      <c r="E247" t="s">
+        <v>44</v>
+      </c>
+      <c r="F247" t="s">
+        <v>277</v>
+      </c>
+      <c r="G247" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H247" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="J247" t="s">
+        <v>178</v>
+      </c>
+      <c r="K247" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="248" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
+        <v>74</v>
+      </c>
+      <c r="C248" t="s">
+        <v>322</v>
+      </c>
+      <c r="E248" s="4"/>
+    </row>
+    <row r="249" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D249" t="s">
+        <v>99</v>
+      </c>
+      <c r="E249" s="4"/>
+      <c r="G249" t="s">
+        <v>314</v>
+      </c>
+      <c r="H249" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="250" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D250" t="s">
+        <v>103</v>
+      </c>
+      <c r="E250" s="4"/>
+      <c r="F250" t="s">
+        <v>277</v>
+      </c>
+      <c r="I250">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
+        <v>75</v>
+      </c>
+      <c r="E251" s="4"/>
+    </row>
+    <row r="252" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D252" t="s">
+        <v>99</v>
+      </c>
+      <c r="E252" s="4"/>
+      <c r="G252" t="s">
+        <v>328</v>
+      </c>
+      <c r="H252" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="253" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>74</v>
+      </c>
+      <c r="C253" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="254" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D254" t="s">
+        <v>99</v>
+      </c>
+      <c r="G254" t="s">
+        <v>337</v>
+      </c>
+      <c r="H254" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="255" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="256" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D256" t="s">
+        <v>99</v>
+      </c>
+      <c r="G256" t="s">
+        <v>339</v>
+      </c>
+      <c r="H256" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="257" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="258" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
+        <v>74</v>
+      </c>
+      <c r="C258" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="259" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D259" t="s">
+        <v>99</v>
+      </c>
+      <c r="G259" t="s">
+        <v>334</v>
+      </c>
+      <c r="H259" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="260" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="261" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D261" t="s">
+        <v>99</v>
+      </c>
+      <c r="G261" t="s">
+        <v>332</v>
+      </c>
+      <c r="H261" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="262" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B262" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="263" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D263" t="s">
+        <v>99</v>
+      </c>
+      <c r="E263" s="4"/>
+      <c r="G263" t="s">
+        <v>342</v>
+      </c>
+      <c r="H263" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="264" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D264" t="s">
+        <v>99</v>
+      </c>
+      <c r="G264" t="s">
+        <v>354</v>
+      </c>
+      <c r="H264" t="s">
         <v>355</v>
       </c>
-      <c r="H221" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D222" t="s">
-        <v>99</v>
-      </c>
-      <c r="G222" t="s">
-        <v>364</v>
-      </c>
-      <c r="H222" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B223" t="s">
+    </row>
+    <row r="265" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D265" t="s">
+        <v>99</v>
+      </c>
+      <c r="G265" t="s">
+        <v>348</v>
+      </c>
+      <c r="H265" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="266" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D266" t="s">
+        <v>103</v>
+      </c>
+      <c r="F266" t="s">
+        <v>366</v>
+      </c>
+      <c r="I266" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="267" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="268" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B224" t="s">
+    <row r="269" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B225" t="s">
+    <row r="270" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B226" t="s">
+    <row r="271" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B227" t="s">
+    <row r="272" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
         <v>74</v>
       </c>
-      <c r="C227" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B228" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B229" t="s">
+      <c r="C272" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3872,9 +4361,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="K57" sqref="K57:L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4014,13 +4503,13 @@
         <v>183</v>
       </c>
       <c r="J8" t="s">
-        <v>270</v>
+        <v>367</v>
       </c>
       <c r="K8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -4094,13 +4583,13 @@
         <v>123</v>
       </c>
       <c r="J15" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K15" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L15" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -4283,6 +4772,15 @@
       <c r="H36" s="4" t="s">
         <v>186</v>
       </c>
+      <c r="J36" t="s">
+        <v>368</v>
+      </c>
+      <c r="K36" t="s">
+        <v>265</v>
+      </c>
+      <c r="L36" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
@@ -4497,6 +4995,15 @@
       <c r="H57" t="s">
         <v>226</v>
       </c>
+      <c r="J57" t="s">
+        <v>369</v>
+      </c>
+      <c r="K57" t="s">
+        <v>265</v>
+      </c>
+      <c r="L57" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
@@ -4585,19 +5092,19 @@
       </c>
       <c r="J64" s="13"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>39</v>
       </c>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>38</v>
       </c>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>42</v>
       </c>
@@ -4611,7 +5118,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>48</v>
       </c>
@@ -4625,7 +5132,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>59</v>
       </c>
@@ -4637,18 +5144,18 @@
       </c>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>39</v>
       </c>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>74</v>
       </c>
@@ -4656,12 +5163,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>43</v>
       </c>
@@ -4678,17 +5185,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>88</v>
       </c>
@@ -4696,13 +5203,13 @@
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>38</v>
       </c>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>72</v>
       </c>
@@ -4715,8 +5222,11 @@
       <c r="H79" s="4" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J79" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
         <v>99</v>
       </c>
@@ -5040,11 +5550,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5111,7 +5621,7 @@
         <v>252</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5309,13 +5819,13 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="C18" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="D18" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5551,14 +6061,14 @@
         <v>147</v>
       </c>
       <c r="B34" t="str">
-        <f>"1"</f>
-        <v>1</v>
+        <f>"3"</f>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>257</v>
+        <v>350</v>
       </c>
       <c r="D34" t="s">
-        <v>257</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -5566,14 +6076,14 @@
         <v>147</v>
       </c>
       <c r="B35" t="str">
-        <f>"2"</f>
-        <v>2</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -5581,14 +6091,14 @@
         <v>147</v>
       </c>
       <c r="B36" t="str">
-        <f>"5"</f>
-        <v>5</v>
+        <f>"4"</f>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>259</v>
+        <v>352</v>
       </c>
       <c r="D36" t="s">
-        <v>259</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -5596,14 +6106,14 @@
         <v>147</v>
       </c>
       <c r="B37" t="str">
-        <f>"7"</f>
-        <v>7</v>
+        <f>"2"</f>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D37" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -5611,14 +6121,14 @@
         <v>147</v>
       </c>
       <c r="B38" t="str">
-        <f>"8"</f>
-        <v>8</v>
+        <f>"7"</f>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -5626,14 +6136,14 @@
         <v>147</v>
       </c>
       <c r="B39" t="str">
-        <f>"11"</f>
-        <v>11</v>
+        <f>"15"</f>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="D39" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -5641,14 +6151,14 @@
         <v>147</v>
       </c>
       <c r="B40" t="str">
-        <f>"12"</f>
-        <v>12</v>
+        <f>"8"</f>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D40" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -5656,14 +6166,14 @@
         <v>147</v>
       </c>
       <c r="B41" t="str">
-        <f>"13"</f>
-        <v>13</v>
+        <f>"5"</f>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D41" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -5671,14 +6181,14 @@
         <v>147</v>
       </c>
       <c r="B42" t="str">
-        <f>"14"</f>
-        <v>14</v>
+        <f>"11"</f>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D42" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -5686,14 +6196,14 @@
         <v>147</v>
       </c>
       <c r="B43" t="str">
-        <f>"15"</f>
-        <v>15</v>
+        <f>"12"</f>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D43" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -5701,18 +6211,30 @@
         <v>147</v>
       </c>
       <c r="B44" t="str">
-        <f>"16"</f>
-        <v>16</v>
+        <f>"13"</f>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="D44" t="s">
-        <v>267</v>
+        <v>351</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
+      <c r="A45" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" t="str">
+        <f>"14"</f>
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>264</v>
+      </c>
+      <c r="D45" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
@@ -5737,10 +6259,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="8"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="D54" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" s="8"/>
@@ -5834,7 +6356,6 @@
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="8"/>
@@ -5861,10 +6382,10 @@
       <c r="C92" s="8"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="8"/>
       <c r="C93" s="8"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="8"/>
       <c r="C94" s="8"/>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
@@ -5937,6 +6458,7 @@
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="8"/>
@@ -5956,8 +6478,8 @@
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" s="8"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="8"/>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="8"/>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="8"/>
@@ -6009,6 +6531,9 @@
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" s="8"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -6019,11 +6544,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6040,20 +6565,68 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>360</v>
+    <row r="2" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>373</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>359</v>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>374</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>363</v>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -6115,11 +6688,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F63" sqref="F63"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6145,7 +6718,7 @@
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>105</v>
@@ -6154,12 +6727,12 @@
         <v>0</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>105</v>
@@ -6170,7 +6743,7 @@
     </row>
     <row r="4" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>105</v>
@@ -6181,7 +6754,7 @@
     </row>
     <row r="5" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>43</v>
@@ -6192,7 +6765,7 @@
     </row>
     <row r="6" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>43</v>
@@ -6203,7 +6776,7 @@
     </row>
     <row r="7" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>43</v>
@@ -6214,7 +6787,7 @@
     </row>
     <row r="8" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>43</v>
@@ -6225,7 +6798,7 @@
     </row>
     <row r="9" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>43</v>
@@ -6236,7 +6809,7 @@
     </row>
     <row r="10" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>43</v>
@@ -6247,7 +6820,7 @@
     </row>
     <row r="11" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>43</v>
@@ -6258,7 +6831,7 @@
     </row>
     <row r="12" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>43</v>
@@ -6269,7 +6842,7 @@
     </row>
     <row r="13" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>43</v>
@@ -6280,7 +6853,7 @@
     </row>
     <row r="14" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>30</v>
@@ -6291,7 +6864,7 @@
     </row>
     <row r="15" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>30</v>
@@ -6302,7 +6875,7 @@
     </row>
     <row r="16" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>30</v>
@@ -6325,24 +6898,24 @@
     <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>366</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -6350,7 +6923,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s">
         <v>48</v>
@@ -6361,29 +6934,29 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B23" t="s">
         <v>59</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="B24" t="s">
         <v>59</v>
@@ -6394,7 +6967,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
         <v>59</v>
@@ -6405,10 +6978,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -6416,7 +6989,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
@@ -6427,7 +7000,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
         <v>42</v>
@@ -6438,10 +7011,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -6449,73 +7022,73 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>196</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>219</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>219</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>236</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>236</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
         <v>72</v>
@@ -6526,7 +7099,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
         <v>72</v>
@@ -6537,10 +7110,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -6548,7 +7121,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
         <v>48</v>
@@ -6559,7 +7132,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B40" t="s">
         <v>48</v>
@@ -6570,10 +7143,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -6581,7 +7154,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
@@ -6592,7 +7165,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
@@ -6603,7 +7176,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
@@ -6614,10 +7187,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
@@ -6625,10 +7198,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -6636,10 +7209,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -6647,10 +7220,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="B48" t="s">
-        <v>146</v>
+        <v>43</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -6658,18 +7231,18 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="B49" t="s">
         <v>146</v>
       </c>
       <c r="C49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="B50" t="s">
         <v>146</v>
@@ -6682,7 +7255,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="B51" t="s">
         <v>146</v>
@@ -6695,21 +7268,21 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>151</v>
+        <v>230</v>
       </c>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="C52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -6717,10 +7290,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -6728,10 +7301,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -6739,32 +7312,29 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>338</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C58" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="D58" t="s">
-        <v>305</v>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>48</v>
@@ -6772,10 +7342,13 @@
       <c r="C59" s="18" t="b">
         <v>1</v>
       </c>
+      <c r="D59" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>48</v>
@@ -6786,18 +7359,18 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>306</v>
-      </c>
-      <c r="B61" t="s">
-        <v>30</v>
-      </c>
-      <c r="C61" t="b">
-        <v>0</v>
+        <v>323</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="18" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>119</v>
+        <v>299</v>
       </c>
       <c r="B62" t="s">
         <v>30</v>
@@ -6808,29 +7381,29 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>304</v>
+        <v>119</v>
       </c>
       <c r="B63" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="B64" s="4" t="s">
+      <c r="A64" t="s">
+        <v>297</v>
+      </c>
+      <c r="B64" t="s">
         <v>48</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>48</v>
@@ -6841,29 +7414,29 @@
     </row>
     <row r="66" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C66" s="18" t="b">
+      <c r="C67" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>307</v>
-      </c>
-      <c r="B67" t="s">
-        <v>42</v>
-      </c>
-      <c r="C67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B68" t="s">
         <v>42</v>
@@ -6874,7 +7447,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="B69" t="s">
         <v>42</v>
@@ -6885,51 +7458,95 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B71" s="4" t="s">
+      <c r="A71" t="s">
+        <v>302</v>
+      </c>
+      <c r="B71" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>383</v>
+      </c>
+      <c r="B72" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>384</v>
+      </c>
+      <c r="B73" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>385</v>
+      </c>
+      <c r="B74" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C71" s="14" t="b">
+      <c r="C75" s="14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B72" s="4" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C72" s="14" t="b">
+      <c r="C76" s="14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="B73" s="4" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C73" s="14" t="b">
+      <c r="C77" s="14" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A58:C73">
-    <sortCondition ref="A58"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A59:C77">
+    <sortCondition ref="A59"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/config/tables/MADTRIAL_FU_PHONE/Forms/MADTRIAL_FU_PHONE/MADTRIAL_FU_PHONE.xlsx
+++ b/app/config/tables/MADTRIAL_FU_PHONE/Forms/MADTRIAL_FU_PHONE/MADTRIAL_FU_PHONE.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDC24DD-6A15-498E-9276-1AC9DB27717C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8B8051-7098-488F-A105-8015AC8102E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="400">
   <si>
     <t>setting_name</t>
   </si>
@@ -95,9 +97,6 @@
     <t>Portuguese</t>
   </si>
   <si>
-    <t>Portugues</t>
-  </si>
-  <si>
     <t>default</t>
   </si>
   <si>
@@ -176,9 +175,6 @@
     <t>Sem rede</t>
   </si>
   <si>
-    <t>Numero Incorreto</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
@@ -209,9 +205,6 @@
     <t>VACHIS</t>
   </si>
   <si>
-    <t>A criança recebeu outras vacinas desde que foi vacinada no Simão Mendes?</t>
-  </si>
-  <si>
     <t>select_multiple</t>
   </si>
   <si>
@@ -245,9 +238,6 @@
     <t>VACOUTRO</t>
   </si>
   <si>
-    <t>Outro Vacina</t>
-  </si>
-  <si>
     <t>A criança foi internada no hospital desde que foi vacinada contra sarampo em Simão Mendes?</t>
   </si>
   <si>
@@ -278,9 +268,6 @@
     <t>HOSPI2</t>
   </si>
   <si>
-    <t>A criança foi enternada no hospital mais de um vez?</t>
-  </si>
-  <si>
     <t>HOSPDATA2</t>
   </si>
   <si>
@@ -323,15 +310,6 @@
     <t>PODEAUT</t>
   </si>
   <si>
-    <t>Podemos visita-lo para fazer mais perguntas sobre a morte de seu filho</t>
-  </si>
-  <si>
-    <t>A criança ainda esta viva?</t>
-  </si>
-  <si>
-    <t>A criança foi Internada no hospital mais de duas vezes?</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
@@ -431,9 +409,6 @@
     <t>HOSPIVEZ</t>
   </si>
   <si>
-    <t>Quantos vezes?</t>
-  </si>
-  <si>
     <t>vezes</t>
   </si>
   <si>
@@ -506,9 +481,6 @@
     <t>Yellow fever</t>
   </si>
   <si>
-    <t>Febre amarelo</t>
-  </si>
-  <si>
     <t>Ou</t>
   </si>
   <si>
@@ -570,9 +542,6 @@
   </si>
   <si>
     <t>If you cannot get information on the first call, call each number three times</t>
-  </si>
-  <si>
-    <t>Se voce não conseguir obter informação na primeira chamada, liga cada numero trez vezes</t>
   </si>
   <si>
     <t>START</t>
@@ -790,12 +759,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Assistant 1</t>
-  </si>
-  <si>
-    <t>Assistente 1</t>
-  </si>
-  <si>
     <t>No network</t>
   </si>
   <si>
@@ -1022,9 +985,6 @@
   </si>
   <si>
     <t>chamada2</t>
-  </si>
-  <si>
-    <t>Não atende o telemovel</t>
   </si>
   <si>
     <t>VPI</t>
@@ -1244,6 +1204,54 @@
   </si>
   <si>
     <t xml:space="preserve">3ª chamada - número: &lt;b&gt;Não tem&lt;/b&gt; </t>
+  </si>
+  <si>
+    <t>Eduardo Gomes</t>
+  </si>
+  <si>
+    <t>Igualdino S. Borges</t>
+  </si>
+  <si>
+    <t>Jailson Sydenei Dias Martins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laerte Lima Almeida </t>
+  </si>
+  <si>
+    <t>Português</t>
+  </si>
+  <si>
+    <t>Se você não consegue obter informação na primeira chamada, liga cada número tres vezes</t>
+  </si>
+  <si>
+    <t>A criança ainda está viva?</t>
+  </si>
+  <si>
+    <t>A criança recebeu outras vacinas desde que foi vacinada em Simão Mendes?</t>
+  </si>
+  <si>
+    <t>Outra vacina</t>
+  </si>
+  <si>
+    <t>Quantas vezes?</t>
+  </si>
+  <si>
+    <t>A criança foi internada no hospital mais do que uma vez? ##omit "no hospital" as it could theoretically also be at a health center?</t>
+  </si>
+  <si>
+    <t>A criança foi internada no hospital mais do que duas vezes? ##omit "no hospital" as it could theoretically also be at a health center?</t>
+  </si>
+  <si>
+    <t>Podemos visita-lo para fazer mais perguntas sobre a morte de seu filho/sua filha?</t>
+  </si>
+  <si>
+    <t>Não atende o telemóvel</t>
+  </si>
+  <si>
+    <t>Numero incorreto</t>
+  </si>
+  <si>
+    <t>Febre amarela</t>
   </si>
 </sst>
 </file>
@@ -1663,7 +1671,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,13 +1691,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>16</v>
@@ -1700,7 +1708,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1716,7 +1724,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1724,29 +1732,29 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="D5" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
-        <v>20</v>
+      <c r="F6" s="2" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -1757,10 +1765,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1776,9 +1784,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787AB6FC-E5B2-448F-8A60-6571052C1548}">
   <dimension ref="A1:L274"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D191" sqref="D191"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1798,7 +1806,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>6</v>
@@ -1816,91 +1824,91 @@
         <v>10</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="I4" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F5" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="G5" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="I6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="G7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -1908,81 +1916,81 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="I12" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F13" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="G13" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F14" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="I14" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="G15" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -1990,81 +1998,81 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F20" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="I20" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="G21" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F22" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="I22" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="G23" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -2072,81 +2080,81 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="F28" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="J28" t="s">
-        <v>178</v>
-      </c>
-      <c r="K28" t="s">
-        <v>179</v>
+        <v>168</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E30" s="4"/>
       <c r="G30" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="H30" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="I31">
         <v>4</v>
@@ -2154,192 +2162,192 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E33" s="4"/>
       <c r="G33" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="H33" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G35" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="H35" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G37" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="H37" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G40" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="H40" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="H42" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E44" s="4"/>
       <c r="G44" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="H44" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G45" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="H45" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G46" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="H46" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F47" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="I47" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G48" s="11"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G52" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="H52" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F53" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="I53">
         <v>7</v>
@@ -2347,60 +2355,60 @@
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="55" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
+        <v>42</v>
+      </c>
+      <c r="E55" t="s">
         <v>43</v>
       </c>
-      <c r="E55" t="s">
-        <v>44</v>
-      </c>
       <c r="F55" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="J55" t="s">
-        <v>178</v>
-      </c>
-      <c r="K55" t="s">
-        <v>179</v>
+        <v>168</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C56" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E57" s="4"/>
       <c r="G57" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="H57" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="I58">
         <v>4</v>
@@ -2408,195 +2416,195 @@
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E60" s="4"/>
       <c r="G60" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="H60" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G62" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="H62" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G64" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="H64" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G67" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="H67" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G69" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="H69" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E71" s="4"/>
       <c r="G71" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="H71" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G72" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="H72" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G73" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="H73" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F74" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="I74" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C77" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C79" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G80" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="H80" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F81" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="I81">
         <v>7</v>
@@ -2604,60 +2612,60 @@
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="83" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
+        <v>42</v>
+      </c>
+      <c r="E83" t="s">
         <v>43</v>
       </c>
-      <c r="E83" t="s">
-        <v>44</v>
-      </c>
       <c r="F83" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="J83" t="s">
-        <v>178</v>
-      </c>
-      <c r="K83" t="s">
-        <v>179</v>
+        <v>168</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C84" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="E84" s="4"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E85" s="4"/>
       <c r="G85" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="H85" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="I86">
         <v>4</v>
@@ -2665,239 +2673,239 @@
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E87" s="4"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E88" s="4"/>
       <c r="G88" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="H88" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C89" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G90" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="H90" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G92" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="H92" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C94" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G95" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="H95" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G97" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="H97" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E99" s="4"/>
       <c r="G99" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="H99" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G100" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="H100" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G101" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="H101" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F102" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="I102" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
+        <v>42</v>
+      </c>
+      <c r="E110" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E110" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="F110" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="J110" t="s">
-        <v>178</v>
-      </c>
-      <c r="K110" t="s">
-        <v>179</v>
+        <v>168</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C111" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="E111" s="4"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E112" s="4"/>
       <c r="G112" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="H112" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D113" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="I113">
         <v>4</v>
@@ -2905,192 +2913,192 @@
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E114" s="4"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D115" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E115" s="4"/>
       <c r="G115" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="H115" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C116" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G117" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="H117" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G119" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="H119" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C121" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G122" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="H122" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G124" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="H124" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E126" s="4"/>
       <c r="G126" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="H126" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G127" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="H127" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D128" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G128" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="H128" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F129" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="I129" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G130" s="11"/>
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C131" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="G131" s="11"/>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C133" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D134" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G134" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="H134" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="135" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F135" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="I135">
         <v>7</v>
@@ -3098,60 +3106,60 @@
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="137" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="D137" t="s">
+        <v>42</v>
+      </c>
+      <c r="E137" t="s">
         <v>43</v>
       </c>
-      <c r="E137" t="s">
-        <v>44</v>
-      </c>
       <c r="F137" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="J137" t="s">
-        <v>178</v>
-      </c>
-      <c r="K137" t="s">
-        <v>179</v>
+        <v>168</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="138" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C138" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="E138" s="4"/>
     </row>
     <row r="139" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E139" s="4"/>
       <c r="G139" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="H139" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E140" s="4"/>
       <c r="F140" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="I140">
         <v>4</v>
@@ -3159,195 +3167,195 @@
     </row>
     <row r="141" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E141" s="4"/>
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E142" s="4"/>
       <c r="G142" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="H142" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C143" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="144" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D144" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G144" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="H144" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D146" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G146" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="H146" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C148" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D149" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G149" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="H149" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D151" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G151" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="H151" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D153" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E153" s="4"/>
       <c r="G153" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="H153" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D154" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G154" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="H154" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D155" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G155" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="H155" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D156" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F156" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="I156" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C159" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="161" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C161" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="162" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D162" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G162" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="H162" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
     </row>
     <row r="163" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D163" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F163" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="I163">
         <v>7</v>
@@ -3355,60 +3363,60 @@
     </row>
     <row r="164" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="165" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="D165" t="s">
+        <v>42</v>
+      </c>
+      <c r="E165" t="s">
         <v>43</v>
       </c>
-      <c r="E165" t="s">
-        <v>44</v>
-      </c>
       <c r="F165" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="J165" t="s">
-        <v>178</v>
-      </c>
-      <c r="K165" t="s">
-        <v>179</v>
+        <v>168</v>
+      </c>
+      <c r="K165" s="2" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="166" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C166" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="E166" s="4"/>
     </row>
     <row r="167" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D167" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E167" s="4"/>
       <c r="G167" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="H167" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="168" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D168" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E168" s="4"/>
       <c r="F168" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="I168">
         <v>4</v>
@@ -3416,239 +3424,239 @@
     </row>
     <row r="169" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E169" s="4"/>
     </row>
     <row r="170" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D170" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E170" s="4"/>
       <c r="G170" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="H170" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="171" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C171" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="172" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D172" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G172" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="H172" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="173" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="174" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D174" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G174" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="H174" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="175" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="176" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C176" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D177" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G177" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="H177" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D179" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G179" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="H179" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D181" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E181" s="4"/>
       <c r="G181" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="H181" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D182" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G182" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="H182" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D183" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G183" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="H183" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D184" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F184" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="I184" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="190" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="17" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C190" s="14" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="D192" t="s">
+        <v>42</v>
+      </c>
+      <c r="E192" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E192" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="F192" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="H192" s="7" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="J192" t="s">
-        <v>178</v>
-      </c>
-      <c r="K192" t="s">
-        <v>179</v>
+        <v>168</v>
+      </c>
+      <c r="K192" s="2" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="193" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C193" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="E193" s="4"/>
     </row>
     <row r="194" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D194" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E194" s="4"/>
       <c r="G194" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="H194" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="195" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D195" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E195" s="4"/>
       <c r="F195" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="I195">
         <v>4</v>
@@ -3656,192 +3664,192 @@
     </row>
     <row r="196" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E196" s="4"/>
     </row>
     <row r="197" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D197" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E197" s="4"/>
       <c r="G197" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="H197" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="198" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C198" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="199" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D199" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G199" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="H199" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="200" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="201" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D201" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G201" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="H201" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="202" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="203" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C203" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="204" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D204" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G204" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="H204" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="205" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="206" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D206" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G206" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="H206" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="207" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="208" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D208" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E208" s="4"/>
       <c r="G208" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="H208" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="209" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D209" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G209" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="H209" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
     </row>
     <row r="210" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D210" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G210" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="H210" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="211" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D211" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F211" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="I211" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
     </row>
     <row r="212" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G212" s="11"/>
     </row>
     <row r="213" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C213" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="G213" s="11"/>
     </row>
     <row r="214" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="215" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C215" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="216" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D216" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G216" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="H216" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="217" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D217" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F217" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="I217">
         <v>7</v>
@@ -3849,60 +3857,60 @@
     </row>
     <row r="218" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="219" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="D219" t="s">
+        <v>42</v>
+      </c>
+      <c r="E219" t="s">
         <v>43</v>
       </c>
-      <c r="E219" t="s">
-        <v>44</v>
-      </c>
       <c r="F219" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="G219" s="7" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="H219" s="7" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="J219" t="s">
-        <v>178</v>
-      </c>
-      <c r="K219" t="s">
-        <v>179</v>
+        <v>168</v>
+      </c>
+      <c r="K219" s="2" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="220" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C220" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="E220" s="4"/>
     </row>
     <row r="221" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D221" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E221" s="4"/>
       <c r="G221" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="H221" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="222" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D222" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E222" s="4"/>
       <c r="F222" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="I222">
         <v>4</v>
@@ -3910,195 +3918,195 @@
     </row>
     <row r="223" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E223" s="4"/>
     </row>
     <row r="224" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D224" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E224" s="4"/>
       <c r="G224" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="H224" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="225" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C225" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="226" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D226" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G226" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="H226" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D228" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G228" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="H228" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="229" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="230" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C230" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D231" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G231" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="H231" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="232" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="233" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D233" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G233" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="H233" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="234" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D235" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E235" s="4"/>
       <c r="G235" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="H235" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="236" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D236" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G236" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="H236" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
     </row>
     <row r="237" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D237" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G237" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="H237" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="238" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D238" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F238" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="I238" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="240" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="241" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C241" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="242" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="243" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C243" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="244" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D244" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G244" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="H244" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
     </row>
     <row r="245" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D245" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F245" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="I245">
         <v>7</v>
@@ -4106,60 +4114,60 @@
     </row>
     <row r="246" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="247" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="D247" t="s">
+        <v>42</v>
+      </c>
+      <c r="E247" t="s">
         <v>43</v>
       </c>
-      <c r="E247" t="s">
-        <v>44</v>
-      </c>
       <c r="F247" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="G247" s="7" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="H247" s="7" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="J247" t="s">
-        <v>178</v>
-      </c>
-      <c r="K247" t="s">
-        <v>179</v>
+        <v>168</v>
+      </c>
+      <c r="K247" s="2" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="248" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C248" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="E248" s="4"/>
     </row>
     <row r="249" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D249" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E249" s="4"/>
       <c r="G249" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="H249" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="250" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D250" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E250" s="4"/>
       <c r="F250" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="I250">
         <v>4</v>
@@ -4167,188 +4175,188 @@
     </row>
     <row r="251" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E251" s="4"/>
     </row>
     <row r="252" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D252" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E252" s="4"/>
       <c r="G252" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="H252" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="253" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C253" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="254" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D254" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G254" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="H254" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="255" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="256" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D256" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G256" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="H256" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="257" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="258" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C258" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="259" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D259" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G259" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="H259" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="260" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="261" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D261" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G261" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="H261" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="262" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="263" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D263" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E263" s="4"/>
       <c r="G263" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="H263" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="264" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D264" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G264" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="H264" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
     </row>
     <row r="265" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D265" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G265" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="H265" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="266" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D266" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F266" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="I266" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
     </row>
     <row r="267" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="268" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="269" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="270" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="271" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="272" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C272" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -4362,8 +4370,8 @@
   <dimension ref="A1:O104"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K57" sqref="K57:L57"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4387,7 +4395,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>6</v>
@@ -4405,1078 +4413,1078 @@
         <v>10</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H6" t="s">
-        <v>97</v>
+        <v>152</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="H8" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="J8" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="K8" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="L8" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G14" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="H14" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G15" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="H15" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="J15" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="K15" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="L15" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
         <v>55</v>
       </c>
-      <c r="F20" t="s">
-        <v>57</v>
-      </c>
       <c r="G20" t="s">
-        <v>163</v>
-      </c>
-      <c r="H20" t="s">
-        <v>58</v>
+        <v>153</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" t="s">
+        <v>154</v>
+      </c>
+      <c r="H24" t="s">
         <v>59</v>
-      </c>
-      <c r="E24" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" t="s">
-        <v>164</v>
-      </c>
-      <c r="H24" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G25" t="s">
-        <v>165</v>
-      </c>
-      <c r="H25" t="s">
-        <v>70</v>
+        <v>155</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G29" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="H29" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E31" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F31" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G31" t="s">
-        <v>167</v>
-      </c>
-      <c r="H31" t="s">
-        <v>132</v>
+        <v>157</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G36" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="J36" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="K36" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="L36" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G37" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E38" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F38" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="G38" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="H38" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E39" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G39" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="H39" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="O39" s="13" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E40" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="F40" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="J40" s="13"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="J41" s="13"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F42" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I42" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="J42" s="13"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J43" s="13"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H44" s="4"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H45" s="4"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F46" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G46" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G47" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E48" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F48" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H48" s="4"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H49" s="4"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C50" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="H50" s="4"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F52" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G52" t="s">
-        <v>170</v>
-      </c>
-      <c r="H52" t="s">
-        <v>81</v>
+        <v>160</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C55" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F57" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G57" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="H57" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="J57" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="K57" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="L57" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G58" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E59" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F59" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="G59" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="H59" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E60" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F60" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G60" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="H60" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="O60" s="13" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E61" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="F61" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="J61" s="13"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="J62" s="13"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F63" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I63" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="J63" s="13"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J64" s="13"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H65" s="4"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H66" s="4"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F67" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F68" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G68" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="H68" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E69" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F69" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H69" s="4"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H70" s="4"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E74" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F74" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G74" t="s">
-        <v>171</v>
-      </c>
-      <c r="H74" t="s">
-        <v>98</v>
+        <v>161</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C77" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H78" s="4"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F79" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G79" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="J79" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G80" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E81" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F81" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G81" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="H81" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E82" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F82" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G82" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="H82" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="O82" s="13" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E83" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="F83" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="J83" s="13"/>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C84" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="J84" s="13"/>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F85" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I85" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="J85" s="13"/>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J86" s="13"/>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H87" s="4"/>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H88" s="4"/>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F89" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G89" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F90" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G90" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E91" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F91" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H91" s="4"/>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H92" s="4"/>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C95" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E97" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F97" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G97" t="s">
-        <v>172</v>
-      </c>
-      <c r="H97" t="s">
-        <v>96</v>
+        <v>162</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C98" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E99" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F99" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G99" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="H99" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F100" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G100" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H100" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F101" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="G101" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="H101" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -5503,44 +5511,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C3" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -5550,11 +5558,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D138"/>
+  <dimension ref="A1:D141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5573,7 +5581,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
@@ -5581,669 +5589,705 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>326</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B8" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B9" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
         <v>60</v>
       </c>
-      <c r="B13" t="s">
-        <v>63</v>
-      </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="C18" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="D18" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C20" t="s">
-        <v>156</v>
-      </c>
-      <c r="D20" t="s">
-        <v>157</v>
+        <v>147</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C21" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B24" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>248</v>
+        <v>384</v>
       </c>
       <c r="D24" t="s">
-        <v>249</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B25" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>386</v>
+      </c>
+      <c r="D25" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>387</v>
+      </c>
+      <c r="D26" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" t="str">
+        <f>"10"</f>
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>385</v>
+      </c>
+      <c r="D27" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
-      <c r="C25" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" t="str">
+      <c r="C28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C29" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="D26" t="str">
+      <c r="D29" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>133</v>
-      </c>
-      <c r="B27" t="str">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C30" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D30" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B28" t="str">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C31" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D31" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" t="str">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="str">
         <f>"77"</f>
         <v>77</v>
       </c>
-      <c r="C29" t="s">
-        <v>134</v>
-      </c>
-      <c r="D29" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>133</v>
-      </c>
-      <c r="B30" t="str">
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
-      <c r="C30" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B31" t="str">
+      <c r="C33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C31" t="s">
-        <v>137</v>
-      </c>
-      <c r="D31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>201</v>
-      </c>
-      <c r="B32" t="str">
+      <c r="C34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B35" t="str">
         <f>"88888"</f>
         <v>88888</v>
       </c>
-      <c r="C32" t="s">
-        <v>202</v>
-      </c>
-      <c r="D32" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>201</v>
-      </c>
-      <c r="B33" t="str">
+      <c r="C35" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>190</v>
+      </c>
+      <c r="B36" t="str">
         <f>"77777"</f>
         <v>77777</v>
       </c>
-      <c r="C33" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>147</v>
-      </c>
-      <c r="B34" t="str">
+      <c r="C36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C34" t="s">
-        <v>350</v>
-      </c>
-      <c r="D34" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>147</v>
-      </c>
-      <c r="B35" t="str">
+      <c r="C37" t="s">
+        <v>336</v>
+      </c>
+      <c r="D37" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C35" t="s">
-        <v>257</v>
-      </c>
-      <c r="D35" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>147</v>
-      </c>
-      <c r="B36" t="str">
+      <c r="C38" t="s">
+        <v>244</v>
+      </c>
+      <c r="D38" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C36" t="s">
-        <v>352</v>
-      </c>
-      <c r="D36" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>147</v>
-      </c>
-      <c r="B37" t="str">
+      <c r="C39" t="s">
+        <v>338</v>
+      </c>
+      <c r="D39" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C37" t="s">
-        <v>258</v>
-      </c>
-      <c r="D37" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>147</v>
-      </c>
-      <c r="B38" t="str">
+      <c r="C40" t="s">
+        <v>245</v>
+      </c>
+      <c r="D40" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
-      <c r="C38" t="s">
-        <v>260</v>
-      </c>
-      <c r="D38" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>147</v>
-      </c>
-      <c r="B39" t="str">
+      <c r="C41" t="s">
+        <v>247</v>
+      </c>
+      <c r="D41" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" t="str">
         <f>"15"</f>
         <v>15</v>
       </c>
-      <c r="C39" t="s">
-        <v>353</v>
-      </c>
-      <c r="D39" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>147</v>
-      </c>
-      <c r="B40" t="str">
+      <c r="C42" t="s">
+        <v>339</v>
+      </c>
+      <c r="D42" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
-      <c r="C40" t="s">
-        <v>261</v>
-      </c>
-      <c r="D40" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>147</v>
-      </c>
-      <c r="B41" t="str">
+      <c r="C43" t="s">
+        <v>248</v>
+      </c>
+      <c r="D43" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C41" t="s">
-        <v>259</v>
-      </c>
-      <c r="D41" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>147</v>
-      </c>
-      <c r="B42" t="str">
+      <c r="C44" t="s">
+        <v>246</v>
+      </c>
+      <c r="D44" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" t="str">
         <f>"11"</f>
         <v>11</v>
       </c>
-      <c r="C42" t="s">
-        <v>262</v>
-      </c>
-      <c r="D42" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>147</v>
-      </c>
-      <c r="B43" t="str">
+      <c r="C45" t="s">
+        <v>249</v>
+      </c>
+      <c r="D45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" t="str">
         <f>"12"</f>
         <v>12</v>
       </c>
-      <c r="C43" t="s">
-        <v>263</v>
-      </c>
-      <c r="D43" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>147</v>
-      </c>
-      <c r="B44" t="str">
+      <c r="C46" t="s">
+        <v>250</v>
+      </c>
+      <c r="D46" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" t="str">
         <f>"13"</f>
         <v>13</v>
       </c>
-      <c r="C44" t="s">
-        <v>351</v>
-      </c>
-      <c r="D44" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B45" t="str">
+      <c r="C47" t="s">
+        <v>337</v>
+      </c>
+      <c r="D47" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" t="str">
         <f>"14"</f>
         <v>14</v>
       </c>
-      <c r="C45" t="s">
-        <v>264</v>
-      </c>
-      <c r="D45" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
+      <c r="C48" t="s">
+        <v>251</v>
+      </c>
+      <c r="D48" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
@@ -6262,16 +6306,16 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
-      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="8"/>
+      <c r="A56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="8"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="8"/>
+      <c r="A57" s="4"/>
+      <c r="D57" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B59" s="8"/>
@@ -6359,15 +6403,12 @@
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="8"/>
@@ -6386,6 +6427,7 @@
       <c r="C93" s="8"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="8"/>
       <c r="C94" s="8"/>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
@@ -6397,7 +6439,6 @@
       <c r="C96" s="8"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="8"/>
       <c r="C97" s="8"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
@@ -6460,49 +6501,52 @@
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="8"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C113" s="8"/>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="8"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C114" s="8"/>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="8"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C115" s="8"/>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="8"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="8"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="8"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="8"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120" s="8"/>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="8"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="8"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="8"/>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="8"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="8"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="8"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="8"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="8"/>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
@@ -6534,6 +6578,15 @@
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" s="8"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="8"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="8"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -6559,74 +6612,74 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -6654,30 +6707,30 @@
   <sheetData>
     <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -6713,29 +6766,29 @@
         <v>15</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C2" s="14" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C3" s="14" t="b">
         <v>0</v>
@@ -6743,10 +6796,10 @@
     </row>
     <row r="4" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C4" s="14" t="b">
         <v>0</v>
@@ -6754,10 +6807,10 @@
     </row>
     <row r="5" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="14" t="b">
         <v>0</v>
@@ -6765,10 +6818,10 @@
     </row>
     <row r="6" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="14" t="b">
         <v>0</v>
@@ -6776,10 +6829,10 @@
     </row>
     <row r="7" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="14" t="b">
         <v>0</v>
@@ -6787,10 +6840,10 @@
     </row>
     <row r="8" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="14" t="b">
         <v>0</v>
@@ -6798,10 +6851,10 @@
     </row>
     <row r="9" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="14" t="b">
         <v>0</v>
@@ -6809,10 +6862,10 @@
     </row>
     <row r="10" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="14" t="b">
         <v>0</v>
@@ -6820,10 +6873,10 @@
     </row>
     <row r="11" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="14" t="b">
         <v>0</v>
@@ -6831,10 +6884,10 @@
     </row>
     <row r="12" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="14" t="b">
         <v>0</v>
@@ -6842,10 +6895,10 @@
     </row>
     <row r="13" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="14" t="b">
         <v>0</v>
@@ -6853,10 +6906,10 @@
     </row>
     <row r="14" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="14" t="b">
         <v>0</v>
@@ -6864,10 +6917,10 @@
     </row>
     <row r="15" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="14" t="b">
         <v>0</v>
@@ -6875,10 +6928,10 @@
     </row>
     <row r="16" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="14" t="b">
         <v>0</v>
@@ -6886,10 +6939,10 @@
     </row>
     <row r="17" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C17" s="14" t="b">
         <v>0</v>
@@ -6898,24 +6951,24 @@
     <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -6923,10 +6976,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -6934,10 +6987,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -6945,10 +6998,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -6956,10 +7009,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -6967,10 +7020,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -6978,10 +7031,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -6989,10 +7042,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -7000,10 +7053,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -7011,10 +7064,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -7022,10 +7075,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -7033,10 +7086,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
@@ -7044,10 +7097,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -7055,10 +7108,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
@@ -7066,10 +7119,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -7077,10 +7130,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
@@ -7088,10 +7141,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -7099,10 +7152,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -7110,10 +7163,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -7121,10 +7174,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -7132,10 +7185,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -7143,10 +7196,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -7154,10 +7207,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -7165,10 +7218,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -7176,10 +7229,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -7187,10 +7240,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
@@ -7198,10 +7251,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -7209,10 +7262,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -7220,10 +7273,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -7231,10 +7284,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B49" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -7242,10 +7295,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B50" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
@@ -7255,10 +7308,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
@@ -7268,10 +7321,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B52" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
@@ -7279,10 +7332,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -7290,10 +7343,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -7301,10 +7354,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -7312,10 +7365,10 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
@@ -7323,10 +7376,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
@@ -7334,24 +7387,24 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C59" s="18" t="b">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C60" s="18" t="b">
         <v>1</v>
@@ -7359,10 +7412,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C61" s="18" t="b">
         <v>1</v>
@@ -7370,10 +7423,10 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="B62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
@@ -7381,10 +7434,10 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
@@ -7392,10 +7445,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="B64" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
@@ -7403,10 +7456,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
@@ -7414,10 +7467,10 @@
     </row>
     <row r="66" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
@@ -7425,10 +7478,10 @@
     </row>
     <row r="67" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C67" s="18" t="b">
         <v>0</v>
@@ -7436,10 +7489,10 @@
     </row>
     <row r="68" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="B68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
@@ -7447,10 +7500,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="B69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
@@ -7458,10 +7511,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="B70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
@@ -7469,10 +7522,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
@@ -7480,10 +7533,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="B72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
@@ -7491,10 +7544,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="B73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
@@ -7502,10 +7555,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="B74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
@@ -7513,10 +7566,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C75" s="14" t="b">
         <v>0</v>
@@ -7524,10 +7577,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C76" s="14" t="b">
         <v>0</v>
@@ -7535,10 +7588,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C77" s="14" t="b">
         <v>0</v>

--- a/app/config/tables/MADTRIAL_FU_PHONE/Forms/MADTRIAL_FU_PHONE/MADTRIAL_FU_PHONE.xlsx
+++ b/app/config/tables/MADTRIAL_FU_PHONE/Forms/MADTRIAL_FU_PHONE/MADTRIAL_FU_PHONE.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8B8051-7098-488F-A105-8015AC8102E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89CDCB8-3A3A-48BD-88AF-DCBE6985EAAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -505,9 +505,6 @@
     <t>Other Vaccine</t>
   </si>
   <si>
-    <t>Has the child been admitted to hospital since being vaccinated against measles in Simão Mendes?</t>
-  </si>
-  <si>
     <t>How many times?</t>
   </si>
   <si>
@@ -933,9 +930,6 @@
     <t>MADtrial - Follow-up Phone</t>
   </si>
   <si>
-    <t>MADtrail - Seguimento Telemovel</t>
-  </si>
-  <si>
     <t>IDINC</t>
   </si>
   <si>
@@ -1227,9 +1221,6 @@
     <t>A criança ainda está viva?</t>
   </si>
   <si>
-    <t>A criança recebeu outras vacinas desde que foi vacinada em Simão Mendes?</t>
-  </si>
-  <si>
     <t>Outra vacina</t>
   </si>
   <si>
@@ -1252,6 +1243,15 @@
   </si>
   <si>
     <t>Febre amarela</t>
+  </si>
+  <si>
+    <t>MADtrial - Seguimento Telemovel</t>
+  </si>
+  <si>
+    <t>A criança recebeu outras vacinas desde que foi vacinada no costa em Simão Mendes?</t>
+  </si>
+  <si>
+    <t>Has the child been admitted to hospital since being vaccinated against measles at Simão Mendes?</t>
   </si>
 </sst>
 </file>
@@ -1671,7 +1671,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,10 +1735,10 @@
         <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D5" t="s">
-        <v>295</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1749,7 +1749,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1833,24 +1833,24 @@
         <v>21</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>167</v>
-      </c>
       <c r="L1" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>70</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1863,10 +1863,10 @@
         <v>95</v>
       </c>
       <c r="F4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I4" t="s">
         <v>169</v>
-      </c>
-      <c r="I4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1877,7 +1877,7 @@
         <v>98</v>
       </c>
       <c r="F5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G5" t="s">
         <v>151</v>
@@ -1891,7 +1891,7 @@
         <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I6" t="s">
         <v>96</v>
@@ -1902,7 +1902,7 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G7" t="s">
         <v>150</v>
@@ -1926,13 +1926,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>70</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1945,10 +1945,10 @@
         <v>95</v>
       </c>
       <c r="F12" t="s">
+        <v>168</v>
+      </c>
+      <c r="I12" t="s">
         <v>169</v>
-      </c>
-      <c r="I12" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1959,7 +1959,7 @@
         <v>98</v>
       </c>
       <c r="F13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G13" t="s">
         <v>151</v>
@@ -1973,7 +1973,7 @@
         <v>95</v>
       </c>
       <c r="F14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I14" t="s">
         <v>96</v>
@@ -1984,7 +1984,7 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G15" t="s">
         <v>150</v>
@@ -2008,13 +2008,13 @@
     </row>
     <row r="18" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>70</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -2027,10 +2027,10 @@
         <v>95</v>
       </c>
       <c r="F20" t="s">
+        <v>168</v>
+      </c>
+      <c r="I20" t="s">
         <v>169</v>
-      </c>
-      <c r="I20" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -2041,7 +2041,7 @@
         <v>98</v>
       </c>
       <c r="F21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G21" t="s">
         <v>151</v>
@@ -2055,7 +2055,7 @@
         <v>95</v>
       </c>
       <c r="F22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I22" t="s">
         <v>96</v>
@@ -2066,7 +2066,7 @@
         <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G23" t="s">
         <v>150</v>
@@ -2090,13 +2090,13 @@
     </row>
     <row r="26" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>70</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2112,19 +2112,19 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2132,7 +2132,7 @@
         <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E29" s="4"/>
     </row>
@@ -2142,10 +2142,10 @@
       </c>
       <c r="E30" s="4"/>
       <c r="G30" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H30" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E31" s="4"/>
       <c r="F31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I31">
         <v>4</v>
@@ -2172,10 +2172,10 @@
       </c>
       <c r="E33" s="4"/>
       <c r="G33" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H33" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -2183,7 +2183,7 @@
         <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -2191,15 +2191,15 @@
         <v>91</v>
       </c>
       <c r="G35" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -2207,10 +2207,10 @@
         <v>91</v>
       </c>
       <c r="G37" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H37" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
@@ -2223,7 +2223,7 @@
         <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
@@ -2231,15 +2231,15 @@
         <v>91</v>
       </c>
       <c r="G40" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H40" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -2247,10 +2247,10 @@
         <v>91</v>
       </c>
       <c r="G42" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H42" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -2264,10 +2264,10 @@
       </c>
       <c r="E44" s="4"/>
       <c r="G44" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H44" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
@@ -2275,10 +2275,10 @@
         <v>91</v>
       </c>
       <c r="G45" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H45" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
@@ -2286,10 +2286,10 @@
         <v>91</v>
       </c>
       <c r="G46" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H46" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
@@ -2297,10 +2297,10 @@
         <v>95</v>
       </c>
       <c r="F47" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I47" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
@@ -2314,7 +2314,7 @@
         <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G49" s="11"/>
     </row>
@@ -2328,7 +2328,7 @@
         <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
@@ -2336,10 +2336,10 @@
         <v>91</v>
       </c>
       <c r="G52" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H52" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
@@ -2347,7 +2347,7 @@
         <v>95</v>
       </c>
       <c r="F53" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I53">
         <v>7</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55" spans="2:11" ht="45" x14ac:dyDescent="0.25">
@@ -2366,19 +2366,19 @@
         <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
@@ -2386,7 +2386,7 @@
         <v>70</v>
       </c>
       <c r="C56" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E56" s="4"/>
     </row>
@@ -2396,10 +2396,10 @@
       </c>
       <c r="E57" s="4"/>
       <c r="G57" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H57" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="E58" s="4"/>
       <c r="F58" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I58">
         <v>4</v>
@@ -2426,10 +2426,10 @@
       </c>
       <c r="E60" s="4"/>
       <c r="G60" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H60" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
@@ -2437,7 +2437,7 @@
         <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
@@ -2445,15 +2445,15 @@
         <v>91</v>
       </c>
       <c r="G62" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H62" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
@@ -2461,10 +2461,10 @@
         <v>91</v>
       </c>
       <c r="G64" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H64" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
@@ -2477,7 +2477,7 @@
         <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
@@ -2485,15 +2485,15 @@
         <v>91</v>
       </c>
       <c r="G67" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H67" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
@@ -2501,10 +2501,10 @@
         <v>91</v>
       </c>
       <c r="G69" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H69" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
@@ -2518,10 +2518,10 @@
       </c>
       <c r="E71" s="4"/>
       <c r="G71" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H71" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
@@ -2529,10 +2529,10 @@
         <v>91</v>
       </c>
       <c r="G72" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H72" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
@@ -2540,10 +2540,10 @@
         <v>91</v>
       </c>
       <c r="G73" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H73" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
@@ -2551,10 +2551,10 @@
         <v>95</v>
       </c>
       <c r="F74" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I74" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
@@ -2572,7 +2572,7 @@
         <v>70</v>
       </c>
       <c r="C77" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
@@ -2585,7 +2585,7 @@
         <v>70</v>
       </c>
       <c r="C79" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
@@ -2593,10 +2593,10 @@
         <v>91</v>
       </c>
       <c r="G80" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H80" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
@@ -2604,7 +2604,7 @@
         <v>95</v>
       </c>
       <c r="F81" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I81">
         <v>7</v>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="83" spans="2:11" ht="45" x14ac:dyDescent="0.25">
@@ -2623,19 +2623,19 @@
         <v>43</v>
       </c>
       <c r="F83" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="J83" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
@@ -2643,7 +2643,7 @@
         <v>70</v>
       </c>
       <c r="C84" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E84" s="4"/>
     </row>
@@ -2653,10 +2653,10 @@
       </c>
       <c r="E85" s="4"/>
       <c r="G85" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H85" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="E86" s="4"/>
       <c r="F86" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I86">
         <v>4</v>
@@ -2683,10 +2683,10 @@
       </c>
       <c r="E88" s="4"/>
       <c r="G88" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H88" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.25">
@@ -2694,7 +2694,7 @@
         <v>70</v>
       </c>
       <c r="C89" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.25">
@@ -2702,15 +2702,15 @@
         <v>91</v>
       </c>
       <c r="G90" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H90" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.25">
@@ -2718,10 +2718,10 @@
         <v>91</v>
       </c>
       <c r="G92" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H92" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.25">
@@ -2734,7 +2734,7 @@
         <v>70</v>
       </c>
       <c r="C94" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.25">
@@ -2742,15 +2742,15 @@
         <v>91</v>
       </c>
       <c r="G95" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H95" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -2758,10 +2758,10 @@
         <v>91</v>
       </c>
       <c r="G97" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H97" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -2775,10 +2775,10 @@
       </c>
       <c r="E99" s="4"/>
       <c r="G99" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H99" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -2786,10 +2786,10 @@
         <v>91</v>
       </c>
       <c r="G100" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H100" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -2797,10 +2797,10 @@
         <v>91</v>
       </c>
       <c r="G101" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H101" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -2808,10 +2808,10 @@
         <v>95</v>
       </c>
       <c r="F102" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I102" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -2841,13 +2841,13 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B108" s="14" t="s">
         <v>70</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -2863,19 +2863,19 @@
         <v>43</v>
       </c>
       <c r="F110" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -2883,7 +2883,7 @@
         <v>70</v>
       </c>
       <c r="C111" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E111" s="4"/>
     </row>
@@ -2893,10 +2893,10 @@
       </c>
       <c r="E112" s="4"/>
       <c r="G112" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H112" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="E113" s="4"/>
       <c r="F113" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I113">
         <v>4</v>
@@ -2923,10 +2923,10 @@
       </c>
       <c r="E115" s="4"/>
       <c r="G115" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H115" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
@@ -2934,7 +2934,7 @@
         <v>70</v>
       </c>
       <c r="C116" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
@@ -2942,15 +2942,15 @@
         <v>91</v>
       </c>
       <c r="G117" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H117" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
@@ -2958,10 +2958,10 @@
         <v>91</v>
       </c>
       <c r="G119" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H119" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
@@ -2974,7 +2974,7 @@
         <v>70</v>
       </c>
       <c r="C121" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
@@ -2982,15 +2982,15 @@
         <v>91</v>
       </c>
       <c r="G122" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H122" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
@@ -2998,10 +2998,10 @@
         <v>91</v>
       </c>
       <c r="G124" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H124" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
@@ -3015,10 +3015,10 @@
       </c>
       <c r="E126" s="4"/>
       <c r="G126" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H126" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.25">
@@ -3026,10 +3026,10 @@
         <v>91</v>
       </c>
       <c r="G127" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H127" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.25">
@@ -3037,10 +3037,10 @@
         <v>91</v>
       </c>
       <c r="G128" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H128" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.25">
@@ -3048,10 +3048,10 @@
         <v>95</v>
       </c>
       <c r="F129" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I129" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.25">
@@ -3065,7 +3065,7 @@
         <v>70</v>
       </c>
       <c r="C131" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G131" s="11"/>
     </row>
@@ -3079,7 +3079,7 @@
         <v>70</v>
       </c>
       <c r="C133" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.25">
@@ -3087,10 +3087,10 @@
         <v>91</v>
       </c>
       <c r="G134" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H134" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="135" spans="2:11" x14ac:dyDescent="0.25">
@@ -3098,7 +3098,7 @@
         <v>95</v>
       </c>
       <c r="F135" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I135">
         <v>7</v>
@@ -3106,7 +3106,7 @@
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="137" spans="2:11" ht="45" x14ac:dyDescent="0.25">
@@ -3117,19 +3117,19 @@
         <v>43</v>
       </c>
       <c r="F137" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J137" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="138" spans="2:11" x14ac:dyDescent="0.25">
@@ -3137,7 +3137,7 @@
         <v>70</v>
       </c>
       <c r="C138" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E138" s="4"/>
     </row>
@@ -3147,10 +3147,10 @@
       </c>
       <c r="E139" s="4"/>
       <c r="G139" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H139" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.25">
@@ -3159,7 +3159,7 @@
       </c>
       <c r="E140" s="4"/>
       <c r="F140" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I140">
         <v>4</v>
@@ -3177,10 +3177,10 @@
       </c>
       <c r="E142" s="4"/>
       <c r="G142" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H142" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.25">
@@ -3188,7 +3188,7 @@
         <v>70</v>
       </c>
       <c r="C143" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="144" spans="2:11" x14ac:dyDescent="0.25">
@@ -3196,15 +3196,15 @@
         <v>91</v>
       </c>
       <c r="G144" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H144" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.25">
@@ -3212,10 +3212,10 @@
         <v>91</v>
       </c>
       <c r="G146" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H146" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.25">
@@ -3228,7 +3228,7 @@
         <v>70</v>
       </c>
       <c r="C148" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.25">
@@ -3236,15 +3236,15 @@
         <v>91</v>
       </c>
       <c r="G149" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H149" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.25">
@@ -3252,10 +3252,10 @@
         <v>91</v>
       </c>
       <c r="G151" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H151" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.25">
@@ -3269,10 +3269,10 @@
       </c>
       <c r="E153" s="4"/>
       <c r="G153" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H153" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.25">
@@ -3280,10 +3280,10 @@
         <v>91</v>
       </c>
       <c r="G154" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H154" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.25">
@@ -3291,10 +3291,10 @@
         <v>91</v>
       </c>
       <c r="G155" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H155" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.25">
@@ -3302,10 +3302,10 @@
         <v>95</v>
       </c>
       <c r="F156" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I156" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.25">
@@ -3323,7 +3323,7 @@
         <v>70</v>
       </c>
       <c r="C159" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.25">
@@ -3336,7 +3336,7 @@
         <v>70</v>
       </c>
       <c r="C161" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="162" spans="2:11" x14ac:dyDescent="0.25">
@@ -3344,10 +3344,10 @@
         <v>91</v>
       </c>
       <c r="G162" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H162" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="163" spans="2:11" x14ac:dyDescent="0.25">
@@ -3355,7 +3355,7 @@
         <v>95</v>
       </c>
       <c r="F163" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I163">
         <v>7</v>
@@ -3363,7 +3363,7 @@
     </row>
     <row r="164" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="165" spans="2:11" ht="45" x14ac:dyDescent="0.25">
@@ -3374,19 +3374,19 @@
         <v>43</v>
       </c>
       <c r="F165" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="J165" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="166" spans="2:11" x14ac:dyDescent="0.25">
@@ -3394,7 +3394,7 @@
         <v>70</v>
       </c>
       <c r="C166" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E166" s="4"/>
     </row>
@@ -3404,10 +3404,10 @@
       </c>
       <c r="E167" s="4"/>
       <c r="G167" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H167" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="168" spans="2:11" x14ac:dyDescent="0.25">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="E168" s="4"/>
       <c r="F168" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I168">
         <v>4</v>
@@ -3434,10 +3434,10 @@
       </c>
       <c r="E170" s="4"/>
       <c r="G170" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H170" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="171" spans="2:11" x14ac:dyDescent="0.25">
@@ -3445,7 +3445,7 @@
         <v>70</v>
       </c>
       <c r="C171" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="172" spans="2:11" x14ac:dyDescent="0.25">
@@ -3453,15 +3453,15 @@
         <v>91</v>
       </c>
       <c r="G172" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H172" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="173" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="174" spans="2:11" x14ac:dyDescent="0.25">
@@ -3469,10 +3469,10 @@
         <v>91</v>
       </c>
       <c r="G174" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H174" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="175" spans="2:11" x14ac:dyDescent="0.25">
@@ -3485,7 +3485,7 @@
         <v>70</v>
       </c>
       <c r="C176" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -3493,15 +3493,15 @@
         <v>91</v>
       </c>
       <c r="G177" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H177" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
@@ -3509,10 +3509,10 @@
         <v>91</v>
       </c>
       <c r="G179" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H179" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
@@ -3526,10 +3526,10 @@
       </c>
       <c r="E181" s="4"/>
       <c r="G181" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H181" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
@@ -3537,10 +3537,10 @@
         <v>91</v>
       </c>
       <c r="G182" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H182" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
@@ -3548,10 +3548,10 @@
         <v>91</v>
       </c>
       <c r="G183" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H183" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
@@ -3559,10 +3559,10 @@
         <v>95</v>
       </c>
       <c r="F184" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I184" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -3592,13 +3592,13 @@
     </row>
     <row r="190" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B190" s="14" t="s">
         <v>70</v>
       </c>
       <c r="C190" s="14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
@@ -3614,19 +3614,19 @@
         <v>43</v>
       </c>
       <c r="F192" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H192" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J192" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K192" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="193" spans="2:9" x14ac:dyDescent="0.25">
@@ -3634,7 +3634,7 @@
         <v>70</v>
       </c>
       <c r="C193" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E193" s="4"/>
     </row>
@@ -3644,10 +3644,10 @@
       </c>
       <c r="E194" s="4"/>
       <c r="G194" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H194" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="195" spans="2:9" x14ac:dyDescent="0.25">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="E195" s="4"/>
       <c r="F195" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I195">
         <v>4</v>
@@ -3674,10 +3674,10 @@
       </c>
       <c r="E197" s="4"/>
       <c r="G197" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H197" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="198" spans="2:9" x14ac:dyDescent="0.25">
@@ -3685,7 +3685,7 @@
         <v>70</v>
       </c>
       <c r="C198" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="199" spans="2:9" x14ac:dyDescent="0.25">
@@ -3693,15 +3693,15 @@
         <v>91</v>
       </c>
       <c r="G199" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H199" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="200" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="201" spans="2:9" x14ac:dyDescent="0.25">
@@ -3709,10 +3709,10 @@
         <v>91</v>
       </c>
       <c r="G201" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H201" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="202" spans="2:9" x14ac:dyDescent="0.25">
@@ -3725,7 +3725,7 @@
         <v>70</v>
       </c>
       <c r="C203" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="204" spans="2:9" x14ac:dyDescent="0.25">
@@ -3733,15 +3733,15 @@
         <v>91</v>
       </c>
       <c r="G204" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H204" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="205" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="206" spans="2:9" x14ac:dyDescent="0.25">
@@ -3749,10 +3749,10 @@
         <v>91</v>
       </c>
       <c r="G206" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H206" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="207" spans="2:9" x14ac:dyDescent="0.25">
@@ -3766,10 +3766,10 @@
       </c>
       <c r="E208" s="4"/>
       <c r="G208" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H208" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="209" spans="2:11" x14ac:dyDescent="0.25">
@@ -3777,10 +3777,10 @@
         <v>91</v>
       </c>
       <c r="G209" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H209" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="210" spans="2:11" x14ac:dyDescent="0.25">
@@ -3788,10 +3788,10 @@
         <v>91</v>
       </c>
       <c r="G210" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H210" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="211" spans="2:11" x14ac:dyDescent="0.25">
@@ -3799,10 +3799,10 @@
         <v>95</v>
       </c>
       <c r="F211" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I211" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="212" spans="2:11" x14ac:dyDescent="0.25">
@@ -3816,7 +3816,7 @@
         <v>70</v>
       </c>
       <c r="C213" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G213" s="11"/>
     </row>
@@ -3830,7 +3830,7 @@
         <v>70</v>
       </c>
       <c r="C215" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="216" spans="2:11" x14ac:dyDescent="0.25">
@@ -3838,10 +3838,10 @@
         <v>91</v>
       </c>
       <c r="G216" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H216" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="217" spans="2:11" x14ac:dyDescent="0.25">
@@ -3849,7 +3849,7 @@
         <v>95</v>
       </c>
       <c r="F217" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I217">
         <v>7</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="218" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="219" spans="2:11" ht="45" x14ac:dyDescent="0.25">
@@ -3868,19 +3868,19 @@
         <v>43</v>
       </c>
       <c r="F219" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G219" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H219" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J219" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K219" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="220" spans="2:11" x14ac:dyDescent="0.25">
@@ -3888,7 +3888,7 @@
         <v>70</v>
       </c>
       <c r="C220" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E220" s="4"/>
     </row>
@@ -3898,10 +3898,10 @@
       </c>
       <c r="E221" s="4"/>
       <c r="G221" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H221" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="222" spans="2:11" x14ac:dyDescent="0.25">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="E222" s="4"/>
       <c r="F222" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I222">
         <v>4</v>
@@ -3928,10 +3928,10 @@
       </c>
       <c r="E224" s="4"/>
       <c r="G224" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H224" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="225" spans="2:9" x14ac:dyDescent="0.25">
@@ -3939,7 +3939,7 @@
         <v>70</v>
       </c>
       <c r="C225" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="226" spans="2:9" x14ac:dyDescent="0.25">
@@ -3947,15 +3947,15 @@
         <v>91</v>
       </c>
       <c r="G226" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H226" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.25">
@@ -3963,10 +3963,10 @@
         <v>91</v>
       </c>
       <c r="G228" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H228" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="229" spans="2:9" x14ac:dyDescent="0.25">
@@ -3979,7 +3979,7 @@
         <v>70</v>
       </c>
       <c r="C230" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.25">
@@ -3987,15 +3987,15 @@
         <v>91</v>
       </c>
       <c r="G231" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H231" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="232" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="233" spans="2:9" x14ac:dyDescent="0.25">
@@ -4003,10 +4003,10 @@
         <v>91</v>
       </c>
       <c r="G233" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H233" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="234" spans="2:9" x14ac:dyDescent="0.25">
@@ -4020,10 +4020,10 @@
       </c>
       <c r="E235" s="4"/>
       <c r="G235" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H235" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="236" spans="2:9" x14ac:dyDescent="0.25">
@@ -4031,10 +4031,10 @@
         <v>91</v>
       </c>
       <c r="G236" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H236" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="237" spans="2:9" x14ac:dyDescent="0.25">
@@ -4042,10 +4042,10 @@
         <v>91</v>
       </c>
       <c r="G237" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H237" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="238" spans="2:9" x14ac:dyDescent="0.25">
@@ -4053,10 +4053,10 @@
         <v>95</v>
       </c>
       <c r="F238" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I238" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.25">
@@ -4074,7 +4074,7 @@
         <v>70</v>
       </c>
       <c r="C241" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="242" spans="2:11" x14ac:dyDescent="0.25">
@@ -4087,7 +4087,7 @@
         <v>70</v>
       </c>
       <c r="C243" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="244" spans="2:11" x14ac:dyDescent="0.25">
@@ -4095,10 +4095,10 @@
         <v>91</v>
       </c>
       <c r="G244" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H244" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="245" spans="2:11" x14ac:dyDescent="0.25">
@@ -4106,7 +4106,7 @@
         <v>95</v>
       </c>
       <c r="F245" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I245">
         <v>7</v>
@@ -4114,7 +4114,7 @@
     </row>
     <row r="246" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="247" spans="2:11" ht="45" x14ac:dyDescent="0.25">
@@ -4125,19 +4125,19 @@
         <v>43</v>
       </c>
       <c r="F247" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G247" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H247" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="J247" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K247" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="248" spans="2:11" x14ac:dyDescent="0.25">
@@ -4145,7 +4145,7 @@
         <v>70</v>
       </c>
       <c r="C248" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E248" s="4"/>
     </row>
@@ -4155,10 +4155,10 @@
       </c>
       <c r="E249" s="4"/>
       <c r="G249" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H249" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="250" spans="2:11" x14ac:dyDescent="0.25">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="E250" s="4"/>
       <c r="F250" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I250">
         <v>4</v>
@@ -4185,10 +4185,10 @@
       </c>
       <c r="E252" s="4"/>
       <c r="G252" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H252" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="253" spans="2:11" x14ac:dyDescent="0.25">
@@ -4196,7 +4196,7 @@
         <v>70</v>
       </c>
       <c r="C253" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="254" spans="2:11" x14ac:dyDescent="0.25">
@@ -4204,15 +4204,15 @@
         <v>91</v>
       </c>
       <c r="G254" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H254" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="255" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="256" spans="2:11" x14ac:dyDescent="0.25">
@@ -4220,10 +4220,10 @@
         <v>91</v>
       </c>
       <c r="G256" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H256" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="257" spans="2:9" x14ac:dyDescent="0.25">
@@ -4236,7 +4236,7 @@
         <v>70</v>
       </c>
       <c r="C258" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="259" spans="2:9" x14ac:dyDescent="0.25">
@@ -4244,15 +4244,15 @@
         <v>91</v>
       </c>
       <c r="G259" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H259" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="260" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="261" spans="2:9" x14ac:dyDescent="0.25">
@@ -4260,10 +4260,10 @@
         <v>91</v>
       </c>
       <c r="G261" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H261" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="262" spans="2:9" x14ac:dyDescent="0.25">
@@ -4277,10 +4277,10 @@
       </c>
       <c r="E263" s="4"/>
       <c r="G263" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H263" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="264" spans="2:9" x14ac:dyDescent="0.25">
@@ -4288,10 +4288,10 @@
         <v>91</v>
       </c>
       <c r="G264" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H264" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="265" spans="2:9" x14ac:dyDescent="0.25">
@@ -4299,10 +4299,10 @@
         <v>91</v>
       </c>
       <c r="G265" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H265" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="266" spans="2:9" x14ac:dyDescent="0.25">
@@ -4310,10 +4310,10 @@
         <v>95</v>
       </c>
       <c r="F266" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I266" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="267" spans="2:9" x14ac:dyDescent="0.25">
@@ -4346,12 +4346,12 @@
         <v>70</v>
       </c>
       <c r="C272" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.25">
@@ -4369,9 +4369,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H97" sqref="H97"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4422,22 +4422,22 @@
         <v>21</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>167</v>
-      </c>
       <c r="O1" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -4456,7 +4456,7 @@
         <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H3" t="s">
         <v>48</v>
@@ -4486,7 +4486,7 @@
         <v>152</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -4505,19 +4505,19 @@
         <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K8" t="s">
+        <v>251</v>
+      </c>
+      <c r="L8" t="s">
         <v>252</v>
-      </c>
-      <c r="L8" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -4571,7 +4571,7 @@
         <v>117</v>
       </c>
       <c r="G14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H14" t="s">
         <v>113</v>
@@ -4591,13 +4591,13 @@
         <v>115</v>
       </c>
       <c r="J15" t="s">
+        <v>253</v>
+      </c>
+      <c r="K15" t="s">
         <v>254</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>255</v>
-      </c>
-      <c r="L15" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -4634,7 +4634,7 @@
         <v>153</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -4683,7 +4683,7 @@
         <v>155</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -4712,7 +4712,7 @@
         <v>122</v>
       </c>
       <c r="G29" t="s">
-        <v>156</v>
+        <v>399</v>
       </c>
       <c r="H29" t="s">
         <v>67</v>
@@ -4737,10 +4737,10 @@
         <v>123</v>
       </c>
       <c r="G31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -4775,19 +4775,19 @@
         <v>69</v>
       </c>
       <c r="G36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J36" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K36" t="s">
+        <v>251</v>
+      </c>
+      <c r="L36" t="s">
         <v>252</v>
-      </c>
-      <c r="L36" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
@@ -4795,7 +4795,7 @@
         <v>91</v>
       </c>
       <c r="G37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>73</v>
@@ -4806,16 +4806,16 @@
         <v>137</v>
       </c>
       <c r="E38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F38" t="s">
+        <v>181</v>
+      </c>
+      <c r="G38" t="s">
         <v>182</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>183</v>
-      </c>
-      <c r="H38" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
@@ -4823,19 +4823,19 @@
         <v>137</v>
       </c>
       <c r="E39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F39" t="s">
         <v>72</v>
       </c>
       <c r="G39" t="s">
+        <v>179</v>
+      </c>
+      <c r="H39" t="s">
         <v>180</v>
       </c>
-      <c r="H39" t="s">
-        <v>181</v>
-      </c>
       <c r="O39" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
@@ -4843,10 +4843,10 @@
         <v>56</v>
       </c>
       <c r="E40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J40" s="13"/>
     </row>
@@ -4855,7 +4855,7 @@
         <v>70</v>
       </c>
       <c r="C41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J41" s="13"/>
     </row>
@@ -4867,7 +4867,7 @@
         <v>72</v>
       </c>
       <c r="I42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J42" s="13"/>
     </row>
@@ -4897,10 +4897,10 @@
         <v>74</v>
       </c>
       <c r="G46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
@@ -4911,10 +4911,10 @@
         <v>75</v>
       </c>
       <c r="G47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
@@ -4960,10 +4960,10 @@
         <v>76</v>
       </c>
       <c r="G52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
@@ -4998,19 +4998,19 @@
         <v>77</v>
       </c>
       <c r="G57" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H57" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J57" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K57" t="s">
+        <v>251</v>
+      </c>
+      <c r="L57" t="s">
         <v>252</v>
-      </c>
-      <c r="L57" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
@@ -5018,10 +5018,10 @@
         <v>91</v>
       </c>
       <c r="G58" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
@@ -5029,16 +5029,16 @@
         <v>137</v>
       </c>
       <c r="E59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F59" t="s">
+        <v>202</v>
+      </c>
+      <c r="G59" t="s">
         <v>203</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>204</v>
-      </c>
-      <c r="H59" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
@@ -5046,19 +5046,19 @@
         <v>137</v>
       </c>
       <c r="E60" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F60" t="s">
         <v>80</v>
       </c>
       <c r="G60" t="s">
+        <v>205</v>
+      </c>
+      <c r="H60" t="s">
         <v>206</v>
       </c>
-      <c r="H60" t="s">
-        <v>207</v>
-      </c>
       <c r="O60" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
@@ -5066,10 +5066,10 @@
         <v>56</v>
       </c>
       <c r="E61" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F61" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J61" s="13"/>
     </row>
@@ -5078,7 +5078,7 @@
         <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J62" s="13"/>
     </row>
@@ -5090,7 +5090,7 @@
         <v>80</v>
       </c>
       <c r="I63" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J63" s="13"/>
     </row>
@@ -5120,10 +5120,10 @@
         <v>78</v>
       </c>
       <c r="G67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
@@ -5134,10 +5134,10 @@
         <v>94</v>
       </c>
       <c r="G68" t="s">
+        <v>216</v>
+      </c>
+      <c r="H68" t="s">
         <v>217</v>
-      </c>
-      <c r="H68" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
@@ -5187,10 +5187,10 @@
         <v>82</v>
       </c>
       <c r="G74" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
@@ -5225,13 +5225,13 @@
         <v>84</v>
       </c>
       <c r="G79" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J79" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
@@ -5239,7 +5239,7 @@
         <v>91</v>
       </c>
       <c r="G80" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>85</v>
@@ -5250,16 +5250,16 @@
         <v>137</v>
       </c>
       <c r="E81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F81" t="s">
+        <v>218</v>
+      </c>
+      <c r="G81" t="s">
         <v>219</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>220</v>
-      </c>
-      <c r="H81" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.25">
@@ -5267,19 +5267,19 @@
         <v>137</v>
       </c>
       <c r="E82" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F82" t="s">
         <v>86</v>
       </c>
       <c r="G82" t="s">
+        <v>221</v>
+      </c>
+      <c r="H82" t="s">
         <v>222</v>
       </c>
-      <c r="H82" t="s">
+      <c r="O82" s="13" t="s">
         <v>223</v>
-      </c>
-      <c r="O82" s="13" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.25">
@@ -5287,10 +5287,10 @@
         <v>56</v>
       </c>
       <c r="E83" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F83" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J83" s="13"/>
     </row>
@@ -5299,7 +5299,7 @@
         <v>70</v>
       </c>
       <c r="C84" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J84" s="13"/>
     </row>
@@ -5311,7 +5311,7 @@
         <v>86</v>
       </c>
       <c r="I85" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J85" s="13"/>
     </row>
@@ -5341,10 +5341,10 @@
         <v>87</v>
       </c>
       <c r="G89" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.25">
@@ -5355,10 +5355,10 @@
         <v>88</v>
       </c>
       <c r="G90" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.25">
@@ -5413,10 +5413,10 @@
         <v>90</v>
       </c>
       <c r="G97" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
@@ -5466,10 +5466,10 @@
         <v>144</v>
       </c>
       <c r="G101" t="s">
+        <v>241</v>
+      </c>
+      <c r="H101" t="s">
         <v>242</v>
-      </c>
-      <c r="H101" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
@@ -5511,44 +5511,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" t="s">
         <v>197</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" t="s">
         <v>197</v>
       </c>
-      <c r="C3" t="s">
-        <v>198</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -5560,7 +5560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
@@ -5596,7 +5596,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -5611,7 +5611,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>45</v>
@@ -5626,10 +5626,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5641,10 +5641,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -5716,7 +5716,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>133</v>
@@ -5731,7 +5731,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>134</v>
@@ -5827,13 +5827,13 @@
         <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5861,7 +5861,7 @@
         <v>147</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5887,7 +5887,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>133</v>
@@ -5902,7 +5902,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>134</v>
@@ -5917,10 +5917,10 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D24" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5932,10 +5932,10 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D25" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -5947,10 +5947,10 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D26" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5962,10 +5962,10 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D27" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -6046,7 +6046,7 @@
         <v>125</v>
       </c>
       <c r="D32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -6081,22 +6081,22 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B35" t="str">
         <f>"88888"</f>
         <v>88888</v>
       </c>
       <c r="C35" t="s">
+        <v>190</v>
+      </c>
+      <c r="D35" t="s">
         <v>191</v>
-      </c>
-      <c r="D35" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B36" t="str">
         <f>"77777"</f>
@@ -6118,10 +6118,10 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D37" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -6133,10 +6133,10 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D38" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -6148,10 +6148,10 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D39" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -6163,10 +6163,10 @@
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D40" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -6178,10 +6178,10 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -6193,10 +6193,10 @@
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D42" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -6208,10 +6208,10 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -6223,10 +6223,10 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D44" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -6238,10 +6238,10 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -6253,10 +6253,10 @@
         <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -6268,10 +6268,10 @@
         <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D47" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -6283,10 +6283,10 @@
         <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D48" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -6620,66 +6620,66 @@
     </row>
     <row r="2" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>330</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -6771,7 +6771,7 @@
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>97</v>
@@ -6780,12 +6780,12 @@
         <v>0</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>97</v>
@@ -6796,7 +6796,7 @@
     </row>
     <row r="4" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>97</v>
@@ -6807,7 +6807,7 @@
     </row>
     <row r="5" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>42</v>
@@ -6818,7 +6818,7 @@
     </row>
     <row r="6" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>42</v>
@@ -6829,7 +6829,7 @@
     </row>
     <row r="7" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>42</v>
@@ -6840,7 +6840,7 @@
     </row>
     <row r="8" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>42</v>
@@ -6851,7 +6851,7 @@
     </row>
     <row r="9" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>42</v>
@@ -6862,7 +6862,7 @@
     </row>
     <row r="10" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>42</v>
@@ -6873,7 +6873,7 @@
     </row>
     <row r="11" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>42</v>
@@ -6884,7 +6884,7 @@
     </row>
     <row r="12" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>42</v>
@@ -6895,7 +6895,7 @@
     </row>
     <row r="13" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>42</v>
@@ -6906,7 +6906,7 @@
     </row>
     <row r="14" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>29</v>
@@ -6917,7 +6917,7 @@
     </row>
     <row r="15" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>29</v>
@@ -6928,7 +6928,7 @@
     </row>
     <row r="16" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>29</v>
@@ -6939,7 +6939,7 @@
     </row>
     <row r="17" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>95</v>
@@ -6951,7 +6951,7 @@
     <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -6960,7 +6960,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -7086,7 +7086,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
@@ -7108,7 +7108,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B33" t="s">
         <v>56</v>
@@ -7130,7 +7130,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B35" t="s">
         <v>56</v>
@@ -7295,7 +7295,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B50" t="s">
         <v>137</v>
@@ -7308,7 +7308,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B51" t="s">
         <v>137</v>
@@ -7321,7 +7321,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B52" t="s">
         <v>137</v>
@@ -7387,7 +7387,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>46</v>
@@ -7396,12 +7396,12 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>46</v>
@@ -7412,7 +7412,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>46</v>
@@ -7423,7 +7423,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B62" t="s">
         <v>29</v>
@@ -7445,7 +7445,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B64" t="s">
         <v>46</v>
@@ -7456,7 +7456,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>46</v>
@@ -7467,7 +7467,7 @@
     </row>
     <row r="66" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>46</v>
@@ -7478,7 +7478,7 @@
     </row>
     <row r="67" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>41</v>
@@ -7489,7 +7489,7 @@
     </row>
     <row r="68" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B68" t="s">
         <v>41</v>
@@ -7500,7 +7500,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B69" t="s">
         <v>41</v>
@@ -7511,7 +7511,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B70" t="s">
         <v>41</v>
@@ -7522,7 +7522,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B71" t="s">
         <v>42</v>
@@ -7533,7 +7533,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B72" t="s">
         <v>41</v>
@@ -7544,7 +7544,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B73" t="s">
         <v>41</v>
@@ -7555,7 +7555,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B74" t="s">
         <v>41</v>
@@ -7566,7 +7566,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>46</v>
@@ -7577,7 +7577,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>46</v>
@@ -7588,7 +7588,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>46</v>

--- a/app/config/tables/MADTRIAL_FU_PHONE/Forms/MADTRIAL_FU_PHONE/MADTRIAL_FU_PHONE.xlsx
+++ b/app/config/tables/MADTRIAL_FU_PHONE/Forms/MADTRIAL_FU_PHONE/MADTRIAL_FU_PHONE.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89CDCB8-3A3A-48BD-88AF-DCBE6985EAAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934D434D-85E6-4B6D-A8A6-CEA599D7AE2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="403">
   <si>
     <t>setting_name</t>
   </si>
@@ -1200,18 +1200,6 @@
     <t xml:space="preserve">3ª chamada - número: &lt;b&gt;Não tem&lt;/b&gt; </t>
   </si>
   <si>
-    <t>Eduardo Gomes</t>
-  </si>
-  <si>
-    <t>Igualdino S. Borges</t>
-  </si>
-  <si>
-    <t>Jailson Sydenei Dias Martins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laerte Lima Almeida </t>
-  </si>
-  <si>
     <t>Português</t>
   </si>
   <si>
@@ -1252,6 +1240,27 @@
   </si>
   <si>
     <t>Has the child been admitted to hospital since being vaccinated against measles at Simão Mendes?</t>
+  </si>
+  <si>
+    <t>Suzete</t>
+  </si>
+  <si>
+    <t>Justiniano</t>
+  </si>
+  <si>
+    <t>Igualdino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laerte </t>
+  </si>
+  <si>
+    <t>Laerte</t>
+  </si>
+  <si>
+    <t>Jailson</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
   </si>
 </sst>
 </file>
@@ -1738,7 +1747,7 @@
         <v>293</v>
       </c>
       <c r="D5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1749,7 +1758,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2124,7 +2133,7 @@
         <v>167</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2378,7 +2387,7 @@
         <v>167</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
@@ -2635,7 +2644,7 @@
         <v>167</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
@@ -2875,7 +2884,7 @@
         <v>167</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -3129,7 +3138,7 @@
         <v>167</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="138" spans="2:11" x14ac:dyDescent="0.25">
@@ -3386,7 +3395,7 @@
         <v>167</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="166" spans="2:11" x14ac:dyDescent="0.25">
@@ -3626,7 +3635,7 @@
         <v>167</v>
       </c>
       <c r="K192" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="193" spans="2:9" x14ac:dyDescent="0.25">
@@ -3880,7 +3889,7 @@
         <v>167</v>
       </c>
       <c r="K219" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="220" spans="2:11" x14ac:dyDescent="0.25">
@@ -4137,7 +4146,7 @@
         <v>167</v>
       </c>
       <c r="K247" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="248" spans="2:11" x14ac:dyDescent="0.25">
@@ -4369,7 +4378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
@@ -4486,7 +4495,7 @@
         <v>152</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -4634,7 +4643,7 @@
         <v>153</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -4683,7 +4692,7 @@
         <v>155</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -4712,7 +4721,7 @@
         <v>122</v>
       </c>
       <c r="G29" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H29" t="s">
         <v>67</v>
@@ -4740,7 +4749,7 @@
         <v>156</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -4963,7 +4972,7 @@
         <v>159</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
@@ -5190,7 +5199,7 @@
         <v>160</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
@@ -5416,7 +5425,7 @@
         <v>161</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
@@ -5558,11 +5567,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5629,7 +5638,7 @@
         <v>238</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5644,7 +5653,7 @@
         <v>237</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -5861,7 +5870,7 @@
         <v>147</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5909,7 +5918,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B24" t="str">
@@ -5917,14 +5926,14 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="D24" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B25" t="str">
@@ -5932,14 +5941,14 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="D25" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B26" t="str">
@@ -5947,14 +5956,14 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D26" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B27" t="str">
@@ -5962,59 +5971,55 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="D27" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" t="str">
+        <f>"11"</f>
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>396</v>
+      </c>
+      <c r="D28" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" t="str">
+        <f>"12"</f>
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>397</v>
+      </c>
+      <c r="D29" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>108</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B30" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>109</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D30" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>124</v>
-      </c>
-      <c r="B29" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C29" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="D29" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>124</v>
-      </c>
-      <c r="B30" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C30" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="D30" t="str">
-        <f>"2"</f>
-        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -6022,16 +6027,16 @@
         <v>124</v>
       </c>
       <c r="B31" t="str">
-        <f>"3"</f>
-        <v>3</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C31" t="str">
-        <f>"3"</f>
-        <v>3</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="D31" t="str">
-        <f>"3"</f>
-        <v>3</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -6039,14 +6044,16 @@
         <v>124</v>
       </c>
       <c r="B32" t="str">
-        <f>"77"</f>
-        <v>77</v>
-      </c>
-      <c r="C32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D32" t="s">
-        <v>240</v>
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C32" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="D32" t="str">
+        <f>"2"</f>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -6054,89 +6061,91 @@
         <v>124</v>
       </c>
       <c r="B33" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C33" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="D33" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" t="str">
+        <f>"77"</f>
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>109</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D35" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>127</v>
       </c>
-      <c r="B34" t="str">
+      <c r="B36" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>128</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D36" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>189</v>
       </c>
-      <c r="B35" t="str">
+      <c r="B37" t="str">
         <f>"88888"</f>
         <v>88888</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C37" t="s">
         <v>190</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D37" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>189</v>
       </c>
-      <c r="B36" t="str">
+      <c r="B38" t="str">
         <f>"77777"</f>
         <v>77777</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>109</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D38" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B37" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>334</v>
-      </c>
-      <c r="D37" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>138</v>
-      </c>
-      <c r="B38" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>243</v>
-      </c>
-      <c r="D38" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -6144,14 +6153,14 @@
         <v>138</v>
       </c>
       <c r="B39" t="str">
-        <f>"4"</f>
-        <v>4</v>
+        <f>"3"</f>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -6159,14 +6168,14 @@
         <v>138</v>
       </c>
       <c r="B40" t="str">
-        <f>"2"</f>
-        <v>2</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -6174,14 +6183,14 @@
         <v>138</v>
       </c>
       <c r="B41" t="str">
-        <f>"7"</f>
-        <v>7</v>
+        <f>"4"</f>
+        <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>246</v>
+        <v>336</v>
       </c>
       <c r="D41" t="s">
-        <v>246</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -6189,14 +6198,14 @@
         <v>138</v>
       </c>
       <c r="B42" t="str">
-        <f>"15"</f>
-        <v>15</v>
+        <f>"2"</f>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>337</v>
+        <v>244</v>
       </c>
       <c r="D42" t="s">
-        <v>337</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -6204,14 +6213,14 @@
         <v>138</v>
       </c>
       <c r="B43" t="str">
-        <f>"8"</f>
-        <v>8</v>
+        <f>"7"</f>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -6219,14 +6228,14 @@
         <v>138</v>
       </c>
       <c r="B44" t="str">
-        <f>"5"</f>
-        <v>5</v>
+        <f>"15"</f>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>245</v>
+        <v>337</v>
       </c>
       <c r="D44" t="s">
-        <v>245</v>
+        <v>337</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -6234,14 +6243,14 @@
         <v>138</v>
       </c>
       <c r="B45" t="str">
-        <f>"11"</f>
-        <v>11</v>
+        <f>"8"</f>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D45" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -6249,14 +6258,14 @@
         <v>138</v>
       </c>
       <c r="B46" t="str">
-        <f>"12"</f>
-        <v>12</v>
+        <f>"5"</f>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D46" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -6264,14 +6273,14 @@
         <v>138</v>
       </c>
       <c r="B47" t="str">
-        <f>"13"</f>
-        <v>13</v>
+        <f>"11"</f>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>335</v>
+        <v>248</v>
       </c>
       <c r="D47" t="s">
-        <v>335</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -6279,21 +6288,45 @@
         <v>138</v>
       </c>
       <c r="B48" t="str">
+        <f>"12"</f>
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>249</v>
+      </c>
+      <c r="D48" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" t="str">
+        <f>"13"</f>
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>335</v>
+      </c>
+      <c r="D49" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" t="str">
         <f>"14"</f>
         <v>14</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C50" t="s">
         <v>250</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D50" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
@@ -6315,13 +6348,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
-      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="8"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="8"/>
+      <c r="A59" s="4"/>
+      <c r="D59" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" s="8"/>
@@ -6412,11 +6445,9 @@
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="8"/>
@@ -6439,6 +6470,7 @@
       <c r="C96" s="8"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" s="8"/>
       <c r="C97" s="8"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
@@ -6446,7 +6478,6 @@
       <c r="C98" s="8"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="8"/>
       <c r="C99" s="8"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
@@ -6515,9 +6546,11 @@
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="8"/>
@@ -6534,12 +6567,12 @@
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="8"/>
     </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B123" s="8"/>
+    </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="8"/>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B125" s="8"/>
-    </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="8"/>
     </row>
@@ -6587,6 +6620,12 @@
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" s="8"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="8"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/app/config/tables/MADTRIAL_FU_PHONE/Forms/MADTRIAL_FU_PHONE/MADTRIAL_FU_PHONE.xlsx
+++ b/app/config/tables/MADTRIAL_FU_PHONE/Forms/MADTRIAL_FU_PHONE/MADTRIAL_FU_PHONE.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934D434D-85E6-4B6D-A8A6-CEA599D7AE2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DF2F54-64D0-4146-B27D-438072C07C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="405">
   <si>
     <t>setting_name</t>
   </si>
@@ -1242,9 +1242,6 @@
     <t>Has the child been admitted to hospital since being vaccinated against measles at Simão Mendes?</t>
   </si>
   <si>
-    <t>Suzete</t>
-  </si>
-  <si>
     <t>Justiniano</t>
   </si>
   <si>
@@ -1261,6 +1258,15 @@
   </si>
   <si>
     <t>Eduardo</t>
+  </si>
+  <si>
+    <t>11 - Suzete removed 16-02-2022</t>
+  </si>
+  <si>
+    <t>Augusto da Costa</t>
+  </si>
+  <si>
+    <t>Abrao</t>
   </si>
 </sst>
 </file>
@@ -1683,16 +1689,16 @@
       <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1712,7 +1718,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1720,7 +1726,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1728,7 +1734,7 @@
         <v>60120</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1736,7 +1742,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1750,7 +1756,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1761,7 +1767,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1772,7 +1778,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
@@ -1798,22 +1804,22 @@
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.453125" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.1796875" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="69" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="82.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="82.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
@@ -1851,7 +1857,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>291</v>
       </c>
@@ -1862,12 +1868,12 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
         <v>95</v>
       </c>
@@ -1878,7 +1884,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>97</v>
       </c>
@@ -1895,7 +1901,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>95</v>
       </c>
@@ -1906,7 +1912,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>29</v>
       </c>
@@ -1923,17 +1929,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
         <v>292</v>
       </c>
@@ -1944,12 +1950,12 @@
         <v>345</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
         <v>95</v>
       </c>
@@ -1960,7 +1966,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
         <v>97</v>
       </c>
@@ -1977,7 +1983,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>95</v>
       </c>
@@ -1988,7 +1994,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>29</v>
       </c>
@@ -2005,17 +2011,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>290</v>
       </c>
@@ -2026,12 +2032,12 @@
         <v>346</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
         <v>95</v>
       </c>
@@ -2042,7 +2048,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
         <v>97</v>
       </c>
@@ -2059,7 +2065,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
         <v>95</v>
       </c>
@@ -2070,7 +2076,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
         <v>29</v>
       </c>
@@ -2087,17 +2093,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
         <v>291</v>
       </c>
@@ -2108,12 +2114,12 @@
         <v>344</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D28" t="s">
         <v>42</v>
       </c>
@@ -2136,7 +2142,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>70</v>
       </c>
@@ -2145,7 +2151,7 @@
       </c>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D30" t="s">
         <v>91</v>
       </c>
@@ -2157,7 +2163,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
         <v>95</v>
       </c>
@@ -2169,13 +2175,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>71</v>
       </c>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D33" t="s">
         <v>91</v>
       </c>
@@ -2187,7 +2193,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>70</v>
       </c>
@@ -2195,7 +2201,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
         <v>91</v>
       </c>
@@ -2206,12 +2212,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D37" t="s">
         <v>91</v>
       </c>
@@ -2222,12 +2228,12 @@
         <v>324</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>70</v>
       </c>
@@ -2235,7 +2241,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
         <v>91</v>
       </c>
@@ -2246,12 +2252,12 @@
         <v>319</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D42" t="s">
         <v>91</v>
       </c>
@@ -2262,12 +2268,12 @@
         <v>317</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D44" t="s">
         <v>91</v>
       </c>
@@ -2279,7 +2285,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D45" t="s">
         <v>91</v>
       </c>
@@ -2290,7 +2296,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D46" t="s">
         <v>91</v>
       </c>
@@ -2301,7 +2307,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D47" t="s">
         <v>95</v>
       </c>
@@ -2312,13 +2318,13 @@
         <v>347</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>38</v>
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>70</v>
       </c>
@@ -2327,12 +2333,12 @@
       </c>
       <c r="G49" s="11"/>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>70</v>
       </c>
@@ -2340,7 +2346,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D52" t="s">
         <v>91</v>
       </c>
@@ -2351,7 +2357,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D53" t="s">
         <v>95</v>
       </c>
@@ -2362,12 +2368,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="D55" t="s">
         <v>42</v>
       </c>
@@ -2390,7 +2396,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>70</v>
       </c>
@@ -2399,7 +2405,7 @@
       </c>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D57" t="s">
         <v>91</v>
       </c>
@@ -2411,7 +2417,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D58" t="s">
         <v>95</v>
       </c>
@@ -2423,13 +2429,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>71</v>
       </c>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D60" t="s">
         <v>91</v>
       </c>
@@ -2441,7 +2447,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>70</v>
       </c>
@@ -2449,7 +2455,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D62" t="s">
         <v>91</v>
       </c>
@@ -2460,12 +2466,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D64" t="s">
         <v>91</v>
       </c>
@@ -2476,12 +2482,12 @@
         <v>324</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>70</v>
       </c>
@@ -2489,7 +2495,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D67" t="s">
         <v>91</v>
       </c>
@@ -2500,12 +2506,12 @@
         <v>319</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D69" t="s">
         <v>91</v>
       </c>
@@ -2516,12 +2522,12 @@
         <v>317</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D71" t="s">
         <v>91</v>
       </c>
@@ -2533,7 +2539,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D72" t="s">
         <v>91</v>
       </c>
@@ -2544,7 +2550,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D73" t="s">
         <v>91</v>
       </c>
@@ -2555,7 +2561,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D74" t="s">
         <v>95</v>
       </c>
@@ -2566,17 +2572,17 @@
         <v>347</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>70</v>
       </c>
@@ -2584,12 +2590,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>70</v>
       </c>
@@ -2597,7 +2603,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D80" t="s">
         <v>91</v>
       </c>
@@ -2608,7 +2614,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D81" t="s">
         <v>95</v>
       </c>
@@ -2619,12 +2625,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="83" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="D83" t="s">
         <v>42</v>
       </c>
@@ -2647,7 +2653,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>70</v>
       </c>
@@ -2656,7 +2662,7 @@
       </c>
       <c r="E84" s="4"/>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D85" t="s">
         <v>91</v>
       </c>
@@ -2668,7 +2674,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D86" t="s">
         <v>95</v>
       </c>
@@ -2680,13 +2686,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>71</v>
       </c>
       <c r="E87" s="4"/>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D88" t="s">
         <v>91</v>
       </c>
@@ -2698,7 +2704,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>70</v>
       </c>
@@ -2706,7 +2712,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D90" t="s">
         <v>91</v>
       </c>
@@ -2717,12 +2723,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D92" t="s">
         <v>91</v>
       </c>
@@ -2733,12 +2739,12 @@
         <v>324</v>
       </c>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>70</v>
       </c>
@@ -2746,7 +2752,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D95" t="s">
         <v>91</v>
       </c>
@@ -2757,12 +2763,12 @@
         <v>319</v>
       </c>
     </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D97" t="s">
         <v>91</v>
       </c>
@@ -2773,12 +2779,12 @@
         <v>317</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D99" t="s">
         <v>91</v>
       </c>
@@ -2790,7 +2796,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D100" t="s">
         <v>91</v>
       </c>
@@ -2801,7 +2807,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D101" t="s">
         <v>91</v>
       </c>
@@ -2812,7 +2818,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D102" t="s">
         <v>95</v>
       </c>
@@ -2823,32 +2829,32 @@
         <v>347</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="16" t="s">
         <v>292</v>
       </c>
@@ -2859,12 +2865,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="D110" t="s">
         <v>42</v>
       </c>
@@ -2887,7 +2893,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>70</v>
       </c>
@@ -2896,7 +2902,7 @@
       </c>
       <c r="E111" s="4"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D112" t="s">
         <v>91</v>
       </c>
@@ -2908,7 +2914,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D113" t="s">
         <v>95</v>
       </c>
@@ -2920,13 +2926,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
         <v>71</v>
       </c>
       <c r="E114" s="4"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D115" t="s">
         <v>91</v>
       </c>
@@ -2938,7 +2944,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>70</v>
       </c>
@@ -2946,7 +2952,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D117" t="s">
         <v>91</v>
       </c>
@@ -2957,12 +2963,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D119" t="s">
         <v>91</v>
       </c>
@@ -2973,12 +2979,12 @@
         <v>324</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
         <v>70</v>
       </c>
@@ -2986,7 +2992,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D122" t="s">
         <v>91</v>
       </c>
@@ -2997,12 +3003,12 @@
         <v>319</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D124" t="s">
         <v>91</v>
       </c>
@@ -3013,12 +3019,12 @@
         <v>317</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D126" t="s">
         <v>91</v>
       </c>
@@ -3030,7 +3036,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D127" t="s">
         <v>91</v>
       </c>
@@ -3041,7 +3047,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D128" t="s">
         <v>91</v>
       </c>
@@ -3052,7 +3058,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D129" t="s">
         <v>95</v>
       </c>
@@ -3063,13 +3069,13 @@
         <v>348</v>
       </c>
     </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>38</v>
       </c>
       <c r="G130" s="11"/>
     </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
         <v>70</v>
       </c>
@@ -3078,12 +3084,12 @@
       </c>
       <c r="G131" s="11"/>
     </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
         <v>70</v>
       </c>
@@ -3091,7 +3097,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D134" t="s">
         <v>91</v>
       </c>
@@ -3102,7 +3108,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D135" t="s">
         <v>95</v>
       </c>
@@ -3113,12 +3119,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="137" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="D137" t="s">
         <v>42</v>
       </c>
@@ -3141,7 +3147,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
         <v>70</v>
       </c>
@@ -3150,7 +3156,7 @@
       </c>
       <c r="E138" s="4"/>
     </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D139" t="s">
         <v>91</v>
       </c>
@@ -3162,7 +3168,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D140" t="s">
         <v>95</v>
       </c>
@@ -3174,13 +3180,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
         <v>71</v>
       </c>
       <c r="E141" s="4"/>
     </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D142" t="s">
         <v>91</v>
       </c>
@@ -3192,7 +3198,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
         <v>70</v>
       </c>
@@ -3200,7 +3206,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D144" t="s">
         <v>91</v>
       </c>
@@ -3211,12 +3217,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D146" t="s">
         <v>91</v>
       </c>
@@ -3227,12 +3233,12 @@
         <v>324</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
         <v>70</v>
       </c>
@@ -3240,7 +3246,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D149" t="s">
         <v>91</v>
       </c>
@@ -3251,12 +3257,12 @@
         <v>319</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D151" t="s">
         <v>91</v>
       </c>
@@ -3267,12 +3273,12 @@
         <v>317</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D153" t="s">
         <v>91</v>
       </c>
@@ -3284,7 +3290,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D154" t="s">
         <v>91</v>
       </c>
@@ -3295,7 +3301,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D155" t="s">
         <v>91</v>
       </c>
@@ -3306,7 +3312,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D156" t="s">
         <v>95</v>
       </c>
@@ -3317,17 +3323,17 @@
         <v>348</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B157" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B159" t="s">
         <v>70</v>
       </c>
@@ -3335,12 +3341,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B160" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
         <v>70</v>
       </c>
@@ -3348,7 +3354,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D162" t="s">
         <v>91</v>
       </c>
@@ -3359,7 +3365,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D163" t="s">
         <v>95</v>
       </c>
@@ -3370,12 +3376,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B164" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="165" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="D165" t="s">
         <v>42</v>
       </c>
@@ -3398,7 +3404,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B166" t="s">
         <v>70</v>
       </c>
@@ -3407,7 +3413,7 @@
       </c>
       <c r="E166" s="4"/>
     </row>
-    <row r="167" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D167" t="s">
         <v>91</v>
       </c>
@@ -3419,7 +3425,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D168" t="s">
         <v>95</v>
       </c>
@@ -3431,13 +3437,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B169" t="s">
         <v>71</v>
       </c>
       <c r="E169" s="4"/>
     </row>
-    <row r="170" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D170" t="s">
         <v>91</v>
       </c>
@@ -3449,7 +3455,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="171" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B171" t="s">
         <v>70</v>
       </c>
@@ -3457,7 +3463,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="172" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D172" t="s">
         <v>91</v>
       </c>
@@ -3468,12 +3474,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="173" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B173" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="174" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D174" t="s">
         <v>91</v>
       </c>
@@ -3484,12 +3490,12 @@
         <v>324</v>
       </c>
     </row>
-    <row r="175" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B175" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="176" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B176" t="s">
         <v>70</v>
       </c>
@@ -3497,7 +3503,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D177" t="s">
         <v>91</v>
       </c>
@@ -3508,12 +3514,12 @@
         <v>319</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B178" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D179" t="s">
         <v>91</v>
       </c>
@@ -3524,12 +3530,12 @@
         <v>317</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B180" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D181" t="s">
         <v>91</v>
       </c>
@@ -3541,7 +3547,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D182" t="s">
         <v>91</v>
       </c>
@@ -3552,7 +3558,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D183" t="s">
         <v>91</v>
       </c>
@@ -3563,7 +3569,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D184" t="s">
         <v>95</v>
       </c>
@@ -3574,32 +3580,32 @@
         <v>348</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B185" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B186" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B187" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B188" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B189" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="190" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A190" s="17" t="s">
         <v>290</v>
       </c>
@@ -3610,12 +3616,12 @@
         <v>341</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B191" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="D192" t="s">
         <v>42</v>
       </c>
@@ -3638,7 +3644,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B193" t="s">
         <v>70</v>
       </c>
@@ -3647,7 +3653,7 @@
       </c>
       <c r="E193" s="4"/>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D194" t="s">
         <v>91</v>
       </c>
@@ -3659,7 +3665,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D195" t="s">
         <v>95</v>
       </c>
@@ -3671,13 +3677,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B196" t="s">
         <v>71</v>
       </c>
       <c r="E196" s="4"/>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D197" t="s">
         <v>91</v>
       </c>
@@ -3689,7 +3695,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B198" t="s">
         <v>70</v>
       </c>
@@ -3697,7 +3703,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D199" t="s">
         <v>91</v>
       </c>
@@ -3708,12 +3714,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B200" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D201" t="s">
         <v>91</v>
       </c>
@@ -3724,12 +3730,12 @@
         <v>324</v>
       </c>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B202" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B203" t="s">
         <v>70</v>
       </c>
@@ -3737,7 +3743,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D204" t="s">
         <v>91</v>
       </c>
@@ -3748,12 +3754,12 @@
         <v>319</v>
       </c>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B205" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D206" t="s">
         <v>91</v>
       </c>
@@ -3764,12 +3770,12 @@
         <v>317</v>
       </c>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B207" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D208" t="s">
         <v>91</v>
       </c>
@@ -3781,7 +3787,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="209" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D209" t="s">
         <v>91</v>
       </c>
@@ -3792,7 +3798,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="210" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D210" t="s">
         <v>91</v>
       </c>
@@ -3803,7 +3809,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="211" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D211" t="s">
         <v>95</v>
       </c>
@@ -3814,13 +3820,13 @@
         <v>349</v>
       </c>
     </row>
-    <row r="212" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B212" t="s">
         <v>38</v>
       </c>
       <c r="G212" s="11"/>
     </row>
-    <row r="213" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B213" t="s">
         <v>70</v>
       </c>
@@ -3829,12 +3835,12 @@
       </c>
       <c r="G213" s="11"/>
     </row>
-    <row r="214" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B214" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="215" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B215" t="s">
         <v>70</v>
       </c>
@@ -3842,7 +3848,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="216" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D216" t="s">
         <v>91</v>
       </c>
@@ -3853,7 +3859,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="217" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D217" t="s">
         <v>95</v>
       </c>
@@ -3864,12 +3870,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B218" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="219" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="D219" t="s">
         <v>42</v>
       </c>
@@ -3892,7 +3898,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="220" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B220" t="s">
         <v>70</v>
       </c>
@@ -3901,7 +3907,7 @@
       </c>
       <c r="E220" s="4"/>
     </row>
-    <row r="221" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D221" t="s">
         <v>91</v>
       </c>
@@ -3913,7 +3919,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="222" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D222" t="s">
         <v>95</v>
       </c>
@@ -3925,13 +3931,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B223" t="s">
         <v>71</v>
       </c>
       <c r="E223" s="4"/>
     </row>
-    <row r="224" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D224" t="s">
         <v>91</v>
       </c>
@@ -3943,7 +3949,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B225" t="s">
         <v>70</v>
       </c>
@@ -3951,7 +3957,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D226" t="s">
         <v>91</v>
       </c>
@@ -3962,12 +3968,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B227" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D228" t="s">
         <v>91</v>
       </c>
@@ -3978,12 +3984,12 @@
         <v>324</v>
       </c>
     </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B229" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B230" t="s">
         <v>70</v>
       </c>
@@ -3991,7 +3997,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D231" t="s">
         <v>91</v>
       </c>
@@ -4002,12 +4008,12 @@
         <v>319</v>
       </c>
     </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B232" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D233" t="s">
         <v>91</v>
       </c>
@@ -4018,12 +4024,12 @@
         <v>317</v>
       </c>
     </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B234" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D235" t="s">
         <v>91</v>
       </c>
@@ -4035,7 +4041,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D236" t="s">
         <v>91</v>
       </c>
@@ -4046,7 +4052,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D237" t="s">
         <v>91</v>
       </c>
@@ -4057,7 +4063,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D238" t="s">
         <v>95</v>
       </c>
@@ -4068,17 +4074,17 @@
         <v>349</v>
       </c>
     </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B239" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B240" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="241" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B241" t="s">
         <v>70</v>
       </c>
@@ -4086,12 +4092,12 @@
         <v>279</v>
       </c>
     </row>
-    <row r="242" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B242" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="243" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B243" t="s">
         <v>70</v>
       </c>
@@ -4099,7 +4105,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="244" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D244" t="s">
         <v>91</v>
       </c>
@@ -4110,7 +4116,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="245" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D245" t="s">
         <v>95</v>
       </c>
@@ -4121,12 +4127,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B246" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="247" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="D247" t="s">
         <v>42</v>
       </c>
@@ -4149,7 +4155,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="248" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B248" t="s">
         <v>70</v>
       </c>
@@ -4158,7 +4164,7 @@
       </c>
       <c r="E248" s="4"/>
     </row>
-    <row r="249" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D249" t="s">
         <v>91</v>
       </c>
@@ -4170,7 +4176,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="250" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D250" t="s">
         <v>95</v>
       </c>
@@ -4182,13 +4188,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B251" t="s">
         <v>71</v>
       </c>
       <c r="E251" s="4"/>
     </row>
-    <row r="252" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D252" t="s">
         <v>91</v>
       </c>
@@ -4200,7 +4206,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="253" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B253" t="s">
         <v>70</v>
       </c>
@@ -4208,7 +4214,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="254" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D254" t="s">
         <v>91</v>
       </c>
@@ -4219,12 +4225,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="255" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B255" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="256" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D256" t="s">
         <v>91</v>
       </c>
@@ -4235,12 +4241,12 @@
         <v>324</v>
       </c>
     </row>
-    <row r="257" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B257" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="258" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B258" t="s">
         <v>70</v>
       </c>
@@ -4248,7 +4254,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="259" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D259" t="s">
         <v>91</v>
       </c>
@@ -4259,12 +4265,12 @@
         <v>319</v>
       </c>
     </row>
-    <row r="260" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B260" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="261" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D261" t="s">
         <v>91</v>
       </c>
@@ -4275,12 +4281,12 @@
         <v>317</v>
       </c>
     </row>
-    <row r="262" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B262" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="263" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D263" t="s">
         <v>91</v>
       </c>
@@ -4292,7 +4298,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="264" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D264" t="s">
         <v>91</v>
       </c>
@@ -4303,7 +4309,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="265" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D265" t="s">
         <v>91</v>
       </c>
@@ -4314,7 +4320,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="266" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D266" t="s">
         <v>95</v>
       </c>
@@ -4325,32 +4331,32 @@
         <v>349</v>
       </c>
     </row>
-    <row r="267" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B267" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="268" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B268" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="269" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B269" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="270" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B270" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="271" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B271" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="272" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B272" t="s">
         <v>70</v>
       </c>
@@ -4358,12 +4364,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B273" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B274" t="s">
         <v>71</v>
       </c>
@@ -4383,26 +4389,26 @@
       <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.81640625" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.5703125" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.54296875" customWidth="1"/>
+    <col min="8" max="8" width="35.453125" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" customWidth="1"/>
-    <col min="11" max="11" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.7265625" customWidth="1"/>
+    <col min="11" max="11" width="37.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.26953125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.42578125" customWidth="1"/>
-    <col min="15" max="15" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.453125" customWidth="1"/>
+    <col min="15" max="15" width="31.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
@@ -4449,12 +4455,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
         <v>97</v>
       </c>
@@ -4471,17 +4477,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>42</v>
       </c>
@@ -4498,7 +4504,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>70</v>
       </c>
@@ -4506,7 +4512,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>29</v>
       </c>
@@ -4529,7 +4535,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>56</v>
       </c>
@@ -4540,7 +4546,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>70</v>
       </c>
@@ -4548,7 +4554,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>95</v>
       </c>
@@ -4559,12 +4565,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>70</v>
       </c>
@@ -4572,7 +4578,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>46</v>
       </c>
@@ -4586,7 +4592,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>46</v>
       </c>
@@ -4609,27 +4615,27 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
         <v>42</v>
       </c>
@@ -4646,12 +4652,12 @@
         <v>394</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>70</v>
       </c>
@@ -4659,12 +4665,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
         <v>56</v>
       </c>
@@ -4681,7 +4687,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
         <v>41</v>
       </c>
@@ -4695,22 +4701,22 @@
         <v>385</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D29" t="s">
         <v>42</v>
       </c>
@@ -4727,7 +4733,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>70</v>
       </c>
@@ -4735,7 +4741,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
         <v>42</v>
       </c>
@@ -4752,17 +4758,17 @@
         <v>386</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>70</v>
       </c>
@@ -4770,13 +4776,13 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>37</v>
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D36" t="s">
         <v>68</v>
       </c>
@@ -4799,7 +4805,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D37" t="s">
         <v>91</v>
       </c>
@@ -4810,7 +4816,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D38" t="s">
         <v>137</v>
       </c>
@@ -4827,7 +4833,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D39" t="s">
         <v>137</v>
       </c>
@@ -4847,7 +4853,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
         <v>56</v>
       </c>
@@ -4859,7 +4865,7 @@
       </c>
       <c r="J40" s="13"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>70</v>
       </c>
@@ -4868,7 +4874,7 @@
       </c>
       <c r="J41" s="13"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D42" t="s">
         <v>95</v>
       </c>
@@ -4880,25 +4886,25 @@
       </c>
       <c r="J42" s="13"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>71</v>
       </c>
       <c r="J43" s="13"/>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>38</v>
       </c>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>37</v>
       </c>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D46" t="s">
         <v>41</v>
       </c>
@@ -4912,7 +4918,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D47" t="s">
         <v>46</v>
       </c>
@@ -4926,7 +4932,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D48" t="s">
         <v>56</v>
       </c>
@@ -4938,13 +4944,13 @@
       </c>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>38</v>
       </c>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>70</v>
       </c>
@@ -4953,12 +4959,12 @@
       </c>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D52" t="s">
         <v>42</v>
       </c>
@@ -4975,17 +4981,17 @@
         <v>387</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>70</v>
       </c>
@@ -4993,13 +4999,13 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>37</v>
       </c>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D57" t="s">
         <v>68</v>
       </c>
@@ -5022,7 +5028,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D58" t="s">
         <v>91</v>
       </c>
@@ -5033,7 +5039,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D59" t="s">
         <v>137</v>
       </c>
@@ -5050,7 +5056,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D60" t="s">
         <v>137</v>
       </c>
@@ -5070,7 +5076,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D61" t="s">
         <v>56</v>
       </c>
@@ -5082,7 +5088,7 @@
       </c>
       <c r="J61" s="13"/>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>70</v>
       </c>
@@ -5091,7 +5097,7 @@
       </c>
       <c r="J62" s="13"/>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D63" t="s">
         <v>95</v>
       </c>
@@ -5103,25 +5109,25 @@
       </c>
       <c r="J63" s="13"/>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>71</v>
       </c>
       <c r="J64" s="13"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>38</v>
       </c>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>37</v>
       </c>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D67" t="s">
         <v>41</v>
       </c>
@@ -5135,7 +5141,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D68" t="s">
         <v>46</v>
       </c>
@@ -5149,7 +5155,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D69" t="s">
         <v>56</v>
       </c>
@@ -5161,18 +5167,18 @@
       </c>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>38</v>
       </c>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>70</v>
       </c>
@@ -5180,12 +5186,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D74" t="s">
         <v>42</v>
       </c>
@@ -5202,17 +5208,17 @@
         <v>388</v>
       </c>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>83</v>
       </c>
@@ -5220,13 +5226,13 @@
         <v>131</v>
       </c>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>37</v>
       </c>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D79" t="s">
         <v>68</v>
       </c>
@@ -5243,7 +5249,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D80" t="s">
         <v>91</v>
       </c>
@@ -5254,7 +5260,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D81" t="s">
         <v>137</v>
       </c>
@@ -5271,7 +5277,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D82" t="s">
         <v>137</v>
       </c>
@@ -5291,7 +5297,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D83" t="s">
         <v>56</v>
       </c>
@@ -5303,7 +5309,7 @@
       </c>
       <c r="J83" s="13"/>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>70</v>
       </c>
@@ -5312,7 +5318,7 @@
       </c>
       <c r="J84" s="13"/>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D85" t="s">
         <v>95</v>
       </c>
@@ -5324,25 +5330,25 @@
       </c>
       <c r="J85" s="13"/>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>71</v>
       </c>
       <c r="J86" s="13"/>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>38</v>
       </c>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>37</v>
       </c>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D89" t="s">
         <v>41</v>
       </c>
@@ -5356,7 +5362,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D90" t="s">
         <v>46</v>
       </c>
@@ -5370,7 +5376,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D91" t="s">
         <v>56</v>
       </c>
@@ -5382,23 +5388,23 @@
       </c>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>38</v>
       </c>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>70</v>
       </c>
@@ -5406,12 +5412,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D97" t="s">
         <v>42</v>
       </c>
@@ -5428,7 +5434,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>70</v>
       </c>
@@ -5436,7 +5442,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D99" t="s">
         <v>137</v>
       </c>
@@ -5453,7 +5459,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D100" t="s">
         <v>41</v>
       </c>
@@ -5467,7 +5473,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D101" t="s">
         <v>41</v>
       </c>
@@ -5481,17 +5487,17 @@
         <v>242</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>71</v>
       </c>
@@ -5510,15 +5516,15 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>192</v>
       </c>
@@ -5532,7 +5538,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>177</v>
       </c>
@@ -5546,7 +5552,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>178</v>
       </c>
@@ -5567,22 +5573,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:E144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5596,7 +5602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -5611,7 +5617,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -5626,7 +5632,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -5641,7 +5647,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -5656,7 +5662,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -5671,7 +5677,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -5686,7 +5692,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>99</v>
       </c>
@@ -5701,7 +5707,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -5716,7 +5722,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -5731,7 +5737,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -5746,7 +5752,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -5761,7 +5767,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -5775,7 +5781,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -5789,7 +5795,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -5803,7 +5809,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -5817,7 +5823,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -5831,7 +5837,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -5845,7 +5851,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -5859,7 +5865,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -5873,7 +5879,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -5887,7 +5893,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -5902,7 +5908,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -5917,7 +5923,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>98</v>
       </c>
@@ -5926,13 +5932,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D24" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>98</v>
       </c>
@@ -5941,13 +5947,13 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D25" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>98</v>
       </c>
@@ -5956,13 +5962,13 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
+        <v>398</v>
+      </c>
+      <c r="D26" t="s">
         <v>399</v>
       </c>
-      <c r="D26" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>98</v>
       </c>
@@ -5971,661 +5977,679 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D27" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B28" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>403</v>
+      </c>
+      <c r="D28" t="s">
+        <v>403</v>
+      </c>
+      <c r="E28" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>404</v>
+      </c>
+      <c r="D29" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" t="str">
+        <f>"12"</f>
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>396</v>
+      </c>
+      <c r="D30" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" t="str">
+        <f>"99"</f>
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C32" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="D32" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C33" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="D33" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C34" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="D34" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" t="str">
+        <f>"77"</f>
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" t="str">
+        <f>"33"</f>
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" t="str">
+        <f>"88888"</f>
+        <v>88888</v>
+      </c>
+      <c r="C38" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>189</v>
+      </c>
+      <c r="B39" t="str">
+        <f>"77777"</f>
+        <v>77777</v>
+      </c>
+      <c r="C39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>334</v>
+      </c>
+      <c r="D40" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>243</v>
+      </c>
+      <c r="D41" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>336</v>
+      </c>
+      <c r="D42" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>244</v>
+      </c>
+      <c r="D43" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" t="str">
+        <f>"7"</f>
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>246</v>
+      </c>
+      <c r="D44" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" t="str">
+        <f>"15"</f>
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>337</v>
+      </c>
+      <c r="D45" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" t="str">
+        <f>"8"</f>
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>247</v>
+      </c>
+      <c r="D46" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>245</v>
+      </c>
+      <c r="D47" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" t="str">
         <f>"11"</f>
         <v>11</v>
       </c>
-      <c r="C28" t="s">
-        <v>396</v>
-      </c>
-      <c r="D28" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" t="str">
+      <c r="C48" t="s">
+        <v>248</v>
+      </c>
+      <c r="D48" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" t="str">
         <f>"12"</f>
         <v>12</v>
       </c>
-      <c r="C29" t="s">
-        <v>397</v>
-      </c>
-      <c r="D29" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" t="str">
-        <f>"99"</f>
-        <v>99</v>
-      </c>
-      <c r="C30" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>124</v>
-      </c>
-      <c r="B31" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C31" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="D31" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>124</v>
-      </c>
-      <c r="B32" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C32" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="D32" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>124</v>
-      </c>
-      <c r="B33" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C33" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="D33" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>124</v>
-      </c>
-      <c r="B34" t="str">
-        <f>"77"</f>
-        <v>77</v>
-      </c>
-      <c r="C34" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>124</v>
-      </c>
-      <c r="B35" t="str">
-        <f>"33"</f>
-        <v>33</v>
-      </c>
-      <c r="C35" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>127</v>
-      </c>
-      <c r="B36" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>128</v>
-      </c>
-      <c r="D36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>189</v>
-      </c>
-      <c r="B37" t="str">
-        <f>"88888"</f>
-        <v>88888</v>
-      </c>
-      <c r="C37" t="s">
-        <v>190</v>
-      </c>
-      <c r="D37" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>189</v>
-      </c>
-      <c r="B38" t="str">
-        <f>"77777"</f>
-        <v>77777</v>
-      </c>
-      <c r="C38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="C49" t="s">
+        <v>249</v>
+      </c>
+      <c r="D49" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>138</v>
       </c>
-      <c r="B39" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>334</v>
-      </c>
-      <c r="D39" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>138</v>
-      </c>
-      <c r="B40" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>243</v>
-      </c>
-      <c r="D40" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>138</v>
-      </c>
-      <c r="B41" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C41" t="s">
-        <v>336</v>
-      </c>
-      <c r="D41" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>138</v>
-      </c>
-      <c r="B42" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C42" t="s">
-        <v>244</v>
-      </c>
-      <c r="D42" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>138</v>
-      </c>
-      <c r="B43" t="str">
-        <f>"7"</f>
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
-        <v>246</v>
-      </c>
-      <c r="D43" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>138</v>
-      </c>
-      <c r="B44" t="str">
-        <f>"15"</f>
-        <v>15</v>
-      </c>
-      <c r="C44" t="s">
-        <v>337</v>
-      </c>
-      <c r="D44" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>138</v>
-      </c>
-      <c r="B45" t="str">
-        <f>"8"</f>
-        <v>8</v>
-      </c>
-      <c r="C45" t="s">
-        <v>247</v>
-      </c>
-      <c r="D45" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>138</v>
-      </c>
-      <c r="B46" t="str">
-        <f>"5"</f>
-        <v>5</v>
-      </c>
-      <c r="C46" t="s">
-        <v>245</v>
-      </c>
-      <c r="D46" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>138</v>
-      </c>
-      <c r="B47" t="str">
-        <f>"11"</f>
-        <v>11</v>
-      </c>
-      <c r="C47" t="s">
-        <v>248</v>
-      </c>
-      <c r="D47" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>138</v>
-      </c>
-      <c r="B48" t="str">
-        <f>"12"</f>
-        <v>12</v>
-      </c>
-      <c r="C48" t="s">
-        <v>249</v>
-      </c>
-      <c r="D48" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>138</v>
-      </c>
-      <c r="B49" t="str">
+      <c r="B50" t="str">
         <f>"13"</f>
         <v>13</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>335</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>138</v>
       </c>
-      <c r="B50" t="str">
+      <c r="B51" t="str">
         <f>"14"</f>
         <v>14</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>250</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="4"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="4"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="4"/>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="8"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="4"/>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B62" s="8"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B63" s="8"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B64" s="8"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="8"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="8"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="8"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="8"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="8"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="8"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="8"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="8"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="8"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="8"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="8"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="8"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="8"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="8"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="8"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="8"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B81" s="8"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B82" s="8"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B83" s="8"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B84" s="8"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B85" s="8"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B86" s="8"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B87" s="8"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B88" s="8"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B89" s="8"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B90" s="8"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B91" s="8"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B99" s="8"/>
       <c r="C99" s="8"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="8"/>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C100" s="8"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B118" s="8"/>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C118" s="8"/>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B119" s="8"/>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B120" s="8"/>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B121" s="8"/>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B122" s="8"/>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B123" s="8"/>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B124" s="8"/>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B126" s="8"/>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B125" s="8"/>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B127" s="8"/>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B128" s="8"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B129" s="8"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B130" s="8"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B131" s="8"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B132" s="8"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B133" s="8"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B134" s="8"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B135" s="8"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B136" s="8"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B137" s="8"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B138" s="8"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B139" s="8"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B140" s="8"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B141" s="8"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B142" s="8"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B143" s="8"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B144" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -6643,13 +6667,13 @@
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
@@ -6657,7 +6681,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>357</v>
       </c>
@@ -6665,7 +6689,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>358</v>
       </c>
@@ -6673,7 +6697,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>359</v>
       </c>
@@ -6681,7 +6705,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>360</v>
       </c>
@@ -6689,7 +6713,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>361</v>
       </c>
@@ -6697,7 +6721,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>362</v>
       </c>
@@ -6705,7 +6729,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>328</v>
       </c>
@@ -6713,7 +6737,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>327</v>
       </c>
@@ -6736,15 +6760,15 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>25</v>
       </c>
@@ -6758,7 +6782,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -6787,14 +6811,14 @@
       <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -6808,7 +6832,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>264</v>
       </c>
@@ -6822,7 +6846,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>271</v>
       </c>
@@ -6833,7 +6857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>267</v>
       </c>
@@ -6844,7 +6868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>259</v>
       </c>
@@ -6855,7 +6879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>262</v>
       </c>
@@ -6866,7 +6890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>261</v>
       </c>
@@ -6877,7 +6901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>260</v>
       </c>
@@ -6888,7 +6912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>272</v>
       </c>
@@ -6899,7 +6923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>268</v>
       </c>
@@ -6910,7 +6934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>263</v>
       </c>
@@ -6921,7 +6945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>273</v>
       </c>
@@ -6932,7 +6956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>269</v>
       </c>
@@ -6943,7 +6967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>265</v>
       </c>
@@ -6954,7 +6978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>270</v>
       </c>
@@ -6965,7 +6989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>266</v>
       </c>
@@ -6976,7 +7000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>168</v>
       </c>
@@ -6987,8 +7011,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>350</v>
       </c>
@@ -7002,7 +7026,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -7013,7 +7037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -7024,7 +7048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>118</v>
       </c>
@@ -7035,7 +7059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -7046,7 +7070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -7057,7 +7081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>79</v>
       </c>
@@ -7068,7 +7092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>89</v>
       </c>
@@ -7079,7 +7103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -7090,7 +7114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -7101,7 +7125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>87</v>
       </c>
@@ -7112,7 +7136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -7123,7 +7147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>184</v>
       </c>
@@ -7134,7 +7158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>80</v>
       </c>
@@ -7145,7 +7169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>207</v>
       </c>
@@ -7156,7 +7180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -7167,7 +7191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>224</v>
       </c>
@@ -7178,7 +7202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -7189,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -7200,7 +7224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -7211,7 +7235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -7222,7 +7246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>94</v>
       </c>
@@ -7233,7 +7257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>88</v>
       </c>
@@ -7244,7 +7268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>122</v>
       </c>
@@ -7255,7 +7279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>76</v>
       </c>
@@ -7266,7 +7290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -7277,7 +7301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>123</v>
       </c>
@@ -7288,7 +7312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -7299,7 +7323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>144</v>
       </c>
@@ -7310,7 +7334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -7321,7 +7345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>139</v>
       </c>
@@ -7332,7 +7356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>181</v>
       </c>
@@ -7345,7 +7369,7 @@
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>202</v>
       </c>
@@ -7358,7 +7382,7 @@
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>218</v>
       </c>
@@ -7369,7 +7393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>142</v>
       </c>
@@ -7380,7 +7404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -7391,7 +7415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -7402,7 +7426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -7413,7 +7437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>52</v>
       </c>
@@ -7424,7 +7448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>309</v>
       </c>
@@ -7438,7 +7462,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>310</v>
       </c>
@@ -7449,7 +7473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>308</v>
       </c>
@@ -7460,7 +7484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>285</v>
       </c>
@@ -7471,7 +7495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>111</v>
       </c>
@@ -7482,7 +7506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>283</v>
       </c>
@@ -7493,7 +7517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>295</v>
       </c>
@@ -7504,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>296</v>
       </c>
@@ -7515,7 +7539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>294</v>
       </c>
@@ -7526,7 +7550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>286</v>
       </c>
@@ -7537,7 +7561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>340</v>
       </c>
@@ -7548,7 +7572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>287</v>
       </c>
@@ -7559,7 +7583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>288</v>
       </c>
@@ -7570,7 +7594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>367</v>
       </c>
@@ -7581,7 +7605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>368</v>
       </c>
@@ -7592,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>369</v>
       </c>
@@ -7603,7 +7627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>256</v>
       </c>
@@ -7614,7 +7638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>257</v>
       </c>
@@ -7625,7 +7649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>258</v>
       </c>
